--- a/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.835364713306888</v>
+        <v>1.8353647133072</v>
       </c>
       <c r="C2">
-        <v>0.285215588733962</v>
+        <v>0.285215588734431</v>
       </c>
       <c r="D2">
-        <v>0.2187734994685258</v>
+        <v>0.2187734994689947</v>
       </c>
       <c r="E2">
-        <v>0.07505399960770376</v>
+        <v>0.07505399960762205</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.956996274541012</v>
+        <v>8.956996274541069</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01112411719428152</v>
+        <v>0.01112411719431705</v>
       </c>
       <c r="J2">
-        <v>0.4528752887876237</v>
+        <v>0.4528752887875882</v>
       </c>
       <c r="K2">
-        <v>0.1267854440486751</v>
+        <v>0.1267854440487071</v>
       </c>
       <c r="L2">
-        <v>0.5106570733355511</v>
+        <v>0.5106570733355227</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.572119563168826</v>
+        <v>1.572119563168883</v>
       </c>
       <c r="C3">
-        <v>0.2400629370090002</v>
+        <v>0.2400629370090996</v>
       </c>
       <c r="D3">
-        <v>0.1901872161009095</v>
+        <v>0.1901872161012506</v>
       </c>
       <c r="E3">
         <v>0.06736837196148215</v>
@@ -465,22 +465,22 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.870994350096197</v>
+        <v>7.870994350096055</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01038671432232352</v>
+        <v>0.0103867143223102</v>
       </c>
       <c r="J3">
-        <v>0.385766626511348</v>
+        <v>0.3857666265113409</v>
       </c>
       <c r="K3">
-        <v>0.1104834544391622</v>
+        <v>0.1104834544392368</v>
       </c>
       <c r="L3">
-        <v>0.4402878512413793</v>
+        <v>0.440287851241365</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416517554728244</v>
+        <v>1.416517554727932</v>
       </c>
       <c r="C4">
         <v>0.2135229762311184</v>
       </c>
       <c r="D4">
-        <v>0.1731344601602274</v>
+        <v>0.1731344601608953</v>
       </c>
       <c r="E4">
-        <v>0.06277723406554259</v>
+        <v>0.06277723406553548</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.220170174198984</v>
+        <v>7.220170174199012</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.00994579031435272</v>
+        <v>0.009945790314371372</v>
       </c>
       <c r="J4">
-        <v>0.3461509990507778</v>
+        <v>0.3461509990507849</v>
       </c>
       <c r="K4">
-        <v>0.100799870772601</v>
+        <v>0.1007998707726543</v>
       </c>
       <c r="L4">
-        <v>0.3986120273715983</v>
+        <v>0.3986120273716054</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.354411516982196</v>
+        <v>1.354411516982282</v>
       </c>
       <c r="C5">
-        <v>0.202957579600664</v>
+        <v>0.2029575796013319</v>
       </c>
       <c r="D5">
-        <v>0.1662929367273023</v>
+        <v>0.1662929367270749</v>
       </c>
       <c r="E5">
-        <v>0.06093394591600898</v>
+        <v>0.06093394591598411</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.958307863030171</v>
+        <v>6.958307863029916</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.009768491538954205</v>
+        <v>0.009768491538962643</v>
       </c>
       <c r="J5">
-        <v>0.3303489387979397</v>
+        <v>0.3303489387979326</v>
       </c>
       <c r="K5">
-        <v>0.09692452032733812</v>
+        <v>0.09692452032734877</v>
       </c>
       <c r="L5">
-        <v>0.3819605431545483</v>
+        <v>0.3819605431545341</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.344171807338569</v>
+        <v>1.344171807338597</v>
       </c>
       <c r="C6">
-        <v>0.2012170116443031</v>
+        <v>0.2012170116442746</v>
       </c>
       <c r="D6">
-        <v>0.1651629215344173</v>
+        <v>0.1651629215343462</v>
       </c>
       <c r="E6">
-        <v>0.06062941634402819</v>
+        <v>0.06062941634394292</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.915010400671548</v>
+        <v>6.915010400671633</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.009739179001115872</v>
+        <v>0.009739179001252207</v>
       </c>
       <c r="J6">
-        <v>0.3277440922702084</v>
+        <v>0.3277440922701942</v>
       </c>
       <c r="K6">
-        <v>0.09628499543461544</v>
+        <v>0.09628499543449109</v>
       </c>
       <c r="L6">
-        <v>0.3792141784636414</v>
+        <v>0.3792141784636343</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,13 +605,13 @@
         <v>1.415674958234121</v>
       </c>
       <c r="C7">
-        <v>0.2133795346975802</v>
+        <v>0.2133795346975518</v>
       </c>
       <c r="D7">
-        <v>0.1730417794518502</v>
+        <v>0.1730417794516654</v>
       </c>
       <c r="E7">
-        <v>0.06275226852345739</v>
+        <v>0.06275226852340765</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.009943390293548404</v>
+        <v>0.009943390293566612</v>
       </c>
       <c r="J7">
-        <v>0.3459365751228276</v>
+        <v>0.3459365751228134</v>
       </c>
       <c r="K7">
-        <v>0.1007473336104248</v>
+        <v>0.1007473336104461</v>
       </c>
       <c r="L7">
-        <v>0.3983861820799461</v>
+        <v>0.3983861820799817</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>1.743208523548958</v>
       </c>
       <c r="C8">
-        <v>0.2693703395643894</v>
+        <v>0.2693703395624993</v>
       </c>
       <c r="D8">
-        <v>0.2088018012880326</v>
+        <v>0.2088018012882742</v>
       </c>
       <c r="E8">
-        <v>0.0723745641848943</v>
+        <v>0.07237456418495825</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01086701782951582</v>
+        <v>0.01086701782948296</v>
       </c>
       <c r="J8">
         <v>0.4293689969616423</v>
       </c>
       <c r="K8">
-        <v>0.1210897139537543</v>
+        <v>0.1210897139537792</v>
       </c>
       <c r="L8">
         <v>0.4860417418286147</v>
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.444694644125775</v>
+        <v>2.444694644125889</v>
       </c>
       <c r="C9">
-        <v>0.3911232840928847</v>
+        <v>0.3911232840927994</v>
       </c>
       <c r="D9">
-        <v>0.2838344901543053</v>
+        <v>0.2838344901544616</v>
       </c>
       <c r="E9">
-        <v>0.09249549408055557</v>
+        <v>0.09249549408062308</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.41193552938486</v>
+        <v>11.41193552938509</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01280403871732361</v>
+        <v>0.01280403871731739</v>
       </c>
       <c r="J9">
-        <v>0.6086760542383658</v>
+        <v>0.6086760542383445</v>
       </c>
       <c r="K9">
-        <v>0.1641558148487441</v>
+        <v>0.1641558148487512</v>
       </c>
       <c r="L9">
-        <v>0.6729032709095506</v>
+        <v>0.6729032709095719</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.015331201988772</v>
+        <v>3.015331201988715</v>
       </c>
       <c r="C10">
-        <v>0.4922406635392633</v>
+        <v>0.4922406635396328</v>
       </c>
       <c r="D10">
-        <v>0.3435362158832191</v>
+        <v>0.3435362158831055</v>
       </c>
       <c r="E10">
-        <v>0.1084368634702599</v>
+        <v>0.1084368634702209</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.6509728208346</v>
+        <v>13.65097282083471</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01435798417409551</v>
+        <v>0.01435798417408218</v>
       </c>
       <c r="J10">
-        <v>0.7552132964254525</v>
+        <v>0.7552132964254099</v>
       </c>
       <c r="K10">
-        <v>0.1987202716413776</v>
+        <v>0.1987202716413989</v>
       </c>
       <c r="L10">
-        <v>0.8240710646715712</v>
+        <v>0.8240710646715215</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.292481921443027</v>
+        <v>3.292481921443198</v>
       </c>
       <c r="C11">
-        <v>0.5420623421071866</v>
+        <v>0.5420623421078403</v>
       </c>
       <c r="D11">
-        <v>0.3721423260374337</v>
+        <v>0.3721423260371068</v>
       </c>
       <c r="E11">
-        <v>0.1160530320690611</v>
+        <v>0.116053032069118</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.72061860884463</v>
+        <v>14.72061860884446</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0151091620266639</v>
+        <v>0.01510916202660795</v>
       </c>
       <c r="J11">
-        <v>0.8266125512048603</v>
+        <v>0.8266125512048461</v>
       </c>
       <c r="K11">
-        <v>0.2153628709763993</v>
+        <v>0.2153628709764277</v>
       </c>
       <c r="L11">
-        <v>0.8972276843185369</v>
+        <v>0.8972276843185014</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.400556039042897</v>
+        <v>3.400556039042442</v>
       </c>
       <c r="C12">
-        <v>0.5616187860207162</v>
+        <v>0.561618786020631</v>
       </c>
       <c r="D12">
-        <v>0.3832310599090363</v>
+        <v>0.3832310599085247</v>
       </c>
       <c r="E12">
-        <v>0.1190013858257011</v>
+        <v>0.1190013858256656</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.13480881691549</v>
+        <v>15.13480881691572</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01540170374567129</v>
+        <v>0.01540170374566596</v>
       </c>
       <c r="J12">
-        <v>0.8544955217038108</v>
+        <v>0.8544955217038819</v>
       </c>
       <c r="K12">
-        <v>0.2218274035918739</v>
+        <v>0.221827403591881</v>
       </c>
       <c r="L12">
-        <v>0.9257087336652745</v>
+        <v>0.925708733665239</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.377130395120503</v>
+        <v>3.377130395120162</v>
       </c>
       <c r="C13">
-        <v>0.5573736536188107</v>
+        <v>0.5573736536194076</v>
       </c>
       <c r="D13">
-        <v>0.3808306233820531</v>
+        <v>0.3808306233820957</v>
       </c>
       <c r="E13">
-        <v>0.1183633284652075</v>
+        <v>0.1183633284653212</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.04516615121821</v>
+        <v>15.04516615121827</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01533830801797009</v>
+        <v>0.01533830801794345</v>
       </c>
       <c r="J13">
-        <v>0.8484497742271273</v>
+        <v>0.848449774227106</v>
       </c>
       <c r="K13">
-        <v>0.2204273750504555</v>
+        <v>0.2204273750505195</v>
       </c>
       <c r="L13">
-        <v>0.9195375046783383</v>
+        <v>0.9195375046783809</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.301306724641336</v>
+        <v>3.30130672464162</v>
       </c>
       <c r="C14">
-        <v>0.5436565047236286</v>
+        <v>0.5436565047233728</v>
       </c>
       <c r="D14">
-        <v>0.3730491534627305</v>
+        <v>0.3730491534623468</v>
       </c>
       <c r="E14">
-        <v>0.1162942291943168</v>
+        <v>0.1162942291943061</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.75449941637248</v>
+        <v>14.7544994163726</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01513305617667715</v>
+        <v>0.01513305617673399</v>
       </c>
       <c r="J14">
-        <v>0.8288884712836122</v>
+        <v>0.8288884712837188</v>
       </c>
       <c r="K14">
-        <v>0.2158912608121213</v>
+        <v>0.215891260811965</v>
       </c>
       <c r="L14">
-        <v>0.8995542757523722</v>
+        <v>0.8995542757523651</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.255289383220543</v>
+        <v>3.255289383221225</v>
       </c>
       <c r="C15">
-        <v>0.5353489731048171</v>
+        <v>0.5353489731053571</v>
       </c>
       <c r="D15">
-        <v>0.3683177572030161</v>
+        <v>0.3683177572032719</v>
       </c>
       <c r="E15">
-        <v>0.1150356142337507</v>
+        <v>0.1150356142337081</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.57770782862491</v>
+        <v>14.57770782862497</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01500844483019659</v>
+        <v>0.0150084448302632</v>
       </c>
       <c r="J15">
-        <v>0.8170222720041025</v>
+        <v>0.8170222720041167</v>
       </c>
       <c r="K15">
-        <v>0.2131349142205679</v>
+        <v>0.2131349142206034</v>
       </c>
       <c r="L15">
         <v>0.8874202630074777</v>
@@ -947,34 +947,34 @@
         <v>2.997620202001883</v>
       </c>
       <c r="C16">
-        <v>0.4890728693380026</v>
+        <v>0.4890728693379742</v>
       </c>
       <c r="D16">
-        <v>0.3416997393983792</v>
+        <v>0.3416997393980239</v>
       </c>
       <c r="E16">
-        <v>0.1079474189509639</v>
+        <v>0.1079474189509533</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.5822413725258</v>
+        <v>13.58224137252577</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01430992182188362</v>
+        <v>0.01430992182189872</v>
       </c>
       <c r="J16">
-        <v>0.7506557264610052</v>
+        <v>0.7506557264609697</v>
       </c>
       <c r="K16">
-        <v>0.1976535625244651</v>
+        <v>0.1976535625244225</v>
       </c>
       <c r="L16">
-        <v>0.8193902593210254</v>
+        <v>0.819390259320997</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.844431277248646</v>
+        <v>2.844431277248475</v>
       </c>
       <c r="C17">
-        <v>0.4617528778212545</v>
+        <v>0.4617528778214819</v>
       </c>
       <c r="D17">
-        <v>0.3257722152109892</v>
+        <v>0.3257722152115292</v>
       </c>
       <c r="E17">
-        <v>0.1037000439857714</v>
+        <v>0.1037000439856754</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>12.98579728552875</v>
+        <v>12.98579728552858</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01389384291197082</v>
+        <v>0.01389384291198059</v>
       </c>
       <c r="J17">
-        <v>0.7112611068990802</v>
+        <v>0.7112611068991015</v>
       </c>
       <c r="K17">
-        <v>0.1884111103393877</v>
+        <v>0.1884111103394304</v>
       </c>
       <c r="L17">
-        <v>0.778874948242084</v>
+        <v>0.7788749482420201</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.757931717612792</v>
+        <v>2.757931717612905</v>
       </c>
       <c r="C18">
-        <v>0.4463888787817325</v>
+        <v>0.4463888787812493</v>
       </c>
       <c r="D18">
-        <v>0.3167439558059897</v>
+        <v>0.3167439558058334</v>
       </c>
       <c r="E18">
-        <v>0.1012905197512666</v>
+        <v>0.1012905197513021</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.64742057914975</v>
+        <v>12.64742057914953</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01365856976206015</v>
+        <v>0.01365856976204238</v>
       </c>
       <c r="J18">
-        <v>0.689036645540952</v>
+        <v>0.6890366455409875</v>
       </c>
       <c r="K18">
-        <v>0.1831794558397206</v>
+        <v>0.1831794558397348</v>
       </c>
       <c r="L18">
-        <v>0.7559743031248161</v>
+        <v>0.7559743031247805</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.728905027954511</v>
+        <v>2.728905027954795</v>
       </c>
       <c r="C19">
-        <v>0.4412432099744024</v>
+        <v>0.4412432099740045</v>
       </c>
       <c r="D19">
-        <v>0.3137086568985694</v>
+        <v>0.313708656898612</v>
       </c>
       <c r="E19">
-        <v>0.1004801201148133</v>
+        <v>0.1004801201147529</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.53360783649566</v>
+        <v>12.53360783649555</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01357955893740925</v>
+        <v>0.01357955893732399</v>
       </c>
       <c r="J19">
-        <v>0.6815820055491884</v>
+        <v>0.6815820055491812</v>
       </c>
       <c r="K19">
-        <v>0.1814217815303394</v>
+        <v>0.1814217815303643</v>
       </c>
       <c r="L19">
-        <v>0.748285742229605</v>
+        <v>0.7482857422296476</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.860567905313872</v>
+        <v>2.860567905313985</v>
       </c>
       <c r="C20">
-        <v>0.4646240298508815</v>
+        <v>0.4646240298514783</v>
       </c>
       <c r="D20">
-        <v>0.3274536647225261</v>
+        <v>0.3274536647228956</v>
       </c>
       <c r="E20">
-        <v>0.1041486439748667</v>
+        <v>0.1041486439748844</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.04879345968089</v>
+        <v>13.04879345968081</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01393770546168049</v>
+        <v>0.01393770546170447</v>
       </c>
       <c r="J20">
-        <v>0.7154087147858519</v>
+        <v>0.7154087147859016</v>
       </c>
       <c r="K20">
-        <v>0.1893860566158168</v>
+        <v>0.1893860566159091</v>
       </c>
       <c r="L20">
-        <v>0.7831452348144694</v>
+        <v>0.7831452348144552</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.323487747958552</v>
+        <v>3.323487747958836</v>
       </c>
       <c r="C21">
-        <v>0.5476655443183347</v>
+        <v>0.5476655443188179</v>
       </c>
       <c r="D21">
-        <v>0.375327368569117</v>
+        <v>0.3753273685688612</v>
       </c>
       <c r="E21">
-        <v>0.1169001214781424</v>
+        <v>0.1169001214781709</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14.83961095343375</v>
+        <v>14.83961095343358</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01519310833166543</v>
+        <v>0.01519310833166188</v>
       </c>
       <c r="J21">
-        <v>0.8346096454799579</v>
+        <v>0.834609645479901</v>
       </c>
       <c r="K21">
-        <v>0.2172189466280727</v>
+        <v>0.2172189466280443</v>
       </c>
       <c r="L21">
-        <v>0.9054013708586126</v>
+        <v>0.905401370858641</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.644625159434327</v>
+        <v>3.644625159434099</v>
       </c>
       <c r="C22">
-        <v>0.6060526634627479</v>
+        <v>0.6060526634635437</v>
       </c>
       <c r="D22">
-        <v>0.4081399167059772</v>
+        <v>0.408139916706233</v>
       </c>
       <c r="E22">
-        <v>0.1256161894706551</v>
+        <v>0.1256161894705983</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.06443223995052</v>
+        <v>16.06443223995001</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01606185450716691</v>
+        <v>0.01606185450713671</v>
       </c>
       <c r="J22">
-        <v>0.9175504317024661</v>
+        <v>0.9175504317024448</v>
       </c>
       <c r="K22">
-        <v>0.2363750307893469</v>
+        <v>0.2363750307893682</v>
       </c>
       <c r="L22">
-        <v>0.9899341336218797</v>
+        <v>0.9899341336218015</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.471290242512794</v>
+        <v>3.471290242512509</v>
       </c>
       <c r="C23">
-        <v>0.5744578325965506</v>
+        <v>0.5744578325972043</v>
       </c>
       <c r="D23">
-        <v>0.3904688606305911</v>
+        <v>0.3904688606312732</v>
       </c>
       <c r="E23">
-        <v>0.120924625178386</v>
+        <v>0.120924625178354</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.40503766003724</v>
+        <v>15.40503766003712</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01559308625232969</v>
+        <v>0.01559308625239542</v>
       </c>
       <c r="J23">
-        <v>0.8727573904192809</v>
+        <v>0.8727573904192738</v>
       </c>
       <c r="K23">
-        <v>0.2260508191215962</v>
+        <v>0.2260508191216246</v>
       </c>
       <c r="L23">
-        <v>0.944335535750497</v>
+        <v>0.9443355357504828</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.853267686244521</v>
+        <v>2.853267686244806</v>
       </c>
       <c r="C24">
-        <v>0.4633249249229436</v>
+        <v>0.4633249249225742</v>
       </c>
       <c r="D24">
-        <v>0.3266930840500351</v>
+        <v>0.3266930840498503</v>
       </c>
       <c r="E24">
-        <v>0.1039457320231918</v>
+        <v>0.1039457320232309</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.02029891855057</v>
+        <v>13.02029891855037</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01391786306664944</v>
+        <v>0.01391786306674803</v>
       </c>
       <c r="J24">
-        <v>0.7135322723561757</v>
+        <v>0.7135322723561544</v>
       </c>
       <c r="K24">
-        <v>0.1889450303189193</v>
+        <v>0.1889450303189335</v>
       </c>
       <c r="L24">
-        <v>0.7812134274320854</v>
+        <v>0.7812134274321281</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.246821135588334</v>
+        <v>2.246821135588391</v>
       </c>
       <c r="C25">
-        <v>0.3565053252386576</v>
+        <v>0.356505325238345</v>
       </c>
       <c r="D25">
-        <v>0.2628640830641018</v>
+        <v>0.2628640830641444</v>
       </c>
       <c r="E25">
-        <v>0.08688152717741815</v>
+        <v>0.08688152717733288</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.6227156676234</v>
+        <v>10.62271566762334</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01226158924357623</v>
+        <v>0.01226158924355047</v>
       </c>
       <c r="J25">
-        <v>0.5580071931512123</v>
+        <v>0.5580071931512265</v>
       </c>
       <c r="K25">
-        <v>0.1520739619496929</v>
+        <v>0.1520739619497498</v>
       </c>
       <c r="L25">
-        <v>0.6203109273034499</v>
+        <v>0.6203109273034002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.8353647133072</v>
+        <v>1.835364713306888</v>
       </c>
       <c r="C2">
-        <v>0.285215588734431</v>
+        <v>0.285215588733962</v>
       </c>
       <c r="D2">
-        <v>0.2187734994689947</v>
+        <v>0.2187734994685258</v>
       </c>
       <c r="E2">
-        <v>0.07505399960762205</v>
+        <v>0.07505399960770376</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.956996274541069</v>
+        <v>8.956996274541012</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01112411719431705</v>
+        <v>0.01112411719428152</v>
       </c>
       <c r="J2">
-        <v>0.4528752887875882</v>
+        <v>0.4528752887876237</v>
       </c>
       <c r="K2">
-        <v>0.1267854440487071</v>
+        <v>0.1267854440486751</v>
       </c>
       <c r="L2">
-        <v>0.5106570733355227</v>
+        <v>0.5106570733355511</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.572119563168883</v>
+        <v>1.572119563168826</v>
       </c>
       <c r="C3">
-        <v>0.2400629370090996</v>
+        <v>0.2400629370090002</v>
       </c>
       <c r="D3">
-        <v>0.1901872161012506</v>
+        <v>0.1901872161009095</v>
       </c>
       <c r="E3">
         <v>0.06736837196148215</v>
@@ -465,22 +465,22 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.870994350096055</v>
+        <v>7.870994350096197</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0103867143223102</v>
+        <v>0.01038671432232352</v>
       </c>
       <c r="J3">
-        <v>0.3857666265113409</v>
+        <v>0.385766626511348</v>
       </c>
       <c r="K3">
-        <v>0.1104834544392368</v>
+        <v>0.1104834544391622</v>
       </c>
       <c r="L3">
-        <v>0.440287851241365</v>
+        <v>0.4402878512413793</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416517554727932</v>
+        <v>1.416517554728244</v>
       </c>
       <c r="C4">
         <v>0.2135229762311184</v>
       </c>
       <c r="D4">
-        <v>0.1731344601608953</v>
+        <v>0.1731344601602274</v>
       </c>
       <c r="E4">
-        <v>0.06277723406553548</v>
+        <v>0.06277723406554259</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.220170174199012</v>
+        <v>7.220170174198984</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.009945790314371372</v>
+        <v>0.00994579031435272</v>
       </c>
       <c r="J4">
-        <v>0.3461509990507849</v>
+        <v>0.3461509990507778</v>
       </c>
       <c r="K4">
-        <v>0.1007998707726543</v>
+        <v>0.100799870772601</v>
       </c>
       <c r="L4">
-        <v>0.3986120273716054</v>
+        <v>0.3986120273715983</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.354411516982282</v>
+        <v>1.354411516982196</v>
       </c>
       <c r="C5">
-        <v>0.2029575796013319</v>
+        <v>0.202957579600664</v>
       </c>
       <c r="D5">
-        <v>0.1662929367270749</v>
+        <v>0.1662929367273023</v>
       </c>
       <c r="E5">
-        <v>0.06093394591598411</v>
+        <v>0.06093394591600898</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.958307863029916</v>
+        <v>6.958307863030171</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.009768491538962643</v>
+        <v>0.009768491538954205</v>
       </c>
       <c r="J5">
-        <v>0.3303489387979326</v>
+        <v>0.3303489387979397</v>
       </c>
       <c r="K5">
-        <v>0.09692452032734877</v>
+        <v>0.09692452032733812</v>
       </c>
       <c r="L5">
-        <v>0.3819605431545341</v>
+        <v>0.3819605431545483</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.344171807338597</v>
+        <v>1.344171807338569</v>
       </c>
       <c r="C6">
-        <v>0.2012170116442746</v>
+        <v>0.2012170116443031</v>
       </c>
       <c r="D6">
-        <v>0.1651629215343462</v>
+        <v>0.1651629215344173</v>
       </c>
       <c r="E6">
-        <v>0.06062941634394292</v>
+        <v>0.06062941634402819</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.915010400671633</v>
+        <v>6.915010400671548</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.009739179001252207</v>
+        <v>0.009739179001115872</v>
       </c>
       <c r="J6">
-        <v>0.3277440922701942</v>
+        <v>0.3277440922702084</v>
       </c>
       <c r="K6">
-        <v>0.09628499543449109</v>
+        <v>0.09628499543461544</v>
       </c>
       <c r="L6">
-        <v>0.3792141784636343</v>
+        <v>0.3792141784636414</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,13 +605,13 @@
         <v>1.415674958234121</v>
       </c>
       <c r="C7">
-        <v>0.2133795346975518</v>
+        <v>0.2133795346975802</v>
       </c>
       <c r="D7">
-        <v>0.1730417794516654</v>
+        <v>0.1730417794518502</v>
       </c>
       <c r="E7">
-        <v>0.06275226852340765</v>
+        <v>0.06275226852345739</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.009943390293566612</v>
+        <v>0.009943390293548404</v>
       </c>
       <c r="J7">
-        <v>0.3459365751228134</v>
+        <v>0.3459365751228276</v>
       </c>
       <c r="K7">
-        <v>0.1007473336104461</v>
+        <v>0.1007473336104248</v>
       </c>
       <c r="L7">
-        <v>0.3983861820799817</v>
+        <v>0.3983861820799461</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>1.743208523548958</v>
       </c>
       <c r="C8">
-        <v>0.2693703395624993</v>
+        <v>0.2693703395643894</v>
       </c>
       <c r="D8">
-        <v>0.2088018012882742</v>
+        <v>0.2088018012880326</v>
       </c>
       <c r="E8">
-        <v>0.07237456418495825</v>
+        <v>0.0723745641848943</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01086701782948296</v>
+        <v>0.01086701782951582</v>
       </c>
       <c r="J8">
         <v>0.4293689969616423</v>
       </c>
       <c r="K8">
-        <v>0.1210897139537792</v>
+        <v>0.1210897139537543</v>
       </c>
       <c r="L8">
         <v>0.4860417418286147</v>
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.444694644125889</v>
+        <v>2.444694644125775</v>
       </c>
       <c r="C9">
-        <v>0.3911232840927994</v>
+        <v>0.3911232840928847</v>
       </c>
       <c r="D9">
-        <v>0.2838344901544616</v>
+        <v>0.2838344901543053</v>
       </c>
       <c r="E9">
-        <v>0.09249549408062308</v>
+        <v>0.09249549408055557</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.41193552938509</v>
+        <v>11.41193552938486</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01280403871731739</v>
+        <v>0.01280403871732361</v>
       </c>
       <c r="J9">
-        <v>0.6086760542383445</v>
+        <v>0.6086760542383658</v>
       </c>
       <c r="K9">
-        <v>0.1641558148487512</v>
+        <v>0.1641558148487441</v>
       </c>
       <c r="L9">
-        <v>0.6729032709095719</v>
+        <v>0.6729032709095506</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.015331201988715</v>
+        <v>3.015331201988772</v>
       </c>
       <c r="C10">
-        <v>0.4922406635396328</v>
+        <v>0.4922406635392633</v>
       </c>
       <c r="D10">
-        <v>0.3435362158831055</v>
+        <v>0.3435362158832191</v>
       </c>
       <c r="E10">
-        <v>0.1084368634702209</v>
+        <v>0.1084368634702599</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.65097282083471</v>
+        <v>13.6509728208346</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01435798417408218</v>
+        <v>0.01435798417409551</v>
       </c>
       <c r="J10">
-        <v>0.7552132964254099</v>
+        <v>0.7552132964254525</v>
       </c>
       <c r="K10">
-        <v>0.1987202716413989</v>
+        <v>0.1987202716413776</v>
       </c>
       <c r="L10">
-        <v>0.8240710646715215</v>
+        <v>0.8240710646715712</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.292481921443198</v>
+        <v>3.292481921443027</v>
       </c>
       <c r="C11">
-        <v>0.5420623421078403</v>
+        <v>0.5420623421071866</v>
       </c>
       <c r="D11">
-        <v>0.3721423260371068</v>
+        <v>0.3721423260374337</v>
       </c>
       <c r="E11">
-        <v>0.116053032069118</v>
+        <v>0.1160530320690611</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.72061860884446</v>
+        <v>14.72061860884463</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01510916202660795</v>
+        <v>0.0151091620266639</v>
       </c>
       <c r="J11">
-        <v>0.8266125512048461</v>
+        <v>0.8266125512048603</v>
       </c>
       <c r="K11">
-        <v>0.2153628709764277</v>
+        <v>0.2153628709763993</v>
       </c>
       <c r="L11">
-        <v>0.8972276843185014</v>
+        <v>0.8972276843185369</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.400556039042442</v>
+        <v>3.400556039042897</v>
       </c>
       <c r="C12">
-        <v>0.561618786020631</v>
+        <v>0.5616187860207162</v>
       </c>
       <c r="D12">
-        <v>0.3832310599085247</v>
+        <v>0.3832310599090363</v>
       </c>
       <c r="E12">
-        <v>0.1190013858256656</v>
+        <v>0.1190013858257011</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.13480881691572</v>
+        <v>15.13480881691549</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01540170374566596</v>
+        <v>0.01540170374567129</v>
       </c>
       <c r="J12">
-        <v>0.8544955217038819</v>
+        <v>0.8544955217038108</v>
       </c>
       <c r="K12">
-        <v>0.221827403591881</v>
+        <v>0.2218274035918739</v>
       </c>
       <c r="L12">
-        <v>0.925708733665239</v>
+        <v>0.9257087336652745</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.377130395120162</v>
+        <v>3.377130395120503</v>
       </c>
       <c r="C13">
-        <v>0.5573736536194076</v>
+        <v>0.5573736536188107</v>
       </c>
       <c r="D13">
-        <v>0.3808306233820957</v>
+        <v>0.3808306233820531</v>
       </c>
       <c r="E13">
-        <v>0.1183633284653212</v>
+        <v>0.1183633284652075</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.04516615121827</v>
+        <v>15.04516615121821</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01533830801794345</v>
+        <v>0.01533830801797009</v>
       </c>
       <c r="J13">
-        <v>0.848449774227106</v>
+        <v>0.8484497742271273</v>
       </c>
       <c r="K13">
-        <v>0.2204273750505195</v>
+        <v>0.2204273750504555</v>
       </c>
       <c r="L13">
-        <v>0.9195375046783809</v>
+        <v>0.9195375046783383</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.30130672464162</v>
+        <v>3.301306724641336</v>
       </c>
       <c r="C14">
-        <v>0.5436565047233728</v>
+        <v>0.5436565047236286</v>
       </c>
       <c r="D14">
-        <v>0.3730491534623468</v>
+        <v>0.3730491534627305</v>
       </c>
       <c r="E14">
-        <v>0.1162942291943061</v>
+        <v>0.1162942291943168</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.7544994163726</v>
+        <v>14.75449941637248</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01513305617673399</v>
+        <v>0.01513305617667715</v>
       </c>
       <c r="J14">
-        <v>0.8288884712837188</v>
+        <v>0.8288884712836122</v>
       </c>
       <c r="K14">
-        <v>0.215891260811965</v>
+        <v>0.2158912608121213</v>
       </c>
       <c r="L14">
-        <v>0.8995542757523651</v>
+        <v>0.8995542757523722</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.255289383221225</v>
+        <v>3.255289383220543</v>
       </c>
       <c r="C15">
-        <v>0.5353489731053571</v>
+        <v>0.5353489731048171</v>
       </c>
       <c r="D15">
-        <v>0.3683177572032719</v>
+        <v>0.3683177572030161</v>
       </c>
       <c r="E15">
-        <v>0.1150356142337081</v>
+        <v>0.1150356142337507</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.57770782862497</v>
+        <v>14.57770782862491</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0150084448302632</v>
+        <v>0.01500844483019659</v>
       </c>
       <c r="J15">
-        <v>0.8170222720041167</v>
+        <v>0.8170222720041025</v>
       </c>
       <c r="K15">
-        <v>0.2131349142206034</v>
+        <v>0.2131349142205679</v>
       </c>
       <c r="L15">
         <v>0.8874202630074777</v>
@@ -947,34 +947,34 @@
         <v>2.997620202001883</v>
       </c>
       <c r="C16">
-        <v>0.4890728693379742</v>
+        <v>0.4890728693380026</v>
       </c>
       <c r="D16">
-        <v>0.3416997393980239</v>
+        <v>0.3416997393983792</v>
       </c>
       <c r="E16">
-        <v>0.1079474189509533</v>
+        <v>0.1079474189509639</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.58224137252577</v>
+        <v>13.5822413725258</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01430992182189872</v>
+        <v>0.01430992182188362</v>
       </c>
       <c r="J16">
-        <v>0.7506557264609697</v>
+        <v>0.7506557264610052</v>
       </c>
       <c r="K16">
-        <v>0.1976535625244225</v>
+        <v>0.1976535625244651</v>
       </c>
       <c r="L16">
-        <v>0.819390259320997</v>
+        <v>0.8193902593210254</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.844431277248475</v>
+        <v>2.844431277248646</v>
       </c>
       <c r="C17">
-        <v>0.4617528778214819</v>
+        <v>0.4617528778212545</v>
       </c>
       <c r="D17">
-        <v>0.3257722152115292</v>
+        <v>0.3257722152109892</v>
       </c>
       <c r="E17">
-        <v>0.1037000439856754</v>
+        <v>0.1037000439857714</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>12.98579728552858</v>
+        <v>12.98579728552875</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01389384291198059</v>
+        <v>0.01389384291197082</v>
       </c>
       <c r="J17">
-        <v>0.7112611068991015</v>
+        <v>0.7112611068990802</v>
       </c>
       <c r="K17">
-        <v>0.1884111103394304</v>
+        <v>0.1884111103393877</v>
       </c>
       <c r="L17">
-        <v>0.7788749482420201</v>
+        <v>0.778874948242084</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.757931717612905</v>
+        <v>2.757931717612792</v>
       </c>
       <c r="C18">
-        <v>0.4463888787812493</v>
+        <v>0.4463888787817325</v>
       </c>
       <c r="D18">
-        <v>0.3167439558058334</v>
+        <v>0.3167439558059897</v>
       </c>
       <c r="E18">
-        <v>0.1012905197513021</v>
+        <v>0.1012905197512666</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.64742057914953</v>
+        <v>12.64742057914975</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01365856976204238</v>
+        <v>0.01365856976206015</v>
       </c>
       <c r="J18">
-        <v>0.6890366455409875</v>
+        <v>0.689036645540952</v>
       </c>
       <c r="K18">
-        <v>0.1831794558397348</v>
+        <v>0.1831794558397206</v>
       </c>
       <c r="L18">
-        <v>0.7559743031247805</v>
+        <v>0.7559743031248161</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.728905027954795</v>
+        <v>2.728905027954511</v>
       </c>
       <c r="C19">
-        <v>0.4412432099740045</v>
+        <v>0.4412432099744024</v>
       </c>
       <c r="D19">
-        <v>0.313708656898612</v>
+        <v>0.3137086568985694</v>
       </c>
       <c r="E19">
-        <v>0.1004801201147529</v>
+        <v>0.1004801201148133</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.53360783649555</v>
+        <v>12.53360783649566</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01357955893732399</v>
+        <v>0.01357955893740925</v>
       </c>
       <c r="J19">
-        <v>0.6815820055491812</v>
+        <v>0.6815820055491884</v>
       </c>
       <c r="K19">
-        <v>0.1814217815303643</v>
+        <v>0.1814217815303394</v>
       </c>
       <c r="L19">
-        <v>0.7482857422296476</v>
+        <v>0.748285742229605</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.860567905313985</v>
+        <v>2.860567905313872</v>
       </c>
       <c r="C20">
-        <v>0.4646240298514783</v>
+        <v>0.4646240298508815</v>
       </c>
       <c r="D20">
-        <v>0.3274536647228956</v>
+        <v>0.3274536647225261</v>
       </c>
       <c r="E20">
-        <v>0.1041486439748844</v>
+        <v>0.1041486439748667</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.04879345968081</v>
+        <v>13.04879345968089</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01393770546170447</v>
+        <v>0.01393770546168049</v>
       </c>
       <c r="J20">
-        <v>0.7154087147859016</v>
+        <v>0.7154087147858519</v>
       </c>
       <c r="K20">
-        <v>0.1893860566159091</v>
+        <v>0.1893860566158168</v>
       </c>
       <c r="L20">
-        <v>0.7831452348144552</v>
+        <v>0.7831452348144694</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.323487747958836</v>
+        <v>3.323487747958552</v>
       </c>
       <c r="C21">
-        <v>0.5476655443188179</v>
+        <v>0.5476655443183347</v>
       </c>
       <c r="D21">
-        <v>0.3753273685688612</v>
+        <v>0.375327368569117</v>
       </c>
       <c r="E21">
-        <v>0.1169001214781709</v>
+        <v>0.1169001214781424</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14.83961095343358</v>
+        <v>14.83961095343375</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01519310833166188</v>
+        <v>0.01519310833166543</v>
       </c>
       <c r="J21">
-        <v>0.834609645479901</v>
+        <v>0.8346096454799579</v>
       </c>
       <c r="K21">
-        <v>0.2172189466280443</v>
+        <v>0.2172189466280727</v>
       </c>
       <c r="L21">
-        <v>0.905401370858641</v>
+        <v>0.9054013708586126</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.644625159434099</v>
+        <v>3.644625159434327</v>
       </c>
       <c r="C22">
-        <v>0.6060526634635437</v>
+        <v>0.6060526634627479</v>
       </c>
       <c r="D22">
-        <v>0.408139916706233</v>
+        <v>0.4081399167059772</v>
       </c>
       <c r="E22">
-        <v>0.1256161894705983</v>
+        <v>0.1256161894706551</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.06443223995001</v>
+        <v>16.06443223995052</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01606185450713671</v>
+        <v>0.01606185450716691</v>
       </c>
       <c r="J22">
-        <v>0.9175504317024448</v>
+        <v>0.9175504317024661</v>
       </c>
       <c r="K22">
-        <v>0.2363750307893682</v>
+        <v>0.2363750307893469</v>
       </c>
       <c r="L22">
-        <v>0.9899341336218015</v>
+        <v>0.9899341336218797</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.471290242512509</v>
+        <v>3.471290242512794</v>
       </c>
       <c r="C23">
-        <v>0.5744578325972043</v>
+        <v>0.5744578325965506</v>
       </c>
       <c r="D23">
-        <v>0.3904688606312732</v>
+        <v>0.3904688606305911</v>
       </c>
       <c r="E23">
-        <v>0.120924625178354</v>
+        <v>0.120924625178386</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.40503766003712</v>
+        <v>15.40503766003724</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01559308625239542</v>
+        <v>0.01559308625232969</v>
       </c>
       <c r="J23">
-        <v>0.8727573904192738</v>
+        <v>0.8727573904192809</v>
       </c>
       <c r="K23">
-        <v>0.2260508191216246</v>
+        <v>0.2260508191215962</v>
       </c>
       <c r="L23">
-        <v>0.9443355357504828</v>
+        <v>0.944335535750497</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.853267686244806</v>
+        <v>2.853267686244521</v>
       </c>
       <c r="C24">
-        <v>0.4633249249225742</v>
+        <v>0.4633249249229436</v>
       </c>
       <c r="D24">
-        <v>0.3266930840498503</v>
+        <v>0.3266930840500351</v>
       </c>
       <c r="E24">
-        <v>0.1039457320232309</v>
+        <v>0.1039457320231918</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.02029891855037</v>
+        <v>13.02029891855057</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01391786306674803</v>
+        <v>0.01391786306664944</v>
       </c>
       <c r="J24">
-        <v>0.7135322723561544</v>
+        <v>0.7135322723561757</v>
       </c>
       <c r="K24">
-        <v>0.1889450303189335</v>
+        <v>0.1889450303189193</v>
       </c>
       <c r="L24">
-        <v>0.7812134274321281</v>
+        <v>0.7812134274320854</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.246821135588391</v>
+        <v>2.246821135588334</v>
       </c>
       <c r="C25">
-        <v>0.356505325238345</v>
+        <v>0.3565053252386576</v>
       </c>
       <c r="D25">
-        <v>0.2628640830641444</v>
+        <v>0.2628640830641018</v>
       </c>
       <c r="E25">
-        <v>0.08688152717733288</v>
+        <v>0.08688152717741815</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.62271566762334</v>
+        <v>10.6227156676234</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01226158924355047</v>
+        <v>0.01226158924357623</v>
       </c>
       <c r="J25">
-        <v>0.5580071931512265</v>
+        <v>0.5580071931512123</v>
       </c>
       <c r="K25">
-        <v>0.1520739619497498</v>
+        <v>0.1520739619496929</v>
       </c>
       <c r="L25">
-        <v>0.6203109273034002</v>
+        <v>0.6203109273034499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.835364713306888</v>
+        <v>1.835057273412417</v>
       </c>
       <c r="C2">
-        <v>0.285215588733962</v>
+        <v>0.2850320551030165</v>
       </c>
       <c r="D2">
-        <v>0.2187734994685258</v>
+        <v>0.2187508452446423</v>
       </c>
       <c r="E2">
-        <v>0.07505399960770376</v>
+        <v>0.07503047619251646</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.956996274541012</v>
+        <v>2.913259315225247</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.99416339533056</v>
       </c>
       <c r="I2">
-        <v>0.01112411719428152</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4528752887876237</v>
+        <v>0.01111321464576775</v>
       </c>
       <c r="K2">
-        <v>0.1267854440486751</v>
+        <v>0.4527636956719903</v>
       </c>
       <c r="L2">
-        <v>0.5106570733355511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1267767088756848</v>
+      </c>
+      <c r="M2">
+        <v>0.5106064285872733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.572119563168826</v>
+        <v>1.571954381309098</v>
       </c>
       <c r="C3">
-        <v>0.2400629370090002</v>
+        <v>0.2399430126828577</v>
       </c>
       <c r="D3">
-        <v>0.1901872161009095</v>
+        <v>0.190172484244826</v>
       </c>
       <c r="E3">
-        <v>0.06736837196148215</v>
+        <v>0.06735086605787188</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.870994350096197</v>
+        <v>2.550959550798751</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.27775232892759</v>
       </c>
       <c r="I3">
-        <v>0.01038671432232352</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.385766626511348</v>
+        <v>0.01037862563023895</v>
       </c>
       <c r="K3">
-        <v>0.1104834544391622</v>
+        <v>0.3857017793441315</v>
       </c>
       <c r="L3">
-        <v>0.4402878512413793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.110478732443152</v>
+      </c>
+      <c r="M3">
+        <v>0.4402633335915596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416517554728244</v>
+        <v>1.416417620434345</v>
       </c>
       <c r="C4">
-        <v>0.2135229762311184</v>
+        <v>0.2134358174639743</v>
       </c>
       <c r="D4">
-        <v>0.1731344601602274</v>
+        <v>0.1731237294929286</v>
       </c>
       <c r="E4">
-        <v>0.06277723406554259</v>
+        <v>0.06276327796121706</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.220170174198984</v>
+        <v>2.333791678200015</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.848446020595617</v>
       </c>
       <c r="I4">
-        <v>0.00994579031435272</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3461509990507778</v>
+        <v>0.009939362867805723</v>
       </c>
       <c r="K4">
-        <v>0.100799870772601</v>
+        <v>0.346108422258844</v>
       </c>
       <c r="L4">
-        <v>0.3986120273715983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1007969674239568</v>
+      </c>
+      <c r="M4">
+        <v>0.398598995764722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.354411516982196</v>
+        <v>1.354333514475059</v>
       </c>
       <c r="C5">
-        <v>0.202957579600664</v>
+        <v>0.202882457499598</v>
       </c>
       <c r="D5">
-        <v>0.1662929367273023</v>
+        <v>0.1662836651487538</v>
       </c>
       <c r="E5">
-        <v>0.06093394591600898</v>
+        <v>0.06092141248575444</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.958307863030171</v>
+        <v>2.246401930258259</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.675720501827897</v>
       </c>
       <c r="I5">
-        <v>0.009768491538954205</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3303489387979397</v>
+        <v>0.009762728857113157</v>
       </c>
       <c r="K5">
-        <v>0.09692452032733812</v>
+        <v>0.3303140833890197</v>
       </c>
       <c r="L5">
-        <v>0.3819605431545483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.09692222602998868</v>
+      </c>
+      <c r="M5">
+        <v>0.3819512372351994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.344171807338569</v>
+        <v>1.344097188666439</v>
       </c>
       <c r="C6">
-        <v>0.2012170116443031</v>
+        <v>0.2011438156990266</v>
       </c>
       <c r="D6">
-        <v>0.1651629215344173</v>
+        <v>0.1651538830513175</v>
       </c>
       <c r="E6">
-        <v>0.06062941634402819</v>
+        <v>0.0606171180272348</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.915010400671548</v>
+        <v>2.231951868428411</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.647161816140624</v>
       </c>
       <c r="I6">
-        <v>0.009739179001115872</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3277440922702084</v>
+        <v>0.009733526083858468</v>
       </c>
       <c r="K6">
-        <v>0.09628499543461544</v>
+        <v>0.3277104440558745</v>
       </c>
       <c r="L6">
-        <v>0.3792141784636414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.09628279506969761</v>
+      </c>
+      <c r="M6">
+        <v>0.3792054384458368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415674958234121</v>
+        <v>1.415575337501394</v>
       </c>
       <c r="C7">
-        <v>0.2133795346975802</v>
+        <v>0.2132925432680253</v>
       </c>
       <c r="D7">
-        <v>0.1730417794518502</v>
+        <v>0.1730310691018246</v>
       </c>
       <c r="E7">
-        <v>0.06275226852345739</v>
+        <v>0.06273833168782161</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.216625851003073</v>
+        <v>2.332608897006708</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.846108135920531</v>
       </c>
       <c r="I7">
-        <v>0.009943390293548404</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3459365751228276</v>
+        <v>0.009936971856224108</v>
       </c>
       <c r="K7">
-        <v>0.1007473336104248</v>
+        <v>0.3458941076315298</v>
       </c>
       <c r="L7">
-        <v>0.3983861820799461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1007444389746013</v>
+      </c>
+      <c r="M7">
+        <v>0.3983732043585348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.743208523548958</v>
+        <v>1.742955316241762</v>
       </c>
       <c r="C8">
-        <v>0.2693703395643894</v>
+        <v>0.2692102198093096</v>
       </c>
       <c r="D8">
-        <v>0.2088018012880326</v>
+        <v>0.2087820883319296</v>
       </c>
       <c r="E8">
-        <v>0.0723745641848943</v>
+        <v>0.07235315406037301</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.578798004121239</v>
+        <v>2.787099471092944</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.74466931651898</v>
       </c>
       <c r="I8">
-        <v>0.01086701782951582</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4293689969616423</v>
+        <v>0.01085710225795111</v>
       </c>
       <c r="K8">
-        <v>0.1210897139537543</v>
+        <v>0.4292750308504054</v>
       </c>
       <c r="L8">
-        <v>0.4860417418286147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1210825166632645</v>
+      </c>
+      <c r="M8">
+        <v>0.4860011778037929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.444694644125775</v>
+        <v>2.443913464840307</v>
       </c>
       <c r="C9">
-        <v>0.3911232840928847</v>
+        <v>0.3907547176324044</v>
       </c>
       <c r="D9">
-        <v>0.2838344901543053</v>
+        <v>0.283787597812875</v>
       </c>
       <c r="E9">
-        <v>0.09249549408055557</v>
+        <v>0.09245754822510222</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.41193552938486</v>
+        <v>3.731945277037369</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.613728725644421</v>
       </c>
       <c r="I9">
-        <v>0.01280403871732361</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6086760542383658</v>
+        <v>0.01278648463870624</v>
       </c>
       <c r="K9">
-        <v>0.1641558148487441</v>
+        <v>0.6084150402829067</v>
       </c>
       <c r="L9">
-        <v>0.6729032709095506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1641332916471612</v>
+      </c>
+      <c r="M9">
+        <v>0.6727614819732324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.015331201988772</v>
+        <v>3.013928200390694</v>
       </c>
       <c r="C10">
-        <v>0.4922406635392633</v>
+        <v>0.4916513698373706</v>
       </c>
       <c r="D10">
-        <v>0.3435362158832191</v>
+        <v>0.3434584244299259</v>
       </c>
       <c r="E10">
-        <v>0.1084368634702599</v>
+        <v>0.1083842388035805</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.6509728208346</v>
+        <v>4.478319766627379</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.090841472487341</v>
       </c>
       <c r="I10">
-        <v>0.01435798417409551</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7552132964254525</v>
+        <v>0.01433388152074055</v>
       </c>
       <c r="K10">
-        <v>0.1987202716413776</v>
+        <v>0.7547613964269502</v>
       </c>
       <c r="L10">
-        <v>0.8240710646715712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1986789202790291</v>
+      </c>
+      <c r="M10">
+        <v>0.8238055915698794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.292481921443027</v>
+        <v>3.290713716384687</v>
       </c>
       <c r="C11">
-        <v>0.5420623421071866</v>
+        <v>0.5413488345930944</v>
       </c>
       <c r="D11">
-        <v>0.3721423260374337</v>
+        <v>0.3720463588409615</v>
       </c>
       <c r="E11">
-        <v>0.1160530320690611</v>
+        <v>0.1159927149370645</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.72061860884463</v>
+        <v>4.834786459545512</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.796455172853257</v>
       </c>
       <c r="I11">
-        <v>0.0151091620266639</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8266125512048603</v>
+        <v>0.01508172925966367</v>
       </c>
       <c r="K11">
-        <v>0.2153628709763993</v>
+        <v>0.8260498463271304</v>
       </c>
       <c r="L11">
-        <v>0.8972276843185369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2153101680075906</v>
+      </c>
+      <c r="M11">
+        <v>0.8968883860711827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.400556039042897</v>
+        <v>3.398633905189286</v>
       </c>
       <c r="C12">
-        <v>0.5616187860207162</v>
+        <v>0.5608537275655294</v>
       </c>
       <c r="D12">
-        <v>0.3832310599090363</v>
+        <v>0.3831274022302011</v>
       </c>
       <c r="E12">
-        <v>0.1190013858257011</v>
+        <v>0.1189379529552212</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.13480881691549</v>
+        <v>4.972801955579712</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.06967368004382</v>
       </c>
       <c r="I12">
-        <v>0.01540170374567129</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8544955217038108</v>
+        <v>0.01537294208123097</v>
       </c>
       <c r="K12">
-        <v>0.2218274035918739</v>
+        <v>0.8538863093717595</v>
       </c>
       <c r="L12">
-        <v>0.9257087336652745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2217698607236471</v>
+      </c>
+      <c r="M12">
+        <v>0.925338123544357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.377130395120503</v>
+        <v>3.37524218241208</v>
       </c>
       <c r="C13">
-        <v>0.5573736536188107</v>
+        <v>0.5566199196812249</v>
       </c>
       <c r="D13">
-        <v>0.3808306233820531</v>
+        <v>0.3807286621898101</v>
       </c>
       <c r="E13">
-        <v>0.1183633284652075</v>
+        <v>0.1183005767663197</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.04516615121821</v>
+        <v>4.942932199365998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.01054189811072</v>
       </c>
       <c r="I13">
-        <v>0.01533830801797009</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8484497742271273</v>
+        <v>0.01530983591024881</v>
       </c>
       <c r="K13">
-        <v>0.2204273750504555</v>
+        <v>0.847850801979817</v>
       </c>
       <c r="L13">
-        <v>0.9195375046783383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2203709014052819</v>
+      </c>
+      <c r="M13">
+        <v>0.9191738037524075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.301306724641336</v>
+        <v>3.299526195452302</v>
       </c>
       <c r="C14">
-        <v>0.5436565047236286</v>
+        <v>0.5429388540995603</v>
       </c>
       <c r="D14">
-        <v>0.3730491534627305</v>
+        <v>0.3729525712661115</v>
       </c>
       <c r="E14">
-        <v>0.1162942291943168</v>
+        <v>0.1162336601895539</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.75449941637248</v>
+        <v>4.84607648177996</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.818804719642458</v>
       </c>
       <c r="I14">
-        <v>0.01513305617667715</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8288884712836122</v>
+        <v>0.01510551555965556</v>
       </c>
       <c r="K14">
-        <v>0.2158912608121213</v>
+        <v>0.8283220389997936</v>
       </c>
       <c r="L14">
-        <v>0.8995542757523722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.215838171496209</v>
+      </c>
+      <c r="M14">
+        <v>0.8992124745039405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.255289383220543</v>
+        <v>3.253572642892379</v>
       </c>
       <c r="C15">
-        <v>0.5353489731048171</v>
+        <v>0.5346527981916722</v>
       </c>
       <c r="D15">
-        <v>0.3683177572030161</v>
+        <v>0.3682243569043635</v>
       </c>
       <c r="E15">
-        <v>0.1150356142337507</v>
+        <v>0.1149763537618966</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.57770782862491</v>
+        <v>4.787163970269376</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.702183320047084</v>
       </c>
       <c r="I15">
-        <v>0.01500844483019659</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8170222720041025</v>
+        <v>0.01498146533252243</v>
       </c>
       <c r="K15">
-        <v>0.2131349142205679</v>
+        <v>0.816475140133214</v>
       </c>
       <c r="L15">
-        <v>0.8874202630074777</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2130838223880858</v>
+      </c>
+      <c r="M15">
+        <v>0.887091409398657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.997620202001883</v>
+        <v>2.996239113710431</v>
       </c>
       <c r="C16">
-        <v>0.4890728693380026</v>
+        <v>0.4884911288379499</v>
       </c>
       <c r="D16">
-        <v>0.3416997393983792</v>
+        <v>0.3416230361289649</v>
       </c>
       <c r="E16">
-        <v>0.1079474189509639</v>
+        <v>0.1078952721514028</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.5822413725258</v>
+        <v>4.455412472500512</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.045500202430901</v>
       </c>
       <c r="I16">
-        <v>0.01430992182188362</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7506557264610052</v>
+        <v>0.01428602836799175</v>
       </c>
       <c r="K16">
-        <v>0.1976535625244651</v>
+        <v>0.7502104993072933</v>
       </c>
       <c r="L16">
-        <v>0.8193902593210254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.1976128860021475</v>
+      </c>
+      <c r="M16">
+        <v>0.8191291926360975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.844431277248646</v>
+        <v>2.843232678893116</v>
       </c>
       <c r="C17">
-        <v>0.4617528778212545</v>
+        <v>0.4612345696422437</v>
       </c>
       <c r="D17">
-        <v>0.3257722152109892</v>
+        <v>0.3257045687067546</v>
       </c>
       <c r="E17">
-        <v>0.1037000439857714</v>
+        <v>0.1036519664768285</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>12.98579728552875</v>
+        <v>4.256614809356989</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.65202865798878</v>
       </c>
       <c r="I17">
-        <v>0.01389384291197082</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7112611068990802</v>
+        <v>0.01387174193708862</v>
       </c>
       <c r="K17">
-        <v>0.1884111103393877</v>
+        <v>0.710871577874876</v>
       </c>
       <c r="L17">
-        <v>0.778874948242084</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.1883760238156498</v>
+      </c>
+      <c r="M17">
+        <v>0.7786504594691408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.757931717612792</v>
+        <v>2.756830618995195</v>
       </c>
       <c r="C18">
-        <v>0.4463888787817325</v>
+        <v>0.4459048966229204</v>
       </c>
       <c r="D18">
-        <v>0.3167439558059897</v>
+        <v>0.3166811471637203</v>
       </c>
       <c r="E18">
-        <v>0.1012905197512666</v>
+        <v>0.1012446915635188</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.64742057914975</v>
+        <v>4.14382367565068</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.428799607433206</v>
       </c>
       <c r="I18">
-        <v>0.01365856976206015</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.689036645540952</v>
+        <v>0.01363746801830068</v>
       </c>
       <c r="K18">
-        <v>0.1831794558397206</v>
+        <v>0.6886769793652121</v>
       </c>
       <c r="L18">
-        <v>0.7559743031248161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1831473329456088</v>
+      </c>
+      <c r="M18">
+        <v>0.7557692629213904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.728905027954511</v>
+        <v>2.727835755715205</v>
       </c>
       <c r="C19">
-        <v>0.4412432099744024</v>
+        <v>0.440770507120277</v>
       </c>
       <c r="D19">
-        <v>0.3137086568985694</v>
+        <v>0.31364742790565</v>
       </c>
       <c r="E19">
-        <v>0.1004801201148133</v>
+        <v>0.1004350392751405</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.53360783649566</v>
+        <v>4.105885056602432</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.353716216204987</v>
       </c>
       <c r="I19">
-        <v>0.01357955893740925</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6815820055491884</v>
+        <v>0.01355879050891851</v>
       </c>
       <c r="K19">
-        <v>0.1814217815303394</v>
+        <v>0.6812321052028665</v>
       </c>
       <c r="L19">
-        <v>0.748285742229605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1813906223975152</v>
+      </c>
+      <c r="M19">
+        <v>0.7480870349335973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.860567905313872</v>
+        <v>2.859350676685324</v>
       </c>
       <c r="C20">
-        <v>0.4646240298508815</v>
+        <v>0.4640991994096737</v>
       </c>
       <c r="D20">
-        <v>0.3274536647225261</v>
+        <v>0.3273850938714418</v>
       </c>
       <c r="E20">
-        <v>0.1041486439748667</v>
+        <v>0.1041001430762662</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.04879345968089</v>
+        <v>4.277612640943516</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.69358734180696</v>
       </c>
       <c r="I20">
-        <v>0.01393770546168049</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7154087147858519</v>
+        <v>0.01391541707009925</v>
       </c>
       <c r="K20">
-        <v>0.1893860566158168</v>
+        <v>0.7150134883867523</v>
       </c>
       <c r="L20">
-        <v>0.7831452348144694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.1893504019335595</v>
+      </c>
+      <c r="M20">
+        <v>0.7829170219850141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.323487747958552</v>
+        <v>3.321676050493124</v>
       </c>
       <c r="C21">
-        <v>0.5476655443183347</v>
+        <v>0.5469374281673538</v>
       </c>
       <c r="D21">
-        <v>0.375327368569117</v>
+        <v>0.3752292304567248</v>
       </c>
       <c r="E21">
-        <v>0.1169001214781424</v>
+        <v>0.116838917419031</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14.83961095343375</v>
+        <v>4.874437733990078</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.874948541067454</v>
       </c>
       <c r="I21">
-        <v>0.01519310833166543</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8346096454799579</v>
+        <v>0.01516529612084749</v>
       </c>
       <c r="K21">
-        <v>0.2172189466280727</v>
+        <v>0.8340337894870657</v>
       </c>
       <c r="L21">
-        <v>0.9054013708586126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2171648793155825</v>
+      </c>
+      <c r="M21">
+        <v>0.9050532362789099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.644625159434327</v>
+        <v>3.642331009639634</v>
       </c>
       <c r="C22">
-        <v>0.6060526634627479</v>
+        <v>0.6051645773531504</v>
       </c>
       <c r="D22">
-        <v>0.4081399167059772</v>
+        <v>0.4080175834434954</v>
       </c>
       <c r="E22">
-        <v>0.1256161894706551</v>
+        <v>0.1255454586609837</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.06443223995052</v>
+        <v>5.28253608695087</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.68286948718367</v>
       </c>
       <c r="I22">
-        <v>0.01606185450716691</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9175504317024661</v>
+        <v>0.01603002412524557</v>
       </c>
       <c r="K22">
-        <v>0.2363750307893469</v>
+        <v>0.9168292019828499</v>
       </c>
       <c r="L22">
-        <v>0.9899341336218797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2363056684210747</v>
+      </c>
+      <c r="M22">
+        <v>0.9894874437241015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.471290242512794</v>
+        <v>3.469263800684018</v>
       </c>
       <c r="C23">
-        <v>0.5744578325965506</v>
+        <v>0.5736580697087845</v>
       </c>
       <c r="D23">
-        <v>0.3904688606305911</v>
+        <v>0.3903599797731374</v>
       </c>
       <c r="E23">
-        <v>0.120924625178386</v>
+        <v>0.1208591154724274</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.40503766003724</v>
+        <v>5.062842124448707</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.24792516309714</v>
       </c>
       <c r="I23">
-        <v>0.01559308625232969</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8727573904192809</v>
+        <v>0.01556344508146079</v>
       </c>
       <c r="K23">
-        <v>0.2260508191215962</v>
+        <v>0.8721167186970007</v>
       </c>
       <c r="L23">
-        <v>0.944335535750497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2259899792264264</v>
+      </c>
+      <c r="M23">
+        <v>0.9439436492377666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.853267686244521</v>
+        <v>2.852058903194745</v>
       </c>
       <c r="C24">
-        <v>0.4633249249229436</v>
+        <v>0.4628030497912334</v>
       </c>
       <c r="D24">
-        <v>0.3266930840500351</v>
+        <v>0.3266249322299899</v>
       </c>
       <c r="E24">
-        <v>0.1039457320231918</v>
+        <v>0.1038974228160612</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.02029891855057</v>
+        <v>4.268114891191772</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.674789454698583</v>
       </c>
       <c r="I24">
-        <v>0.01391786306664944</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7135322723561757</v>
+        <v>0.01389565950241067</v>
       </c>
       <c r="K24">
-        <v>0.1889450303189193</v>
+        <v>0.7131396283865286</v>
       </c>
       <c r="L24">
-        <v>0.7812134274320854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1889096332702991</v>
+      </c>
+      <c r="M24">
+        <v>0.7809869031132308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.246821135588334</v>
+        <v>2.246215408384785</v>
       </c>
       <c r="C25">
-        <v>0.3565053252386576</v>
+        <v>0.3562025578386567</v>
       </c>
       <c r="D25">
-        <v>0.2628640830641018</v>
+        <v>0.2628260029841982</v>
       </c>
       <c r="E25">
-        <v>0.08688152717741815</v>
+        <v>0.08684837547818347</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.6227156676234</v>
+        <v>3.468793756357542</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.093061470553636</v>
       </c>
       <c r="I25">
-        <v>0.01226158924357623</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5580071931512123</v>
+        <v>0.01224622583588886</v>
       </c>
       <c r="K25">
-        <v>0.1520739619496929</v>
+        <v>0.5578008766538076</v>
       </c>
       <c r="L25">
-        <v>0.6203109273034499</v>
+        <v>0.1520566120493392</v>
+      </c>
+      <c r="M25">
+        <v>0.6202033546252821</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.835057273412417</v>
+        <v>4.51287588037286</v>
       </c>
       <c r="C2">
-        <v>0.2850320551030165</v>
+        <v>0.6463164409333615</v>
       </c>
       <c r="D2">
-        <v>0.2187508452446423</v>
+        <v>0.1640336316786914</v>
       </c>
       <c r="E2">
-        <v>0.07503047619251646</v>
+        <v>0.02836060789971673</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.913259315225247</v>
+        <v>0.000853336375884503</v>
       </c>
       <c r="H2">
-        <v>5.99416339533056</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01111321464576775</v>
+        <v>0.05357277544564099</v>
       </c>
       <c r="K2">
-        <v>0.4527636956719903</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1267767088756848</v>
+        <v>0.311144524246842</v>
       </c>
       <c r="M2">
-        <v>0.5106064285872733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.7930345027268046</v>
+      </c>
+      <c r="N2">
+        <v>2.244431372876306</v>
+      </c>
+      <c r="O2">
+        <v>2.973653429662875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.571954381309098</v>
+        <v>4.013366937423768</v>
       </c>
       <c r="C3">
-        <v>0.2399430126828577</v>
+        <v>0.5573031510276678</v>
       </c>
       <c r="D3">
-        <v>0.190172484244826</v>
+        <v>0.1573020313745772</v>
       </c>
       <c r="E3">
-        <v>0.06735086605787188</v>
+        <v>0.02844852081230276</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.550959550798751</v>
+        <v>0.0008640680031085766</v>
       </c>
       <c r="H3">
-        <v>5.27775232892759</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01037862563023895</v>
+        <v>0.04672089117063294</v>
       </c>
       <c r="K3">
-        <v>0.3857017793441315</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.110478732443152</v>
+        <v>0.2888817228121496</v>
       </c>
       <c r="M3">
-        <v>0.4402633335915596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7118906967491014</v>
+      </c>
+      <c r="N3">
+        <v>2.266024114556757</v>
+      </c>
+      <c r="O3">
+        <v>2.792002472834895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416417620434345</v>
+        <v>3.715106123512271</v>
       </c>
       <c r="C4">
-        <v>0.2134358174639743</v>
+        <v>0.5038276325773268</v>
       </c>
       <c r="D4">
-        <v>0.1731237294929286</v>
+        <v>0.1534149518005776</v>
       </c>
       <c r="E4">
-        <v>0.06276327796121706</v>
+        <v>0.02851058702429254</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.333791678200015</v>
+        <v>0.0008708211279166411</v>
       </c>
       <c r="H4">
-        <v>4.848446020595617</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.009939362867805723</v>
+        <v>0.04257695108828941</v>
       </c>
       <c r="K4">
-        <v>0.346108422258844</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1007969674239568</v>
+        <v>0.2757586213092225</v>
       </c>
       <c r="M4">
-        <v>0.398598995764722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6635489187193357</v>
+      </c>
+      <c r="N4">
+        <v>2.281765967643508</v>
+      </c>
+      <c r="O4">
+        <v>2.686216680702401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.354333514475059</v>
+        <v>3.595450365692727</v>
       </c>
       <c r="C5">
-        <v>0.202882457499598</v>
+        <v>0.48229097096484</v>
       </c>
       <c r="D5">
-        <v>0.1662836651487538</v>
+        <v>0.1518885549377487</v>
       </c>
       <c r="E5">
-        <v>0.06092141248575444</v>
+        <v>0.02853781417736789</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.246401930258259</v>
+        <v>0.000873616766302682</v>
       </c>
       <c r="H5">
-        <v>4.675720501827897</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.009762728857113157</v>
+        <v>0.04090106480413169</v>
       </c>
       <c r="K5">
-        <v>0.3303140833890197</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09692222602998868</v>
+        <v>0.2705363017658726</v>
       </c>
       <c r="M5">
-        <v>0.3819512372351994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6441826109637034</v>
+      </c>
+      <c r="N5">
+        <v>2.288768923571183</v>
+      </c>
+      <c r="O5">
+        <v>2.644422854804503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.344097188666439</v>
+        <v>3.575689210530982</v>
       </c>
       <c r="C6">
-        <v>0.2011438156990266</v>
+        <v>0.4787290928305481</v>
       </c>
       <c r="D6">
-        <v>0.1651538830513175</v>
+        <v>0.1516384603773702</v>
       </c>
       <c r="E6">
-        <v>0.0606171180272348</v>
+        <v>0.02854244941901574</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.231951868428411</v>
+        <v>0.0008740836866981804</v>
       </c>
       <c r="H6">
-        <v>4.647161816140624</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.009733526083858468</v>
+        <v>0.0406234741271021</v>
       </c>
       <c r="K6">
-        <v>0.3277104440558745</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09628279506969761</v>
+        <v>0.2696763887417433</v>
       </c>
       <c r="M6">
-        <v>0.3792054384458368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6409859128567703</v>
+      </c>
+      <c r="N6">
+        <v>2.289966271429336</v>
+      </c>
+      <c r="O6">
+        <v>2.637558837090509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415575337501394</v>
+        <v>3.713485053595718</v>
       </c>
       <c r="C7">
-        <v>0.2132925432680253</v>
+        <v>0.5035362008183597</v>
       </c>
       <c r="D7">
-        <v>0.1730310691018246</v>
+        <v>0.1533941383449999</v>
       </c>
       <c r="E7">
-        <v>0.06273833168782161</v>
+        <v>0.02851094650740982</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.332608897006708</v>
+        <v>0.0008708586509271076</v>
       </c>
       <c r="H7">
-        <v>4.846108135920531</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.009936971856224108</v>
+        <v>0.0425543015100871</v>
       </c>
       <c r="K7">
-        <v>0.3458941076315298</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1007444389746013</v>
+        <v>0.275687698294135</v>
       </c>
       <c r="M7">
-        <v>0.3983732043585348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6632864370662048</v>
+      </c>
+      <c r="N7">
+        <v>2.281858076833942</v>
+      </c>
+      <c r="O7">
+        <v>2.685647875135459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.742955316241762</v>
+        <v>4.338745243330379</v>
       </c>
       <c r="C8">
-        <v>0.2692102198093096</v>
+        <v>0.6153537068834112</v>
       </c>
       <c r="D8">
-        <v>0.2087820883319296</v>
+        <v>0.1616587831203731</v>
       </c>
       <c r="E8">
-        <v>0.07235315406037301</v>
+        <v>0.02838917802615204</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.787099471092944</v>
+        <v>0.0008570041963350895</v>
       </c>
       <c r="H8">
-        <v>5.74466931651898</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01085710225795111</v>
+        <v>0.05119519058669653</v>
       </c>
       <c r="K8">
-        <v>0.4292750308504054</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1210825166632645</v>
+        <v>0.3033473631560923</v>
       </c>
       <c r="M8">
-        <v>0.4860011778037929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.764724076230884</v>
+      </c>
+      <c r="N8">
+        <v>2.251337893436485</v>
+      </c>
+      <c r="O8">
+        <v>2.909744271703445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.443913464840307</v>
+        <v>5.643765877268493</v>
       </c>
       <c r="C9">
-        <v>0.3907547176324044</v>
+        <v>0.8460963136112127</v>
       </c>
       <c r="D9">
-        <v>0.283787597812875</v>
+        <v>0.1800358333541823</v>
       </c>
       <c r="E9">
-        <v>0.09245754822510222</v>
+        <v>0.02821980859122342</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.731945277037369</v>
+        <v>0.000831010578783469</v>
       </c>
       <c r="H9">
-        <v>7.613728725644421</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01278648463870624</v>
+        <v>0.06879805273188566</v>
       </c>
       <c r="K9">
-        <v>0.6084150402829067</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1641332916471612</v>
+        <v>0.3625299451487933</v>
       </c>
       <c r="M9">
-        <v>0.6727614819732324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.9773778442089309</v>
+      </c>
+      <c r="N9">
+        <v>2.213052067507064</v>
+      </c>
+      <c r="O9">
+        <v>3.401459367892642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.013928200390694</v>
+        <v>6.669707799279195</v>
       </c>
       <c r="C10">
-        <v>0.4916513698373706</v>
+        <v>1.026005443908502</v>
       </c>
       <c r="D10">
-        <v>0.3434584244299259</v>
+        <v>0.1952059709324345</v>
       </c>
       <c r="E10">
-        <v>0.1083842388035805</v>
+        <v>0.02814651334121443</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.478319766627379</v>
+        <v>0.0008124307217169718</v>
       </c>
       <c r="H10">
-        <v>9.090841472487341</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01433388152074055</v>
+        <v>0.08238437294890133</v>
       </c>
       <c r="K10">
-        <v>0.7547613964269502</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1986789202790291</v>
+        <v>0.409993790571761</v>
       </c>
       <c r="M10">
-        <v>0.8238055915698794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.145159344293432</v>
+      </c>
+      <c r="N10">
+        <v>2.201035399091623</v>
+      </c>
+      <c r="O10">
+        <v>3.805207882336674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.290713716384687</v>
+        <v>7.156083737424751</v>
       </c>
       <c r="C11">
-        <v>0.5413488345930944</v>
+        <v>1.111012520612064</v>
       </c>
       <c r="D11">
-        <v>0.3720463588409615</v>
+        <v>0.2025610728728395</v>
       </c>
       <c r="E11">
-        <v>0.1159927149370645</v>
+        <v>0.02812679328986167</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.834786459545512</v>
+        <v>0.0008040383046093966</v>
       </c>
       <c r="H11">
-        <v>9.796455172853257</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01508172925966367</v>
+        <v>0.08877470095427498</v>
       </c>
       <c r="K11">
-        <v>0.8260498463271304</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2153101680075906</v>
+        <v>0.432708888144262</v>
       </c>
       <c r="M11">
-        <v>0.8968883860711827</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.224838045738437</v>
+      </c>
+      <c r="N11">
+        <v>2.199861247012421</v>
+      </c>
+      <c r="O11">
+        <v>4.000940523676292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.398633905189286</v>
+        <v>7.343592714602551</v>
       </c>
       <c r="C12">
-        <v>0.5608537275655294</v>
+        <v>1.143748120773012</v>
       </c>
       <c r="D12">
-        <v>0.3831274022302011</v>
+        <v>0.2054205995810463</v>
       </c>
       <c r="E12">
-        <v>0.1189379529552212</v>
+        <v>0.02812155067042788</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.972801955579712</v>
+        <v>0.0008008637387114324</v>
       </c>
       <c r="H12">
-        <v>10.06967368004382</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01537294208123097</v>
+        <v>0.09123148607940124</v>
       </c>
       <c r="K12">
-        <v>0.8538863093717595</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2217698607236471</v>
+        <v>0.4414976227363923</v>
       </c>
       <c r="M12">
-        <v>0.925338123544357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.255576247735576</v>
+      </c>
+      <c r="N12">
+        <v>2.200113405597392</v>
+      </c>
+      <c r="O12">
+        <v>4.077076001744359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.37524218241208</v>
+        <v>7.303052409369343</v>
       </c>
       <c r="C13">
-        <v>0.5566199196812249</v>
+        <v>1.136672078314291</v>
       </c>
       <c r="D13">
-        <v>0.3807286621898101</v>
+        <v>0.2048012858308823</v>
       </c>
       <c r="E13">
-        <v>0.1183005767663197</v>
+        <v>0.02812257597095358</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.942932199365998</v>
+        <v>0.000801547374750822</v>
       </c>
       <c r="H13">
-        <v>10.01054189811072</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01530983591024881</v>
+        <v>0.0907006127087655</v>
       </c>
       <c r="K13">
-        <v>0.847850801979817</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2203709014052819</v>
+        <v>0.4395960445579163</v>
       </c>
       <c r="M13">
-        <v>0.9191738037524075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.248929600046154</v>
+      </c>
+      <c r="N13">
+        <v>2.200026701361907</v>
+      </c>
+      <c r="O13">
+        <v>4.060584251336678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.299526195452302</v>
+        <v>7.171440343237578</v>
       </c>
       <c r="C14">
-        <v>0.5429388540995603</v>
+        <v>1.113694201319447</v>
       </c>
       <c r="D14">
-        <v>0.3729525712661115</v>
+        <v>0.202794781980586</v>
       </c>
       <c r="E14">
-        <v>0.1162336601895539</v>
+        <v>0.02812631566324453</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.84607648177996</v>
+        <v>0.0008037770940141353</v>
       </c>
       <c r="H14">
-        <v>9.818804719642458</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01510551555965556</v>
+        <v>0.08897603991784564</v>
       </c>
       <c r="K14">
-        <v>0.8283220389997936</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.215838171496209</v>
+        <v>0.4334280341638674</v>
       </c>
       <c r="M14">
-        <v>0.8992124745039405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.227355035753988</v>
+      </c>
+      <c r="N14">
+        <v>2.199867525353966</v>
+      </c>
+      <c r="O14">
+        <v>4.007162065833825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.253572642892379</v>
+        <v>7.091273896869609</v>
       </c>
       <c r="C15">
-        <v>0.5346527981916722</v>
+        <v>1.099693522673533</v>
       </c>
       <c r="D15">
-        <v>0.3682243569043635</v>
+        <v>0.2015757088465477</v>
       </c>
       <c r="E15">
-        <v>0.1149763537618966</v>
+        <v>0.02812890492160758</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.787163970269376</v>
+        <v>0.0008051431466168986</v>
       </c>
       <c r="H15">
-        <v>9.702183320047084</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01498146533252243</v>
+        <v>0.08792471443116767</v>
       </c>
       <c r="K15">
-        <v>0.816475140133214</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2130838223880858</v>
+        <v>0.4296751296102315</v>
       </c>
       <c r="M15">
-        <v>0.887091409398657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.21421634942169</v>
+      </c>
+      <c r="N15">
+        <v>2.199863349947691</v>
+      </c>
+      <c r="O15">
+        <v>3.974711051171454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.996239113710431</v>
+        <v>6.638358810743568</v>
       </c>
       <c r="C16">
-        <v>0.4884911288379499</v>
+        <v>1.020521102705914</v>
       </c>
       <c r="D16">
-        <v>0.3416230361289649</v>
+        <v>0.1947351748531219</v>
       </c>
       <c r="E16">
-        <v>0.1078952721514028</v>
+        <v>0.02814809773907545</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.455412472500512</v>
+        <v>0.0008129799664698757</v>
       </c>
       <c r="H16">
-        <v>9.045500202430901</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01428602836799175</v>
+        <v>0.08197152331899815</v>
       </c>
       <c r="K16">
-        <v>0.7502104993072933</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1976128860021475</v>
+        <v>0.4085340008413851</v>
       </c>
       <c r="M16">
-        <v>0.8191291926360975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.140026472942907</v>
+      </c>
+      <c r="N16">
+        <v>2.201205018425767</v>
+      </c>
+      <c r="O16">
+        <v>3.792682084860843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.843232678893116</v>
+        <v>6.365880165355975</v>
       </c>
       <c r="C17">
-        <v>0.4612345696422437</v>
+        <v>0.972821818517474</v>
       </c>
       <c r="D17">
-        <v>0.3257045687067546</v>
+        <v>0.1906610305048986</v>
       </c>
       <c r="E17">
-        <v>0.1036519664768285</v>
+        <v>0.02816353384627257</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.256614809356989</v>
+        <v>0.0008177994779099122</v>
       </c>
       <c r="H17">
-        <v>8.65202865798878</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01387174193708862</v>
+        <v>0.07837763489458638</v>
       </c>
       <c r="K17">
-        <v>0.710871577874876</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1883760238156498</v>
+        <v>0.3958692728912467</v>
       </c>
       <c r="M17">
-        <v>0.7786504594691408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.095427732907105</v>
+      </c>
+      <c r="N17">
+        <v>2.203180168620321</v>
+      </c>
+      <c r="O17">
+        <v>3.684289717462235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.756830618995195</v>
+        <v>6.210974902368093</v>
       </c>
       <c r="C18">
-        <v>0.4459048966229204</v>
+        <v>0.9456782369354642</v>
       </c>
       <c r="D18">
-        <v>0.3166811471637203</v>
+        <v>0.1883598221630507</v>
       </c>
       <c r="E18">
-        <v>0.1012446915635188</v>
+        <v>0.0281736757218477</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.14382367565068</v>
+        <v>0.0008205774966919166</v>
       </c>
       <c r="H18">
-        <v>8.428799607433206</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01363746801830068</v>
+        <v>0.07632981517451753</v>
       </c>
       <c r="K18">
-        <v>0.6886769793652121</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1831473329456088</v>
+        <v>0.388688873751164</v>
       </c>
       <c r="M18">
-        <v>0.7557692629213904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.070085730467291</v>
+      </c>
+      <c r="N18">
+        <v>2.204714787937874</v>
+      </c>
+      <c r="O18">
+        <v>3.623061762934611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.727835755715205</v>
+        <v>6.158824750666952</v>
       </c>
       <c r="C19">
-        <v>0.440770507120277</v>
+        <v>0.9365354864123958</v>
       </c>
       <c r="D19">
-        <v>0.31364742790565</v>
+        <v>0.1875876561487928</v>
       </c>
       <c r="E19">
-        <v>0.1004350392751405</v>
+        <v>0.02817731932834022</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.105885056602432</v>
+        <v>0.0008215192538767017</v>
       </c>
       <c r="H19">
-        <v>8.353716216204987</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01355879050891851</v>
+        <v>0.07563958391395431</v>
       </c>
       <c r="K19">
-        <v>0.6812321052028665</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1813906223975152</v>
+        <v>0.3862748664747784</v>
       </c>
       <c r="M19">
-        <v>0.7480870349335973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.061556277696376</v>
+      </c>
+      <c r="N19">
+        <v>2.205300615710698</v>
+      </c>
+      <c r="O19">
+        <v>3.602514931917995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.859350676685324</v>
+        <v>6.394694526071703</v>
       </c>
       <c r="C20">
-        <v>0.4640991994096737</v>
+        <v>0.977868683353563</v>
       </c>
       <c r="D20">
-        <v>0.3273850938714418</v>
+        <v>0.1910903087529192</v>
       </c>
       <c r="E20">
-        <v>0.1041001430762662</v>
+        <v>0.02816175812832977</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.277612640943516</v>
+        <v>0.0008172858501693886</v>
       </c>
       <c r="H20">
-        <v>8.69358734180696</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01391541707009925</v>
+        <v>0.07875816871897001</v>
       </c>
       <c r="K20">
-        <v>0.7150134883867523</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1893504019335595</v>
+        <v>0.3972065175286019</v>
       </c>
       <c r="M20">
-        <v>0.7829170219850141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.100142697436226</v>
+      </c>
+      <c r="N20">
+        <v>2.202928124414754</v>
+      </c>
+      <c r="O20">
+        <v>3.695710825619102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.321676050493124</v>
+        <v>7.210003262152554</v>
       </c>
       <c r="C21">
-        <v>0.5469374281673538</v>
+        <v>1.120427770746119</v>
       </c>
       <c r="D21">
-        <v>0.3752292304567248</v>
+        <v>0.2033820452919599</v>
       </c>
       <c r="E21">
-        <v>0.116838917419031</v>
+        <v>0.02812515444414476</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.874437733990078</v>
+        <v>0.0008031221222562628</v>
       </c>
       <c r="H21">
-        <v>9.874948541067454</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01516529612084749</v>
+        <v>0.08948152788244812</v>
       </c>
       <c r="K21">
-        <v>0.8340337894870657</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2171648793155825</v>
+        <v>0.4352344295758002</v>
       </c>
       <c r="M21">
-        <v>0.9050532362789099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.233675927580492</v>
+      </c>
+      <c r="N21">
+        <v>2.199894669652679</v>
+      </c>
+      <c r="O21">
+        <v>4.022796285496241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.642331009639634</v>
+        <v>7.76255185038741</v>
       </c>
       <c r="C22">
-        <v>0.6051645773531504</v>
+        <v>1.216829726915762</v>
       </c>
       <c r="D22">
-        <v>0.4080175834434954</v>
+        <v>0.2118537872675716</v>
       </c>
       <c r="E22">
-        <v>0.1255454586609837</v>
+        <v>0.02811436669746148</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.28253608695087</v>
+        <v>0.0007938824906385766</v>
       </c>
       <c r="H22">
-        <v>10.68286948718367</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01603002412524557</v>
+        <v>0.09670896408375995</v>
       </c>
       <c r="K22">
-        <v>0.9168292019828499</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2363056684210747</v>
+        <v>0.4611928735401136</v>
       </c>
       <c r="M22">
-        <v>0.9894874437241015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.324293230572167</v>
+      </c>
+      <c r="N22">
+        <v>2.202020404515252</v>
+      </c>
+      <c r="O22">
+        <v>4.248479937486366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.469263800684018</v>
+        <v>7.465656804318655</v>
       </c>
       <c r="C23">
-        <v>0.5736580697087845</v>
+        <v>1.165048723062057</v>
       </c>
       <c r="D23">
-        <v>0.3903599797731374</v>
+        <v>0.2072887895667321</v>
       </c>
       <c r="E23">
-        <v>0.1208591154724274</v>
+        <v>0.02811881937681893</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.062842124448707</v>
+        <v>0.0007988141927101006</v>
       </c>
       <c r="H23">
-        <v>10.24792516309714</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01556344508146079</v>
+        <v>0.09282896806578833</v>
       </c>
       <c r="K23">
-        <v>0.8721167186970007</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2259899792264264</v>
+        <v>0.4472277413438803</v>
       </c>
       <c r="M23">
-        <v>0.9439436492377666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.27559179823524</v>
+      </c>
+      <c r="N23">
+        <v>2.200480116888542</v>
+      </c>
+      <c r="O23">
+        <v>4.126833047108079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.852058903194745</v>
+        <v>6.38166215087864</v>
       </c>
       <c r="C24">
-        <v>0.4628030497912334</v>
+        <v>0.9755861321787336</v>
       </c>
       <c r="D24">
-        <v>0.3266249322299899</v>
+        <v>0.1908961047891609</v>
       </c>
       <c r="E24">
-        <v>0.1038974228160612</v>
+        <v>0.02816255700171677</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.268114891191772</v>
+        <v>0.0008175180383805391</v>
       </c>
       <c r="H24">
-        <v>8.674789454698583</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01389565950241067</v>
+        <v>0.07858607269909612</v>
       </c>
       <c r="K24">
-        <v>0.7131396283865286</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1889096332702991</v>
+        <v>0.3966016373709067</v>
       </c>
       <c r="M24">
-        <v>0.7809869031132308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.098010138616033</v>
+      </c>
+      <c r="N24">
+        <v>2.203040836414687</v>
+      </c>
+      <c r="O24">
+        <v>3.690543973554355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.246215408384785</v>
+        <v>5.280463296970481</v>
       </c>
       <c r="C25">
-        <v>0.3562025578386567</v>
+        <v>0.7821242865429099</v>
       </c>
       <c r="D25">
-        <v>0.2628260029841982</v>
+        <v>0.1747990587084871</v>
       </c>
       <c r="E25">
-        <v>0.08684837547818347</v>
+        <v>0.02825738040922354</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.468793756357542</v>
+        <v>0.0008379357503506717</v>
       </c>
       <c r="H25">
-        <v>7.093061470553636</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01224622583588886</v>
+        <v>0.0639416030391331</v>
       </c>
       <c r="K25">
-        <v>0.5578008766538076</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1520566120493392</v>
+        <v>0.3458980453109461</v>
       </c>
       <c r="M25">
-        <v>0.6202033546252821</v>
+        <v>0.9180768650784472</v>
+      </c>
+      <c r="N25">
+        <v>2.220819157939218</v>
+      </c>
+      <c r="O25">
+        <v>3.261831184232136</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.51287588037286</v>
+        <v>3.393390593607933</v>
       </c>
       <c r="C2">
-        <v>0.6463164409333615</v>
+        <v>0.4488938921387557</v>
       </c>
       <c r="D2">
-        <v>0.1640336316786914</v>
+        <v>0.1977345398564694</v>
       </c>
       <c r="E2">
-        <v>0.02836060789971673</v>
+        <v>0.04037020683401016</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000853336375884503</v>
+        <v>2.131358249006666</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.283215359370814</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05357277544564099</v>
+        <v>0.04753370698456294</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.311144524246842</v>
+        <v>0.2729396397213009</v>
       </c>
       <c r="M2">
-        <v>0.7930345027268046</v>
+        <v>0.6145341585787065</v>
       </c>
       <c r="N2">
-        <v>2.244431372876306</v>
+        <v>1.364170874130281</v>
       </c>
       <c r="O2">
-        <v>2.973653429662875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.013366937423768</v>
+        <v>2.987643646811307</v>
       </c>
       <c r="C3">
-        <v>0.5573031510276678</v>
+        <v>0.3880490713416691</v>
       </c>
       <c r="D3">
-        <v>0.1573020313745772</v>
+        <v>0.1892682933028027</v>
       </c>
       <c r="E3">
-        <v>0.02844852081230276</v>
+        <v>0.04094405806968338</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008640680031085766</v>
+        <v>1.995847532026573</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.230295631924179</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04672089117063294</v>
+        <v>0.04315173326481414</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2888817228121496</v>
+        <v>0.2521602564185059</v>
       </c>
       <c r="M3">
-        <v>0.7118906967491014</v>
+        <v>0.546575049312807</v>
       </c>
       <c r="N3">
-        <v>2.266024114556757</v>
+        <v>1.423697568860995</v>
       </c>
       <c r="O3">
-        <v>2.792002472834895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.715106123512271</v>
+        <v>2.74292073556353</v>
       </c>
       <c r="C4">
-        <v>0.5038276325773268</v>
+        <v>0.3510793922271489</v>
       </c>
       <c r="D4">
-        <v>0.1534149518005776</v>
+        <v>0.1843480461718059</v>
       </c>
       <c r="E4">
-        <v>0.02851058702429254</v>
+        <v>0.04131856140781798</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008708211279166411</v>
+        <v>1.917010442506637</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.200154808898731</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04257695108828941</v>
+        <v>0.04047556239046202</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2757586213092225</v>
+        <v>0.2397905085620167</v>
       </c>
       <c r="M4">
-        <v>0.6635489187193357</v>
+        <v>0.5056832884025937</v>
       </c>
       <c r="N4">
-        <v>2.281765967643508</v>
+        <v>1.462071342521732</v>
       </c>
       <c r="O4">
-        <v>2.686216680702401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.595450365692727</v>
+        <v>2.644181570280182</v>
       </c>
       <c r="C5">
-        <v>0.48229097096484</v>
+        <v>0.336094755787741</v>
       </c>
       <c r="D5">
-        <v>0.1518885549377487</v>
+        <v>0.182408768515522</v>
       </c>
       <c r="E5">
-        <v>0.02853781417736789</v>
+        <v>0.0414766917388758</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000873616766302682</v>
+        <v>1.885894949342457</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.188423334714372</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04090106480413169</v>
+        <v>0.03938739383405832</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2705363017658726</v>
+        <v>0.234839989336443</v>
       </c>
       <c r="M5">
-        <v>0.6441826109637034</v>
+        <v>0.4892085885271626</v>
       </c>
       <c r="N5">
-        <v>2.288768923571183</v>
+        <v>1.478151416523659</v>
       </c>
       <c r="O5">
-        <v>2.644422854804503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.575689210530982</v>
+        <v>2.627842286904581</v>
       </c>
       <c r="C6">
-        <v>0.4787290928305481</v>
+        <v>0.3336109752733023</v>
       </c>
       <c r="D6">
-        <v>0.1516384603773702</v>
+        <v>0.1820906091766972</v>
       </c>
       <c r="E6">
-        <v>0.02854244941901574</v>
+        <v>0.04150328089320787</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008740836866981804</v>
+        <v>1.880786909204829</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.186507501235809</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0406234741271021</v>
+        <v>0.03920681489782041</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2696763887417433</v>
+        <v>0.2340232011892738</v>
       </c>
       <c r="M6">
-        <v>0.6409859128567703</v>
+        <v>0.4864838091581092</v>
       </c>
       <c r="N6">
-        <v>2.289966271429336</v>
+        <v>1.480847772828433</v>
       </c>
       <c r="O6">
-        <v>2.637558837090509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.713485053595718</v>
+        <v>2.741585259649355</v>
       </c>
       <c r="C7">
-        <v>0.5035362008183597</v>
+        <v>0.3508769985818958</v>
       </c>
       <c r="D7">
-        <v>0.1533941383449999</v>
+        <v>0.184321631392045</v>
       </c>
       <c r="E7">
-        <v>0.02851094650740982</v>
+        <v>0.04132067173776077</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008708586509271076</v>
+        <v>1.916586823491969</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.199994413527889</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0425543015100871</v>
+        <v>0.04046087882557359</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.275687698294135</v>
+        <v>0.2397233882308143</v>
       </c>
       <c r="M7">
-        <v>0.6632864370662048</v>
+        <v>0.505460366123593</v>
       </c>
       <c r="N7">
-        <v>2.281858076833942</v>
+        <v>1.462286433081431</v>
       </c>
       <c r="O7">
-        <v>2.685647875135459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.338745243330379</v>
+        <v>3.252498458499133</v>
       </c>
       <c r="C8">
-        <v>0.6153537068834112</v>
+        <v>0.4278230671191352</v>
       </c>
       <c r="D8">
-        <v>0.1616587831203731</v>
+        <v>0.1947550609889817</v>
       </c>
       <c r="E8">
-        <v>0.02838917802615204</v>
+        <v>0.04056343800730344</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008570041963350895</v>
+        <v>2.08367331241891</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.264455188232006</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05119519058669653</v>
+        <v>0.04601904948965085</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3033473631560923</v>
+        <v>0.2656894710358415</v>
       </c>
       <c r="M8">
-        <v>0.764724076230884</v>
+        <v>0.5909152635378589</v>
       </c>
       <c r="N8">
-        <v>2.251337893436485</v>
+        <v>1.384306896143755</v>
       </c>
       <c r="O8">
-        <v>2.909744271703445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.643765877268493</v>
+        <v>4.295389089252183</v>
       </c>
       <c r="C9">
-        <v>0.8460963136112127</v>
+        <v>0.5826568849112732</v>
       </c>
       <c r="D9">
-        <v>0.1800358333541823</v>
+        <v>0.2176274462272119</v>
       </c>
       <c r="E9">
-        <v>0.02821980859122342</v>
+        <v>0.03925701855203556</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000831010578783469</v>
+        <v>2.450290418697392</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.411525682734265</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06879805273188566</v>
+        <v>0.05709385925968746</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3625299451487933</v>
+        <v>0.3200693335082718</v>
       </c>
       <c r="M9">
-        <v>0.9773778442089309</v>
+        <v>0.7661688126869066</v>
       </c>
       <c r="N9">
-        <v>2.213052067507064</v>
+        <v>1.246664212445239</v>
       </c>
       <c r="O9">
-        <v>3.401459367892642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.669707799279195</v>
+        <v>5.095940490824205</v>
       </c>
       <c r="C10">
-        <v>1.026005443908502</v>
+        <v>0.7001489319962673</v>
       </c>
       <c r="D10">
-        <v>0.1952059709324345</v>
+        <v>0.2362210691850635</v>
       </c>
       <c r="E10">
-        <v>0.02814651334121443</v>
+        <v>0.03841027793008722</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008124307217169718</v>
+        <v>2.75007133605007</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.535273787438797</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08238437294890133</v>
+        <v>0.06543285846687041</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.409993790571761</v>
+        <v>0.362713376927303</v>
       </c>
       <c r="M10">
-        <v>1.145159344293432</v>
+        <v>0.9012348644682291</v>
       </c>
       <c r="N10">
-        <v>2.201035399091623</v>
+        <v>1.156085956343915</v>
       </c>
       <c r="O10">
-        <v>3.805207882336674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.156083737424751</v>
+        <v>5.469965439651844</v>
       </c>
       <c r="C11">
-        <v>1.111012520612064</v>
+        <v>0.7547510080129882</v>
       </c>
       <c r="D11">
-        <v>0.2025610728728395</v>
+        <v>0.2451489378805292</v>
       </c>
       <c r="E11">
-        <v>0.02812679328986167</v>
+        <v>0.03805074938447772</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008040383046093966</v>
+        <v>2.894755850989071</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.59576739599305</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08877470095427498</v>
+        <v>0.06929490414602313</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.432708888144262</v>
+        <v>0.3828453752053207</v>
       </c>
       <c r="M11">
-        <v>1.224838045738437</v>
+        <v>0.9644630705523909</v>
       </c>
       <c r="N11">
-        <v>2.199861247012421</v>
+        <v>1.117486503493197</v>
       </c>
       <c r="O11">
-        <v>4.000940523676292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.343592714602551</v>
+        <v>5.613240402382814</v>
       </c>
       <c r="C12">
-        <v>1.143748120773012</v>
+        <v>0.775625833139344</v>
       </c>
       <c r="D12">
-        <v>0.2054205995810463</v>
+        <v>0.2486048274509329</v>
       </c>
       <c r="E12">
-        <v>0.02812155067042788</v>
+        <v>0.03791840612031683</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008008637387114324</v>
+        <v>2.950901307894924</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.619353926606237</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09123148607940124</v>
+        <v>0.07076956138040202</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4414976227363923</v>
+        <v>0.390588238540488</v>
       </c>
       <c r="M12">
-        <v>1.255576247735576</v>
+        <v>0.9887019250935509</v>
       </c>
       <c r="N12">
-        <v>2.200113405597392</v>
+        <v>1.103275145438623</v>
       </c>
       <c r="O12">
-        <v>4.077076001744359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.303052409369343</v>
+        <v>5.582306792843667</v>
       </c>
       <c r="C13">
-        <v>1.136672078314291</v>
+        <v>0.7711206939640078</v>
       </c>
       <c r="D13">
-        <v>0.2048012858308823</v>
+        <v>0.2478570693536</v>
       </c>
       <c r="E13">
-        <v>0.02812257597095358</v>
+        <v>0.03794673752964295</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000801547374750822</v>
+        <v>2.938746264048376</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.614242656914769</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0907006127087655</v>
+        <v>0.07045138548071606</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4395960445579163</v>
+        <v>0.3889151283102592</v>
       </c>
       <c r="M13">
-        <v>1.248929600046154</v>
+        <v>0.9834678323462569</v>
       </c>
       <c r="N13">
-        <v>2.200026701361907</v>
+        <v>1.106317252147001</v>
       </c>
       <c r="O13">
-        <v>4.060584251336678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.171440343237578</v>
+        <v>5.48171851546698</v>
       </c>
       <c r="C14">
-        <v>1.113694201319447</v>
+        <v>0.7564642210537897</v>
       </c>
       <c r="D14">
-        <v>0.202794781980586</v>
+        <v>0.245431704263936</v>
       </c>
       <c r="E14">
-        <v>0.02812631566324453</v>
+        <v>0.03803978451577761</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008037770940141353</v>
+        <v>2.899346789391984</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.597693805163686</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08897603991784564</v>
+        <v>0.06941596653070548</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4334280341638674</v>
+        <v>0.3834799083497558</v>
       </c>
       <c r="M14">
-        <v>1.227355035753988</v>
+        <v>0.9664510497012557</v>
       </c>
       <c r="N14">
-        <v>2.199867525353966</v>
+        <v>1.116309010983286</v>
       </c>
       <c r="O14">
-        <v>4.007162065833825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.091273896869609</v>
+        <v>5.420325939324016</v>
       </c>
       <c r="C15">
-        <v>1.099693522673533</v>
+        <v>0.7475135456119801</v>
       </c>
       <c r="D15">
-        <v>0.2015757088465477</v>
+        <v>0.2439561185319121</v>
       </c>
       <c r="E15">
-        <v>0.02812890492160758</v>
+        <v>0.03809727728430312</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008051431466168986</v>
+        <v>2.875395261877941</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.587647952548167</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08792471443116767</v>
+        <v>0.06878340324972854</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4296751296102315</v>
+        <v>0.3801666586256403</v>
       </c>
       <c r="M15">
-        <v>1.21421634942169</v>
+        <v>0.9560675230626501</v>
       </c>
       <c r="N15">
-        <v>2.199863349947691</v>
+        <v>1.122483029602918</v>
       </c>
       <c r="O15">
-        <v>3.974711051171454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.638358810743568</v>
+        <v>5.071713781900428</v>
       </c>
       <c r="C16">
-        <v>1.020521102705914</v>
+        <v>0.6966064491778923</v>
       </c>
       <c r="D16">
-        <v>0.1947351748531219</v>
+        <v>0.2356476883268641</v>
       </c>
       <c r="E16">
-        <v>0.02814809773907545</v>
+        <v>0.03843429956038502</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008129799664698757</v>
+        <v>2.740796475419017</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.531411104610356</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08197152331899815</v>
+        <v>0.06518203672240475</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4085340008413851</v>
+        <v>0.3614136048307728</v>
       </c>
       <c r="M16">
-        <v>1.140026472942907</v>
+        <v>0.8971419097226061</v>
       </c>
       <c r="N16">
-        <v>2.201205018425767</v>
+        <v>1.158663489541574</v>
       </c>
       <c r="O16">
-        <v>3.792682084860843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.365880165355975</v>
+        <v>4.860525076835643</v>
       </c>
       <c r="C17">
-        <v>0.972821818517474</v>
+        <v>0.6656939360921967</v>
       </c>
       <c r="D17">
-        <v>0.1906610305048986</v>
+        <v>0.2306761172647214</v>
       </c>
       <c r="E17">
-        <v>0.02816353384627257</v>
+        <v>0.03864769890189468</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008177994779099122</v>
+        <v>2.660462260991267</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.498037873938671</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07837763489458638</v>
+        <v>0.0629918443950821</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3958692728912467</v>
+        <v>0.3501063395749213</v>
       </c>
       <c r="M17">
-        <v>1.095427732907105</v>
+        <v>0.8614766215382446</v>
       </c>
       <c r="N17">
-        <v>2.203180168620321</v>
+        <v>1.181546997518517</v>
       </c>
       <c r="O17">
-        <v>3.684289717462235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.210974902368093</v>
+        <v>4.739967200467675</v>
       </c>
       <c r="C18">
-        <v>0.9456782369354642</v>
+        <v>0.6480203796339765</v>
       </c>
       <c r="D18">
-        <v>0.1883598221630507</v>
+        <v>0.2278602932854739</v>
       </c>
       <c r="E18">
-        <v>0.0281736757218477</v>
+        <v>0.0387728480011047</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008205774966919166</v>
+        <v>2.615027842836668</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.479232805221272</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07632981517451753</v>
+        <v>0.06173840488556692</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.388688873751164</v>
+        <v>0.3436707695168479</v>
       </c>
       <c r="M18">
-        <v>1.070085730467291</v>
+        <v>0.8411284105706898</v>
       </c>
       <c r="N18">
-        <v>2.204714787937874</v>
+        <v>1.194952130236913</v>
       </c>
       <c r="O18">
-        <v>3.623061762934611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.158824750666952</v>
+        <v>4.699298681168898</v>
       </c>
       <c r="C19">
-        <v>0.9365354864123958</v>
+        <v>0.6420537918461662</v>
       </c>
       <c r="D19">
-        <v>0.1875876561487928</v>
+        <v>0.2269141909688983</v>
       </c>
       <c r="E19">
-        <v>0.02817731932834022</v>
+        <v>0.03881563162852952</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008215192538767017</v>
+        <v>2.599772468869901</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.472930633039198</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07563958391395431</v>
+        <v>0.06131502801401467</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3862748664747784</v>
+        <v>0.3415030899053164</v>
       </c>
       <c r="M19">
-        <v>1.061556277696376</v>
+        <v>0.834266173717225</v>
       </c>
       <c r="N19">
-        <v>2.205300615710698</v>
+        <v>1.199531760147252</v>
       </c>
       <c r="O19">
-        <v>3.602514931917995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.394694526071703</v>
+        <v>4.882910523801229</v>
       </c>
       <c r="C20">
-        <v>0.977868683353563</v>
+        <v>0.6689733825477333</v>
       </c>
       <c r="D20">
-        <v>0.1910903087529192</v>
+        <v>0.2312007753916276</v>
       </c>
       <c r="E20">
-        <v>0.02816175812832977</v>
+        <v>0.03862473224894325</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008172858501693886</v>
+        <v>2.668933001419816</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.501549599305747</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07875816871897001</v>
+        <v>0.06322432607512596</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3972065175286019</v>
+        <v>0.3513028767998492</v>
       </c>
       <c r="M20">
-        <v>1.100142697436226</v>
+        <v>0.8652558547671134</v>
       </c>
       <c r="N20">
-        <v>2.202928124414754</v>
+        <v>1.179085633384389</v>
       </c>
       <c r="O20">
-        <v>3.695710825619102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.210003262152554</v>
+        <v>5.511217310166614</v>
       </c>
       <c r="C21">
-        <v>1.120427770746119</v>
+        <v>0.7607635261856558</v>
       </c>
       <c r="D21">
-        <v>0.2033820452919599</v>
+        <v>0.2461419897211812</v>
       </c>
       <c r="E21">
-        <v>0.02812515444414476</v>
+        <v>0.03801235018615934</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008031221222562628</v>
+        <v>2.910881169390422</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.602535535005757</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08948152788244812</v>
+        <v>0.06971974351099419</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4352344295758002</v>
+        <v>0.3850730068641894</v>
       </c>
       <c r="M21">
-        <v>1.233675927580492</v>
+        <v>0.9714409324400961</v>
       </c>
       <c r="N21">
-        <v>2.199894669652679</v>
+        <v>1.113362921394007</v>
       </c>
       <c r="O21">
-        <v>4.022796285496241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.76255185038741</v>
+        <v>5.931534441467818</v>
       </c>
       <c r="C22">
-        <v>1.216829726915762</v>
+        <v>0.8219269952400907</v>
       </c>
       <c r="D22">
-        <v>0.2118537872675716</v>
+        <v>0.2563488650386887</v>
       </c>
       <c r="E22">
-        <v>0.02811436669746148</v>
+        <v>0.0376343507490251</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007938824906385766</v>
+        <v>3.077005167516376</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.672534657738652</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09670896408375995</v>
+        <v>0.07403719602451275</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4611928735401136</v>
+        <v>0.4078469035984682</v>
       </c>
       <c r="M22">
-        <v>1.324293230572167</v>
+        <v>1.042584214246851</v>
       </c>
       <c r="N22">
-        <v>2.202020404515252</v>
+        <v>1.072789628892735</v>
       </c>
       <c r="O22">
-        <v>4.248479937486366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.465656804318655</v>
+        <v>5.706236200650096</v>
       </c>
       <c r="C23">
-        <v>1.165048723062057</v>
+        <v>0.7891638006958601</v>
       </c>
       <c r="D23">
-        <v>0.2072887895667321</v>
+        <v>0.2508580811545471</v>
       </c>
       <c r="E23">
-        <v>0.02811881937681893</v>
+        <v>0.03783402075508313</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007988141927101006</v>
+        <v>2.987551330074723</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.634781640837531</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09282896806578833</v>
+        <v>0.07172542555596095</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4472277413438803</v>
+        <v>0.395622657968886</v>
       </c>
       <c r="M23">
-        <v>1.27559179823524</v>
+        <v>1.004439899017292</v>
       </c>
       <c r="N23">
-        <v>2.200480116888542</v>
+        <v>1.094215334418301</v>
       </c>
       <c r="O23">
-        <v>4.126833047108079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.38166215087864</v>
+        <v>4.872787409394959</v>
       </c>
       <c r="C24">
-        <v>0.9755861321787336</v>
+        <v>0.6674904405080326</v>
       </c>
       <c r="D24">
-        <v>0.1908961047891609</v>
+        <v>0.2309634459521845</v>
       </c>
       <c r="E24">
-        <v>0.02816255700171677</v>
+        <v>0.03863510780942336</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008175180383805391</v>
+        <v>2.665101053057015</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.499960765074377</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07858607269909612</v>
+        <v>0.06311920342759336</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3966016373709067</v>
+        <v>0.3507617204927982</v>
       </c>
       <c r="M24">
-        <v>1.098010138616033</v>
+        <v>0.8635467796553868</v>
       </c>
       <c r="N24">
-        <v>2.203040836414687</v>
+        <v>1.180197642503501</v>
       </c>
       <c r="O24">
-        <v>3.690543973554355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.280463296970481</v>
+        <v>4.007964792265227</v>
       </c>
       <c r="C25">
-        <v>0.7821242865429099</v>
+        <v>0.540219333783881</v>
       </c>
       <c r="D25">
-        <v>0.1747990587084871</v>
+        <v>0.2111506589700411</v>
       </c>
       <c r="E25">
-        <v>0.02825738040922354</v>
+        <v>0.03959092183465218</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008379357503506717</v>
+        <v>2.346293161440855</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.369227050543827</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0639416030391331</v>
+        <v>0.05406984165279027</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3458980453109461</v>
+        <v>0.3049312936571908</v>
       </c>
       <c r="M25">
-        <v>0.9180768650784472</v>
+        <v>0.7177784870962256</v>
       </c>
       <c r="N25">
-        <v>2.220819157939218</v>
+        <v>1.282145642518081</v>
       </c>
       <c r="O25">
-        <v>3.261831184232136</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.393390593607933</v>
+        <v>3.052282377742472</v>
       </c>
       <c r="C2">
-        <v>0.4488938921387557</v>
+        <v>0.1354979047511904</v>
       </c>
       <c r="D2">
-        <v>0.1977345398564694</v>
+        <v>0.4263785751512756</v>
       </c>
       <c r="E2">
-        <v>0.04037020683401016</v>
+        <v>0.1119939907509493</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.131358249006666</v>
+        <v>3.108132831540189</v>
       </c>
       <c r="H2">
-        <v>1.283215359370814</v>
+        <v>2.388476113548734</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04753370698456294</v>
+        <v>0.03700484573729312</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2729396397213009</v>
+        <v>0.4786374334240406</v>
       </c>
       <c r="M2">
-        <v>0.6145341585787065</v>
+        <v>0.6742196960079312</v>
       </c>
       <c r="N2">
-        <v>1.364170874130281</v>
+        <v>2.74755183029724</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.987643646811307</v>
+        <v>2.965402681747264</v>
       </c>
       <c r="C3">
-        <v>0.3880490713416691</v>
+        <v>0.1187811219180617</v>
       </c>
       <c r="D3">
-        <v>0.1892682933028027</v>
+        <v>0.4265951139999942</v>
       </c>
       <c r="E3">
-        <v>0.04094405806968338</v>
+        <v>0.1124319677617645</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.995847532026573</v>
+        <v>3.093615699130311</v>
       </c>
       <c r="H3">
-        <v>1.230295631924179</v>
+        <v>2.389290011603123</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04315173326481414</v>
+        <v>0.03554302740950277</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2521602564185059</v>
+        <v>0.4762238575677173</v>
       </c>
       <c r="M3">
-        <v>0.546575049312807</v>
+        <v>0.6608947510589971</v>
       </c>
       <c r="N3">
-        <v>1.423697568860995</v>
+        <v>2.771258202610028</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.74292073556353</v>
+        <v>2.913729657881333</v>
       </c>
       <c r="C4">
-        <v>0.3510793922271489</v>
+        <v>0.1085397881158769</v>
       </c>
       <c r="D4">
-        <v>0.1843480461718059</v>
+        <v>0.4268870576316317</v>
       </c>
       <c r="E4">
-        <v>0.04131856140781798</v>
+        <v>0.112718012275093</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.917010442506637</v>
+        <v>3.086350049555591</v>
       </c>
       <c r="H4">
-        <v>1.200154808898731</v>
+        <v>2.390846973965779</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04047556239046202</v>
+        <v>0.03463242925914756</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2397905085620167</v>
+        <v>0.4749467923772883</v>
       </c>
       <c r="M4">
-        <v>0.5056832884025937</v>
+        <v>0.6530646173872725</v>
       </c>
       <c r="N4">
-        <v>1.462071342521732</v>
+        <v>2.78661955006266</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.644181570280182</v>
+        <v>2.893092506911159</v>
       </c>
       <c r="C5">
-        <v>0.336094755787741</v>
+        <v>0.1043719279981019</v>
       </c>
       <c r="D5">
-        <v>0.182408768515522</v>
+        <v>0.427046035681883</v>
       </c>
       <c r="E5">
-        <v>0.0414766917388758</v>
+        <v>0.1128388930679805</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.885894949342457</v>
+        <v>3.083802651474713</v>
       </c>
       <c r="H5">
-        <v>1.188423334714372</v>
+        <v>2.391747028020148</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03938739383405832</v>
+        <v>0.03425805048743058</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.234839989336443</v>
+        <v>0.4744779276586826</v>
       </c>
       <c r="M5">
-        <v>0.4892085885271626</v>
+        <v>0.6499621260447412</v>
       </c>
       <c r="N5">
-        <v>1.478151416523659</v>
+        <v>2.79308176011417</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.627842286904581</v>
+        <v>2.889691084813137</v>
       </c>
       <c r="C6">
-        <v>0.3336109752733023</v>
+        <v>0.1036801891242476</v>
       </c>
       <c r="D6">
-        <v>0.1820906091766972</v>
+        <v>0.4270748511931046</v>
       </c>
       <c r="E6">
-        <v>0.04150328089320787</v>
+        <v>0.1128592261363619</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.880786909204829</v>
+        <v>3.083404598971015</v>
       </c>
       <c r="H6">
-        <v>1.186507501235809</v>
+        <v>2.391912513948085</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03920681489782041</v>
+        <v>0.03419568498811643</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2340232011892738</v>
+        <v>0.4744031874609504</v>
       </c>
       <c r="M6">
-        <v>0.4864838091581092</v>
+        <v>0.6494522954870519</v>
       </c>
       <c r="N6">
-        <v>1.480847772828433</v>
+        <v>2.794167019334218</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.741585259649355</v>
+        <v>2.913449637741564</v>
       </c>
       <c r="C7">
-        <v>0.3508769985818958</v>
+        <v>0.1084835565863784</v>
       </c>
       <c r="D7">
-        <v>0.184321631392045</v>
+        <v>0.4268890396313694</v>
       </c>
       <c r="E7">
-        <v>0.04132067173776077</v>
+        <v>0.1127196250309139</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.916586823491969</v>
+        <v>3.086314021857419</v>
       </c>
       <c r="H7">
-        <v>1.199994413527889</v>
+        <v>2.390858037463488</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04046087882557359</v>
+        <v>0.03462739366023726</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2397233882308143</v>
+        <v>0.474940260338677</v>
       </c>
       <c r="M7">
-        <v>0.505460366123593</v>
+        <v>0.6530224183965956</v>
       </c>
       <c r="N7">
-        <v>1.462286433081431</v>
+        <v>2.786705882750184</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.252498458499133</v>
+        <v>3.021979138070549</v>
       </c>
       <c r="C8">
-        <v>0.4278230671191352</v>
+        <v>0.1297291060336079</v>
       </c>
       <c r="D8">
-        <v>0.1947550609889817</v>
+        <v>0.4264202566036914</v>
       </c>
       <c r="E8">
-        <v>0.04056343800730344</v>
+        <v>0.112141456467227</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.08367331241891</v>
+        <v>3.102784695945445</v>
       </c>
       <c r="H8">
-        <v>1.264455188232006</v>
+        <v>2.388537149288652</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04601904948965085</v>
+        <v>0.0365035011367425</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2656894710358415</v>
+        <v>0.47776272575517</v>
       </c>
       <c r="M8">
-        <v>0.5909152635378589</v>
+        <v>0.6695522951634274</v>
       </c>
       <c r="N8">
-        <v>1.384306896143755</v>
+        <v>2.755558465034916</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.295389089252183</v>
+        <v>3.248096114968291</v>
       </c>
       <c r="C9">
-        <v>0.5826568849112732</v>
+        <v>0.1715828994540516</v>
       </c>
       <c r="D9">
-        <v>0.2176274462272119</v>
+        <v>0.4267615777836369</v>
       </c>
       <c r="E9">
-        <v>0.03925701855203556</v>
+        <v>0.1111431341681439</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.450290418697392</v>
+        <v>3.148209005755405</v>
       </c>
       <c r="H9">
-        <v>1.411525682734265</v>
+        <v>2.392389392350225</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05709385925968746</v>
+        <v>0.04008036029789608</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3200693335082718</v>
+        <v>0.4849227491686179</v>
       </c>
       <c r="M9">
-        <v>0.7661688126869066</v>
+        <v>0.7047594950828397</v>
       </c>
       <c r="N9">
-        <v>1.246664212445239</v>
+        <v>2.700879314503133</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.095940490824205</v>
+        <v>3.422389875593694</v>
       </c>
       <c r="C10">
-        <v>0.7001489319962673</v>
+        <v>0.2024666677810671</v>
       </c>
       <c r="D10">
-        <v>0.2362210691850635</v>
+        <v>0.4277802629171958</v>
       </c>
       <c r="E10">
-        <v>0.03841027793008722</v>
+        <v>0.1104916761912067</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.75007133605007</v>
+        <v>3.189661388756406</v>
       </c>
       <c r="H10">
-        <v>1.535273787438797</v>
+        <v>2.400367256814491</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06543285846687041</v>
+        <v>0.04264791690571457</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.362713376927303</v>
+        <v>0.4911747046135559</v>
       </c>
       <c r="M10">
-        <v>0.9012348644682291</v>
+        <v>0.7323375021413838</v>
       </c>
       <c r="N10">
-        <v>1.156085956343915</v>
+        <v>2.664620316393858</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.469965439651844</v>
+        <v>3.503469181791161</v>
       </c>
       <c r="C11">
-        <v>0.7547510080129882</v>
+        <v>0.2165494670076953</v>
       </c>
       <c r="D11">
-        <v>0.2451489378805292</v>
+        <v>0.4284103762338418</v>
       </c>
       <c r="E11">
-        <v>0.03805074938447772</v>
+        <v>0.1102129975332158</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.894755850989071</v>
+        <v>3.210290985972193</v>
       </c>
       <c r="H11">
-        <v>1.59576739599305</v>
+        <v>2.405120079281346</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06929490414602313</v>
+        <v>0.04380328639687647</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3828453752053207</v>
+        <v>0.4942344556279608</v>
       </c>
       <c r="M11">
-        <v>0.9644630705523909</v>
+        <v>0.745257331686382</v>
       </c>
       <c r="N11">
-        <v>1.117486503493197</v>
+        <v>2.648977579256396</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.613240402382814</v>
+        <v>3.534430353566165</v>
       </c>
       <c r="C12">
-        <v>0.775625833139344</v>
+        <v>0.2218873459271435</v>
       </c>
       <c r="D12">
-        <v>0.2486048274509329</v>
+        <v>0.4286729434231091</v>
       </c>
       <c r="E12">
-        <v>0.03791840612031683</v>
+        <v>0.1101100013685814</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.950901307894924</v>
+        <v>3.218359087717545</v>
       </c>
       <c r="H12">
-        <v>1.619353926606237</v>
+        <v>2.407081848142525</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07076956138040202</v>
+        <v>0.04423900948466297</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.390588238540488</v>
+        <v>0.4954241241755568</v>
       </c>
       <c r="M12">
-        <v>0.9887019250935509</v>
+        <v>0.750203696967283</v>
       </c>
       <c r="N12">
-        <v>1.103275145438623</v>
+        <v>2.643176820268096</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.582306792843667</v>
+        <v>3.527750819820653</v>
       </c>
       <c r="C13">
-        <v>0.7711206939640078</v>
+        <v>0.2207375114201398</v>
       </c>
       <c r="D13">
-        <v>0.2478570693536</v>
+        <v>0.4286153296225734</v>
       </c>
       <c r="E13">
-        <v>0.03794673752964295</v>
+        <v>0.110132070887687</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.938746264048376</v>
+        <v>3.216610067137736</v>
       </c>
       <c r="H13">
-        <v>1.614242656914769</v>
+        <v>2.406652135634261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07045138548071606</v>
+        <v>0.04414524794096764</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3889151283102592</v>
+        <v>0.4951665288617875</v>
       </c>
       <c r="M13">
-        <v>0.9834678323462569</v>
+        <v>0.7491360101940643</v>
       </c>
       <c r="N13">
-        <v>1.106317252147001</v>
+        <v>2.644420650205205</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.48171851546698</v>
+        <v>3.506011198482327</v>
       </c>
       <c r="C14">
-        <v>0.7564642210537897</v>
+        <v>0.2169885156141902</v>
       </c>
       <c r="D14">
-        <v>0.245431704263936</v>
+        <v>0.4284314977458052</v>
       </c>
       <c r="E14">
-        <v>0.03803978451577761</v>
+        <v>0.1102044732489227</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.899346789391984</v>
+        <v>3.210949613519915</v>
       </c>
       <c r="H14">
-        <v>1.597693805163686</v>
+        <v>2.405278226584869</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06941596653070548</v>
+        <v>0.04383916933254639</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3834799083497558</v>
+        <v>0.4943317089982031</v>
       </c>
       <c r="M14">
-        <v>0.9664510497012557</v>
+        <v>0.7456631914109053</v>
       </c>
       <c r="N14">
-        <v>1.116309010983286</v>
+        <v>2.648497884145563</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.420325939324016</v>
+        <v>3.492728692539174</v>
       </c>
       <c r="C15">
-        <v>0.7475135456119801</v>
+        <v>0.2146928081191959</v>
       </c>
       <c r="D15">
-        <v>0.2439561185319121</v>
+        <v>0.4283220148786029</v>
       </c>
       <c r="E15">
-        <v>0.03809727728430312</v>
+        <v>0.1102491514744424</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.875395261877941</v>
+        <v>3.207515812957809</v>
       </c>
       <c r="H15">
-        <v>1.587647952548167</v>
+        <v>2.404457773955443</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06878340324972854</v>
+        <v>0.04365145495191314</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3801666586256403</v>
+        <v>0.4938243955015054</v>
       </c>
       <c r="M15">
-        <v>0.9560675230626501</v>
+        <v>0.7435430116861781</v>
       </c>
       <c r="N15">
-        <v>1.122483029602918</v>
+        <v>2.651011310790956</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.071713781900428</v>
+        <v>3.417127256410083</v>
       </c>
       <c r="C16">
-        <v>0.6966064491778923</v>
+        <v>0.2015470167361286</v>
       </c>
       <c r="D16">
-        <v>0.2356476883268641</v>
+        <v>0.4277424367723626</v>
       </c>
       <c r="E16">
-        <v>0.03843429956038502</v>
+        <v>0.1105102434391907</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.740796475419017</v>
+        <v>3.188348970218243</v>
       </c>
       <c r="H16">
-        <v>1.531411104610356</v>
+        <v>2.400079293251082</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06518203672240475</v>
+        <v>0.04257215889546373</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3614136048307728</v>
+        <v>0.4909790822438822</v>
       </c>
       <c r="M16">
-        <v>0.8971419097226061</v>
+        <v>0.731500700902032</v>
       </c>
       <c r="N16">
-        <v>1.158663489541574</v>
+        <v>2.665659772411821</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.860525076835643</v>
+        <v>3.371207582880515</v>
       </c>
       <c r="C17">
-        <v>0.6656939360921967</v>
+        <v>0.1934912469836547</v>
       </c>
       <c r="D17">
-        <v>0.2306761172647214</v>
+        <v>0.4274295709301015</v>
       </c>
       <c r="E17">
-        <v>0.03864769890189468</v>
+        <v>0.1106749356669012</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.660462260991267</v>
+        <v>3.177045618071645</v>
       </c>
       <c r="H17">
-        <v>1.498037873938671</v>
+        <v>2.397681311482785</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0629918443950821</v>
+        <v>0.04190683004630102</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3501063395749213</v>
+        <v>0.4892888135009201</v>
       </c>
       <c r="M17">
-        <v>0.8614766215382446</v>
+        <v>0.7242090813041102</v>
       </c>
       <c r="N17">
-        <v>1.181546997518517</v>
+        <v>2.674864498579929</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.739967200467675</v>
+        <v>3.344964460913843</v>
       </c>
       <c r="C18">
-        <v>0.6480203796339765</v>
+        <v>0.1888609337467528</v>
       </c>
       <c r="D18">
-        <v>0.2278602932854739</v>
+        <v>0.4272653109993172</v>
       </c>
       <c r="E18">
-        <v>0.0387728480011047</v>
+        <v>0.1107713262016508</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.615027842836668</v>
+        <v>3.170711010405341</v>
       </c>
       <c r="H18">
-        <v>1.479232805221272</v>
+        <v>2.396407794800268</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06173840488556692</v>
+        <v>0.0415229606587495</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3436707695168479</v>
+        <v>0.4883369193264286</v>
       </c>
       <c r="M18">
-        <v>0.8411284105706898</v>
+        <v>0.7200503762031119</v>
       </c>
       <c r="N18">
-        <v>1.194952130236913</v>
+        <v>2.68023895552745</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.699298681168898</v>
+        <v>3.33610794399857</v>
       </c>
       <c r="C19">
-        <v>0.6420537918461662</v>
+        <v>0.187293724824741</v>
       </c>
       <c r="D19">
-        <v>0.2269141909688983</v>
+        <v>0.4272123910568979</v>
       </c>
       <c r="E19">
-        <v>0.03881563162852952</v>
+        <v>0.1108042484038223</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.599772468869901</v>
+        <v>3.168594829442526</v>
       </c>
       <c r="H19">
-        <v>1.472930633039198</v>
+        <v>2.395994752725187</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06131502801401467</v>
+        <v>0.04139278396132084</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3415030899053164</v>
+        <v>0.4880181118628997</v>
       </c>
       <c r="M19">
-        <v>0.834266173717225</v>
+        <v>0.7186483611579035</v>
       </c>
       <c r="N19">
-        <v>1.199531760147252</v>
+        <v>2.682072408561403</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.882910523801229</v>
+        <v>3.376078351519311</v>
       </c>
       <c r="C20">
-        <v>0.6689733825477333</v>
+        <v>0.194348469756676</v>
       </c>
       <c r="D20">
-        <v>0.2312007753916276</v>
+        <v>0.427461252064262</v>
       </c>
       <c r="E20">
-        <v>0.03862473224894325</v>
+        <v>0.1106572317464254</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.668933001419816</v>
+        <v>3.178231609301434</v>
       </c>
       <c r="H20">
-        <v>1.501549599305747</v>
+        <v>2.397925634345654</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06322432607512596</v>
+        <v>0.04197777839837258</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3513028767998492</v>
+        <v>0.4894666442262263</v>
       </c>
       <c r="M20">
-        <v>0.8652558547671134</v>
+        <v>0.7249816388722508</v>
       </c>
       <c r="N20">
-        <v>1.179085633384389</v>
+        <v>2.673876343002959</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.511217310166614</v>
+        <v>3.51238964082836</v>
       </c>
       <c r="C21">
-        <v>0.7607635261856558</v>
+        <v>0.2180895485207657</v>
       </c>
       <c r="D21">
-        <v>0.2461419897211812</v>
+        <v>0.4284848435560349</v>
       </c>
       <c r="E21">
-        <v>0.03801235018615934</v>
+        <v>0.1101831382276908</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.910881169390422</v>
+        <v>3.212605265176819</v>
       </c>
       <c r="H21">
-        <v>1.602535535005757</v>
+        <v>2.405677377708685</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06971974351099419</v>
+        <v>0.04392912042494501</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3850730068641894</v>
+        <v>0.4945760743761696</v>
       </c>
       <c r="M21">
-        <v>0.9714409324400961</v>
+        <v>0.7466817789650122</v>
       </c>
       <c r="N21">
-        <v>1.113362921394007</v>
+        <v>2.64729696605059</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.931534441467818</v>
+        <v>3.602982170275368</v>
       </c>
       <c r="C22">
-        <v>0.8219269952400907</v>
+        <v>0.2336351185796843</v>
       </c>
       <c r="D22">
-        <v>0.2563488650386887</v>
+        <v>0.4292934529657373</v>
       </c>
       <c r="E22">
-        <v>0.0376343507490251</v>
+        <v>0.1098880536475644</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.077005167516376</v>
+        <v>3.236563880519128</v>
       </c>
       <c r="H22">
-        <v>1.672534657738652</v>
+        <v>2.411687915078346</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07403719602451275</v>
+        <v>0.04519401202984596</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4078469035984682</v>
+        <v>0.498096112884042</v>
       </c>
       <c r="M22">
-        <v>1.042584214246851</v>
+        <v>0.7611783134974104</v>
       </c>
       <c r="N22">
-        <v>1.072789628892735</v>
+        <v>2.630641776611917</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.706236200650096</v>
+        <v>3.554493337238966</v>
       </c>
       <c r="C23">
-        <v>0.7891638006958601</v>
+        <v>0.2253353997895999</v>
       </c>
       <c r="D23">
-        <v>0.2508580811545471</v>
+        <v>0.4288491112341859</v>
       </c>
       <c r="E23">
-        <v>0.03783402075508313</v>
+        <v>0.110044197632206</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.987551330074723</v>
+        <v>3.223639661842384</v>
       </c>
       <c r="H23">
-        <v>1.634781640837531</v>
+        <v>2.408393437983023</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07172542555596095</v>
+        <v>0.04451986093283722</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.395622657968886</v>
+        <v>0.4962008682239372</v>
       </c>
       <c r="M23">
-        <v>1.004439899017292</v>
+        <v>0.7534124660916603</v>
       </c>
       <c r="N23">
-        <v>1.094215334418301</v>
+        <v>2.639465339757898</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.872787409394959</v>
+        <v>3.373875788919065</v>
       </c>
       <c r="C24">
-        <v>0.6674904405080326</v>
+        <v>0.1939609160696421</v>
       </c>
       <c r="D24">
-        <v>0.2309634459521845</v>
+        <v>0.4274468803983211</v>
       </c>
       <c r="E24">
-        <v>0.03863510780942336</v>
+        <v>0.1106652303720304</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.665101053057015</v>
+        <v>3.177694912408924</v>
       </c>
       <c r="H24">
-        <v>1.499960765074377</v>
+        <v>2.397814848574825</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06311920342759336</v>
+        <v>0.04194570689613997</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3507617204927982</v>
+        <v>0.48938618508204</v>
       </c>
       <c r="M24">
-        <v>0.8635467796553868</v>
+        <v>0.7246322617374474</v>
       </c>
       <c r="N24">
-        <v>1.180197642503501</v>
+        <v>2.674322831056521</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.007964792265227</v>
+        <v>3.185496178490212</v>
       </c>
       <c r="C25">
-        <v>0.540219333783881</v>
+        <v>0.1602380961002723</v>
       </c>
       <c r="D25">
-        <v>0.2111506589700411</v>
+        <v>0.4265343499005638</v>
       </c>
       <c r="E25">
-        <v>0.03959092183465218</v>
+        <v>0.1113987639712448</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.346293161440855</v>
+        <v>3.134507414773935</v>
       </c>
       <c r="H25">
-        <v>1.369227050543827</v>
+        <v>2.390445097700621</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05406984165279027</v>
+        <v>0.03912346538349709</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3049312936571908</v>
+        <v>0.4828117189441343</v>
       </c>
       <c r="M25">
-        <v>0.7177784870962256</v>
+        <v>0.694935173350288</v>
       </c>
       <c r="N25">
-        <v>1.282145642518081</v>
+        <v>2.714985042102938</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.052282377742472</v>
+        <v>3.393390593607933</v>
       </c>
       <c r="C2">
-        <v>0.1354979047511904</v>
+        <v>0.4488938921387557</v>
       </c>
       <c r="D2">
-        <v>0.4263785751512756</v>
+        <v>0.1977345398564125</v>
       </c>
       <c r="E2">
-        <v>0.1119939907509493</v>
+        <v>0.04037020683399994</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.108132831540189</v>
+        <v>2.131358249006695</v>
       </c>
       <c r="H2">
-        <v>2.388476113548734</v>
+        <v>1.283215359370814</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03700484573729312</v>
+        <v>0.04753370698458781</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4786374334240406</v>
+        <v>0.2729396397213293</v>
       </c>
       <c r="M2">
-        <v>0.6742196960079312</v>
+        <v>0.6145341585786923</v>
       </c>
       <c r="N2">
-        <v>2.74755183029724</v>
+        <v>1.364170874130338</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.965402681747264</v>
+        <v>2.98764364681125</v>
       </c>
       <c r="C3">
-        <v>0.1187811219180617</v>
+        <v>0.3880490713416691</v>
       </c>
       <c r="D3">
-        <v>0.4265951139999942</v>
+        <v>0.1892682933027032</v>
       </c>
       <c r="E3">
-        <v>0.1124319677617645</v>
+        <v>0.04094405806969759</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.093615699130311</v>
+        <v>1.99584753202663</v>
       </c>
       <c r="H3">
-        <v>2.389290011603123</v>
+        <v>1.230295631924179</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03554302740950277</v>
+        <v>0.0431517332646969</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4762238575677173</v>
+        <v>0.2521602564185059</v>
       </c>
       <c r="M3">
-        <v>0.6608947510589971</v>
+        <v>0.5465750493127999</v>
       </c>
       <c r="N3">
-        <v>2.771258202610028</v>
+        <v>1.423697568861002</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.913729657881333</v>
+        <v>2.742920735563473</v>
       </c>
       <c r="C4">
-        <v>0.1085397881158769</v>
+        <v>0.3510793922269784</v>
       </c>
       <c r="D4">
-        <v>0.4268870576316317</v>
+        <v>0.1843480461717135</v>
       </c>
       <c r="E4">
-        <v>0.112718012275093</v>
+        <v>0.04131856140784862</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.086350049555591</v>
+        <v>1.917010442506637</v>
       </c>
       <c r="H4">
-        <v>2.390846973965779</v>
+        <v>1.200154808898617</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03463242925914756</v>
+        <v>0.04047556239053307</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4749467923772883</v>
+        <v>0.2397905085620309</v>
       </c>
       <c r="M4">
-        <v>0.6530646173872725</v>
+        <v>0.5056832884025937</v>
       </c>
       <c r="N4">
-        <v>2.78661955006266</v>
+        <v>1.462071342521732</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.893092506911159</v>
+        <v>2.644181570280125</v>
       </c>
       <c r="C5">
-        <v>0.1043719279981019</v>
+        <v>0.3360947557875988</v>
       </c>
       <c r="D5">
-        <v>0.427046035681883</v>
+        <v>0.1824087685156073</v>
       </c>
       <c r="E5">
-        <v>0.1128388930679805</v>
+        <v>0.04147669173889357</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.083802651474713</v>
+        <v>1.885894949342372</v>
       </c>
       <c r="H5">
-        <v>2.391747028020148</v>
+        <v>1.188423334714486</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03425805048743058</v>
+        <v>0.03938739383411871</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4744779276586826</v>
+        <v>0.2348399893365141</v>
       </c>
       <c r="M5">
-        <v>0.6499621260447412</v>
+        <v>0.4892085885271626</v>
       </c>
       <c r="N5">
-        <v>2.79308176011417</v>
+        <v>1.478151416523659</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.889691084813137</v>
+        <v>2.627842286904695</v>
       </c>
       <c r="C6">
-        <v>0.1036801891242476</v>
+        <v>0.333610975273217</v>
       </c>
       <c r="D6">
-        <v>0.4270748511931046</v>
+        <v>0.1820906091768677</v>
       </c>
       <c r="E6">
-        <v>0.1128592261363619</v>
+        <v>0.04150328089319766</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.083404598971015</v>
+        <v>1.880786909204744</v>
       </c>
       <c r="H6">
-        <v>2.391912513948085</v>
+        <v>1.186507501235894</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03419568498811643</v>
+        <v>0.03920681489776712</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4744031874609504</v>
+        <v>0.2340232011892098</v>
       </c>
       <c r="M6">
-        <v>0.6494522954870519</v>
+        <v>0.4864838091581163</v>
       </c>
       <c r="N6">
-        <v>2.794167019334218</v>
+        <v>1.480847772828433</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.913449637741564</v>
+        <v>2.741585259649412</v>
       </c>
       <c r="C7">
-        <v>0.1084835565863784</v>
+        <v>0.3508769985817821</v>
       </c>
       <c r="D7">
-        <v>0.4268890396313694</v>
+        <v>0.1843216313919527</v>
       </c>
       <c r="E7">
-        <v>0.1127196250309139</v>
+        <v>0.04132067173775766</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.086314021857419</v>
+        <v>1.916586823491912</v>
       </c>
       <c r="H7">
-        <v>2.390858037463488</v>
+        <v>1.199994413527889</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03462739366023726</v>
+        <v>0.04046087882578675</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.474940260338677</v>
+        <v>0.2397233882307859</v>
       </c>
       <c r="M7">
-        <v>0.6530224183965956</v>
+        <v>0.5054603661235788</v>
       </c>
       <c r="N7">
-        <v>2.786705882750184</v>
+        <v>1.462286433081417</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.021979138070549</v>
+        <v>3.25249845849919</v>
       </c>
       <c r="C8">
-        <v>0.1297291060336079</v>
+        <v>0.4278230671189931</v>
       </c>
       <c r="D8">
-        <v>0.4264202566036914</v>
+        <v>0.1947550609889817</v>
       </c>
       <c r="E8">
-        <v>0.112141456467227</v>
+        <v>0.04056343800733631</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.102784695945445</v>
+        <v>2.083673312418938</v>
       </c>
       <c r="H8">
-        <v>2.388537149288652</v>
+        <v>1.264455188232006</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0365035011367425</v>
+        <v>0.04601904948970059</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.47776272575517</v>
+        <v>0.2656894710357705</v>
       </c>
       <c r="M8">
-        <v>0.6695522951634274</v>
+        <v>0.5909152635378945</v>
       </c>
       <c r="N8">
-        <v>2.755558465034916</v>
+        <v>1.384306896143819</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.248096114968291</v>
+        <v>4.295389089251955</v>
       </c>
       <c r="C9">
-        <v>0.1715828994540516</v>
+        <v>0.5826568849111027</v>
       </c>
       <c r="D9">
-        <v>0.4267615777836369</v>
+        <v>0.2176274462273398</v>
       </c>
       <c r="E9">
-        <v>0.1111431341681439</v>
+        <v>0.03925701855203689</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.148209005755405</v>
+        <v>2.450290418697449</v>
       </c>
       <c r="H9">
-        <v>2.392389392350225</v>
+        <v>1.411525682734123</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04008036029789608</v>
+        <v>0.05709385925958799</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4849227491686179</v>
+        <v>0.3200693335081866</v>
       </c>
       <c r="M9">
-        <v>0.7047594950828397</v>
+        <v>0.7661688126868924</v>
       </c>
       <c r="N9">
-        <v>2.700879314503133</v>
+        <v>1.246664212445268</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.422389875593694</v>
+        <v>5.095940490824603</v>
       </c>
       <c r="C10">
-        <v>0.2024666677810671</v>
+        <v>0.7001489319967789</v>
       </c>
       <c r="D10">
-        <v>0.4277802629171958</v>
+        <v>0.2362210691851772</v>
       </c>
       <c r="E10">
-        <v>0.1104916761912067</v>
+        <v>0.03841027793008811</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.189661388756406</v>
+        <v>2.750071336050013</v>
       </c>
       <c r="H10">
-        <v>2.400367256814491</v>
+        <v>1.535273787438683</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04264791690571457</v>
+        <v>0.06543285846688107</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4911747046135559</v>
+        <v>0.3627133769271893</v>
       </c>
       <c r="M10">
-        <v>0.7323375021413838</v>
+        <v>0.9012348644682433</v>
       </c>
       <c r="N10">
-        <v>2.664620316393858</v>
+        <v>1.156085956343915</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.503469181791161</v>
+        <v>5.469965439652015</v>
       </c>
       <c r="C11">
-        <v>0.2165494670076953</v>
+        <v>0.7547510080129598</v>
       </c>
       <c r="D11">
-        <v>0.4284103762338418</v>
+        <v>0.2451489378805434</v>
       </c>
       <c r="E11">
-        <v>0.1102129975332158</v>
+        <v>0.03805074938447994</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.210290985972193</v>
+        <v>2.894755850989128</v>
       </c>
       <c r="H11">
-        <v>2.405120079281346</v>
+        <v>1.595767395993164</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04380328639687647</v>
+        <v>0.06929490414595563</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4942344556279608</v>
+        <v>0.3828453752052638</v>
       </c>
       <c r="M11">
-        <v>0.745257331686382</v>
+        <v>0.9644630705523838</v>
       </c>
       <c r="N11">
-        <v>2.648977579256396</v>
+        <v>1.117486503493204</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.534430353566165</v>
+        <v>5.613240402382814</v>
       </c>
       <c r="C12">
-        <v>0.2218873459271435</v>
+        <v>0.775625833139344</v>
       </c>
       <c r="D12">
-        <v>0.4286729434231091</v>
+        <v>0.2486048274510608</v>
       </c>
       <c r="E12">
-        <v>0.1101100013685814</v>
+        <v>0.03791840612034258</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.218359087717545</v>
+        <v>2.950901307894952</v>
       </c>
       <c r="H12">
-        <v>2.407081848142525</v>
+        <v>1.619353926606209</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04423900948466297</v>
+        <v>0.07076956138039137</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4954241241755568</v>
+        <v>0.3905882385404311</v>
       </c>
       <c r="M12">
-        <v>0.750203696967283</v>
+        <v>0.9887019250935651</v>
       </c>
       <c r="N12">
-        <v>2.643176820268096</v>
+        <v>1.103275145438666</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.527750819820653</v>
+        <v>5.582306792843838</v>
       </c>
       <c r="C13">
-        <v>0.2207375114201398</v>
+        <v>0.7711206939644057</v>
       </c>
       <c r="D13">
-        <v>0.4286153296225734</v>
+        <v>0.2478570693535715</v>
       </c>
       <c r="E13">
-        <v>0.110132070887687</v>
+        <v>0.03794673752960875</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.216610067137736</v>
+        <v>2.938746264048405</v>
       </c>
       <c r="H13">
-        <v>2.406652135634261</v>
+        <v>1.614242656914854</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04414524794096764</v>
+        <v>0.07045138548075869</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4951665288617875</v>
+        <v>0.3889151283102592</v>
       </c>
       <c r="M13">
-        <v>0.7491360101940643</v>
+        <v>0.9834678323462569</v>
       </c>
       <c r="N13">
-        <v>2.644420650205205</v>
+        <v>1.106317252146994</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.506011198482327</v>
+        <v>5.481718515466923</v>
       </c>
       <c r="C14">
-        <v>0.2169885156141902</v>
+        <v>0.7564642210536192</v>
       </c>
       <c r="D14">
-        <v>0.4284314977458052</v>
+        <v>0.2454317042639218</v>
       </c>
       <c r="E14">
-        <v>0.1102044732489227</v>
+        <v>0.03803978451574874</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.210949613519915</v>
+        <v>2.899346789391927</v>
       </c>
       <c r="H14">
-        <v>2.405278226584869</v>
+        <v>1.597693805163686</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04383916933254639</v>
+        <v>0.06941596653071613</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4943317089982031</v>
+        <v>0.3834799083497415</v>
       </c>
       <c r="M14">
-        <v>0.7456631914109053</v>
+        <v>0.9664510497012486</v>
       </c>
       <c r="N14">
-        <v>2.648497884145563</v>
+        <v>1.116309010983294</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.492728692539174</v>
+        <v>5.420325939323789</v>
       </c>
       <c r="C15">
-        <v>0.2146928081191959</v>
+        <v>0.7475135456114685</v>
       </c>
       <c r="D15">
-        <v>0.4283220148786029</v>
+        <v>0.2439561185319121</v>
       </c>
       <c r="E15">
-        <v>0.1102491514744424</v>
+        <v>0.03809727728427559</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.207515812957809</v>
+        <v>2.875395261877941</v>
       </c>
       <c r="H15">
-        <v>2.404457773955443</v>
+        <v>1.587647952548281</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04365145495191314</v>
+        <v>0.06878340324963617</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4938243955015054</v>
+        <v>0.380166658625555</v>
       </c>
       <c r="M15">
-        <v>0.7435430116861781</v>
+        <v>0.956067523062643</v>
       </c>
       <c r="N15">
-        <v>2.651011310790956</v>
+        <v>1.122483029602932</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.417127256410083</v>
+        <v>5.071713781900371</v>
       </c>
       <c r="C16">
-        <v>0.2015470167361286</v>
+        <v>0.6966064491778923</v>
       </c>
       <c r="D16">
-        <v>0.4277424367723626</v>
+        <v>0.2356476883268641</v>
       </c>
       <c r="E16">
-        <v>0.1105102434391907</v>
+        <v>0.03843429956041611</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.188348970218243</v>
+        <v>2.740796475419046</v>
       </c>
       <c r="H16">
-        <v>2.400079293251082</v>
+        <v>1.531411104610498</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04257215889546373</v>
+        <v>0.06518203672241896</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4909790822438822</v>
+        <v>0.361413604830787</v>
       </c>
       <c r="M16">
-        <v>0.731500700902032</v>
+        <v>0.8971419097226061</v>
       </c>
       <c r="N16">
-        <v>2.665659772411821</v>
+        <v>1.158663489541588</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.371207582880515</v>
+        <v>4.860525076835586</v>
       </c>
       <c r="C17">
-        <v>0.1934912469836547</v>
+        <v>0.6656939360924241</v>
       </c>
       <c r="D17">
-        <v>0.4274295709301015</v>
+        <v>0.2306761172644798</v>
       </c>
       <c r="E17">
-        <v>0.1106749356669012</v>
+        <v>0.03864769890189512</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.177045618071645</v>
+        <v>2.66046226099121</v>
       </c>
       <c r="H17">
-        <v>2.397681311482785</v>
+        <v>1.498037873938586</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04190683004630102</v>
+        <v>0.06299184439515315</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4892888135009201</v>
+        <v>0.3501063395749355</v>
       </c>
       <c r="M17">
-        <v>0.7242090813041102</v>
+        <v>0.8614766215382232</v>
       </c>
       <c r="N17">
-        <v>2.674864498579929</v>
+        <v>1.18154699751846</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.344964460913843</v>
+        <v>4.739967200467618</v>
       </c>
       <c r="C18">
-        <v>0.1888609337467528</v>
+        <v>0.6480203796337776</v>
       </c>
       <c r="D18">
-        <v>0.4272653109993172</v>
+        <v>0.2278602932854739</v>
       </c>
       <c r="E18">
-        <v>0.1107713262016508</v>
+        <v>0.03877284800110425</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.170711010405341</v>
+        <v>2.615027842836582</v>
       </c>
       <c r="H18">
-        <v>2.396407794800268</v>
+        <v>1.479232805221187</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0415229606587495</v>
+        <v>0.06173840488555982</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4883369193264286</v>
+        <v>0.3436707695168053</v>
       </c>
       <c r="M18">
-        <v>0.7200503762031119</v>
+        <v>0.8411284105706827</v>
       </c>
       <c r="N18">
-        <v>2.68023895552745</v>
+        <v>1.194952130236899</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.33610794399857</v>
+        <v>4.699298681168955</v>
       </c>
       <c r="C19">
-        <v>0.187293724824741</v>
+        <v>0.6420537918459672</v>
       </c>
       <c r="D19">
-        <v>0.4272123910568979</v>
+        <v>0.2269141909691257</v>
       </c>
       <c r="E19">
-        <v>0.1108042484038223</v>
+        <v>0.0388156316285615</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.168594829442526</v>
+        <v>2.599772468869816</v>
       </c>
       <c r="H19">
-        <v>2.395994752725187</v>
+        <v>1.472930633039311</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04139278396132084</v>
+        <v>0.06131502801397204</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4880181118628997</v>
+        <v>0.3415030899052169</v>
       </c>
       <c r="M19">
-        <v>0.7186483611579035</v>
+        <v>0.8342661737172321</v>
       </c>
       <c r="N19">
-        <v>2.682072408561403</v>
+        <v>1.199531760147195</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.376078351519311</v>
+        <v>4.882910523801343</v>
       </c>
       <c r="C20">
-        <v>0.194348469756676</v>
+        <v>0.6689733825472786</v>
       </c>
       <c r="D20">
-        <v>0.427461252064262</v>
+        <v>0.2312007753917271</v>
       </c>
       <c r="E20">
-        <v>0.1106572317464254</v>
+        <v>0.03862473224890905</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.178231609301434</v>
+        <v>2.668933001419759</v>
       </c>
       <c r="H20">
-        <v>2.397925634345654</v>
+        <v>1.501549599305605</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04197777839837258</v>
+        <v>0.0632243260751828</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4894666442262263</v>
+        <v>0.351302876799906</v>
       </c>
       <c r="M20">
-        <v>0.7249816388722508</v>
+        <v>0.8652558547670779</v>
       </c>
       <c r="N20">
-        <v>2.673876343002959</v>
+        <v>1.179085633384396</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.51238964082836</v>
+        <v>5.511217310166501</v>
       </c>
       <c r="C21">
-        <v>0.2180895485207657</v>
+        <v>0.7607635261854284</v>
       </c>
       <c r="D21">
-        <v>0.4284848435560349</v>
+        <v>0.2461419897213091</v>
       </c>
       <c r="E21">
-        <v>0.1101831382276908</v>
+        <v>0.03801235018618776</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.212605265176819</v>
+        <v>2.910881169390365</v>
       </c>
       <c r="H21">
-        <v>2.405677377708685</v>
+        <v>1.602535535005757</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04392912042494501</v>
+        <v>0.06971974351104038</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4945760743761696</v>
+        <v>0.3850730068642463</v>
       </c>
       <c r="M21">
-        <v>0.7466817789650122</v>
+        <v>0.9714409324401103</v>
       </c>
       <c r="N21">
-        <v>2.64729696605059</v>
+        <v>1.113362921394064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.602982170275368</v>
+        <v>5.931534441467818</v>
       </c>
       <c r="C22">
-        <v>0.2336351185796843</v>
+        <v>0.8219269952402897</v>
       </c>
       <c r="D22">
-        <v>0.4292934529657373</v>
+        <v>0.2563488650386887</v>
       </c>
       <c r="E22">
-        <v>0.1098880536475644</v>
+        <v>0.03763435074902466</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.236563880519128</v>
+        <v>3.077005167516518</v>
       </c>
       <c r="H22">
-        <v>2.411687915078346</v>
+        <v>1.672534657738652</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04519401202984596</v>
+        <v>0.07403719602439907</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.498096112884042</v>
+        <v>0.4078469035985961</v>
       </c>
       <c r="M22">
-        <v>0.7611783134974104</v>
+        <v>1.042584214246858</v>
       </c>
       <c r="N22">
-        <v>2.630641776611917</v>
+        <v>1.072789628892743</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.554493337238966</v>
+        <v>5.706236200650153</v>
       </c>
       <c r="C23">
-        <v>0.2253353997895999</v>
+        <v>0.7891638006958601</v>
       </c>
       <c r="D23">
-        <v>0.4288491112341859</v>
+        <v>0.2508580811546466</v>
       </c>
       <c r="E23">
-        <v>0.110044197632206</v>
+        <v>0.03783402075507514</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.223639661842384</v>
+        <v>2.987551330074666</v>
       </c>
       <c r="H23">
-        <v>2.408393437983023</v>
+        <v>1.634781640837531</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04451986093283722</v>
+        <v>0.07172542555592187</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4962008682239372</v>
+        <v>0.3956226579687865</v>
       </c>
       <c r="M23">
-        <v>0.7534124660916603</v>
+        <v>1.004439899017292</v>
       </c>
       <c r="N23">
-        <v>2.639465339757898</v>
+        <v>1.094215334418301</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.373875788919065</v>
+        <v>4.872787409394903</v>
       </c>
       <c r="C24">
-        <v>0.1939609160696421</v>
+        <v>0.6674904405084874</v>
       </c>
       <c r="D24">
-        <v>0.4274468803983211</v>
+        <v>0.230963445952213</v>
       </c>
       <c r="E24">
-        <v>0.1106652303720304</v>
+        <v>0.03863510780939583</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.177694912408924</v>
+        <v>2.665101053056986</v>
       </c>
       <c r="H24">
-        <v>2.397814848574825</v>
+        <v>1.499960765074519</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04194570689613997</v>
+        <v>0.06311920342759336</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.48938618508204</v>
+        <v>0.3507617204927982</v>
       </c>
       <c r="M24">
-        <v>0.7246322617374474</v>
+        <v>0.8635467796553797</v>
       </c>
       <c r="N24">
-        <v>2.674322831056521</v>
+        <v>1.180197642503515</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.185496178490212</v>
+        <v>4.007964792265341</v>
       </c>
       <c r="C25">
-        <v>0.1602380961002723</v>
+        <v>0.5402193337840799</v>
       </c>
       <c r="D25">
-        <v>0.4265343499005638</v>
+        <v>0.2111506589698848</v>
       </c>
       <c r="E25">
-        <v>0.1113987639712448</v>
+        <v>0.03959092183466684</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.134507414773935</v>
+        <v>2.346293161440826</v>
       </c>
       <c r="H25">
-        <v>2.390445097700621</v>
+        <v>1.369227050543827</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03912346538349709</v>
+        <v>0.05406984165266593</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4828117189441343</v>
+        <v>0.3049312936571766</v>
       </c>
       <c r="M25">
-        <v>0.694935173350288</v>
+        <v>0.7177784870962327</v>
       </c>
       <c r="N25">
-        <v>2.714985042102938</v>
+        <v>1.282145642518124</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.393390593607933</v>
+        <v>1.995327149419097</v>
       </c>
       <c r="C2">
-        <v>0.4488938921387557</v>
+        <v>0.3461016287297554</v>
       </c>
       <c r="D2">
-        <v>0.1977345398564125</v>
+        <v>0.2490493916333349</v>
       </c>
       <c r="E2">
-        <v>0.04037020683399994</v>
+        <v>0.06629465518869893</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.131358249006695</v>
+        <v>0.5129651014796934</v>
       </c>
       <c r="H2">
-        <v>1.283215359370814</v>
+        <v>0.004833612149418465</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002650563359724245</v>
       </c>
       <c r="J2">
-        <v>0.04753370698458781</v>
+        <v>0.4037990155420061</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3994336932774232</v>
       </c>
       <c r="L2">
-        <v>0.2729396397213293</v>
+        <v>0.05445863086301372</v>
       </c>
       <c r="M2">
-        <v>0.6145341585786923</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.364170874130338</v>
+        <v>0.2517401260623728</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3997978626441778</v>
+      </c>
+      <c r="P2">
+        <v>0.9492270224663244</v>
+      </c>
+      <c r="Q2">
+        <v>1.880224972584472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.98764364681125</v>
+        <v>1.740686016946569</v>
       </c>
       <c r="C3">
-        <v>0.3880490713416691</v>
+        <v>0.3121777559883299</v>
       </c>
       <c r="D3">
-        <v>0.1892682933027032</v>
+        <v>0.235783825289829</v>
       </c>
       <c r="E3">
-        <v>0.04094405806969759</v>
+        <v>0.06493614607782661</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.99584753202663</v>
+        <v>0.4873741138266325</v>
       </c>
       <c r="H3">
-        <v>1.230295631924179</v>
+        <v>0.006772107663733679</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003902789937686002</v>
       </c>
       <c r="J3">
-        <v>0.0431517332646969</v>
+        <v>0.395921527376359</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3977552323352427</v>
       </c>
       <c r="L3">
-        <v>0.2521602564185059</v>
+        <v>0.0504902257087867</v>
       </c>
       <c r="M3">
-        <v>0.5465750493127999</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.423697568861002</v>
+        <v>0.2284333786337029</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3510481628081124</v>
+      </c>
+      <c r="P3">
+        <v>0.9636079005259006</v>
+      </c>
+      <c r="Q3">
+        <v>1.809183339583029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.742920735563473</v>
+        <v>1.583756152809656</v>
       </c>
       <c r="C4">
-        <v>0.3510793922269784</v>
+        <v>0.2914200217800271</v>
       </c>
       <c r="D4">
-        <v>0.1843480461717135</v>
+        <v>0.2277575553396929</v>
       </c>
       <c r="E4">
-        <v>0.04131856140784862</v>
+        <v>0.06408720587356065</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.917010442506637</v>
+        <v>0.4720655121132253</v>
       </c>
       <c r="H4">
-        <v>1.200154808898617</v>
+        <v>0.008176666480453926</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00487911260878704</v>
       </c>
       <c r="J4">
-        <v>0.04047556239053307</v>
+        <v>0.3913668776130663</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3969844130044962</v>
       </c>
       <c r="L4">
-        <v>0.2397905085620309</v>
+        <v>0.04803946304440565</v>
       </c>
       <c r="M4">
-        <v>0.5056832884025937</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.462071342521732</v>
+        <v>0.2141939844489258</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3210755907526064</v>
+      </c>
+      <c r="P4">
+        <v>0.9731228674644612</v>
+      </c>
+      <c r="Q4">
+        <v>1.767002667821799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.644181570280125</v>
+        <v>1.51874810133782</v>
       </c>
       <c r="C5">
-        <v>0.3360947557875988</v>
+        <v>0.2833652174026327</v>
       </c>
       <c r="D5">
-        <v>0.1824087685156073</v>
+        <v>0.2244660675846148</v>
       </c>
       <c r="E5">
-        <v>0.04147669173889357</v>
+        <v>0.06371987225717746</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.885894949342372</v>
+        <v>0.4655143911682345</v>
       </c>
       <c r="H5">
-        <v>1.188423334714486</v>
+        <v>0.00880455852410969</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005405180951992161</v>
       </c>
       <c r="J5">
-        <v>0.03938739383411871</v>
+        <v>0.3893701641701881</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3964211144010754</v>
       </c>
       <c r="L5">
-        <v>0.2348399893365141</v>
+        <v>0.04704726125775593</v>
       </c>
       <c r="M5">
-        <v>0.4892085885271626</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.478151416523659</v>
+        <v>0.2085257538255973</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.308785037105018</v>
+      </c>
+      <c r="P5">
+        <v>0.977388999818416</v>
+      </c>
+      <c r="Q5">
+        <v>1.748853801061443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.627842286904695</v>
+        <v>1.506831598261073</v>
       </c>
       <c r="C6">
-        <v>0.333610975273217</v>
+        <v>0.2825062025338809</v>
       </c>
       <c r="D6">
-        <v>0.1820906091768677</v>
+        <v>0.2238608222686054</v>
       </c>
       <c r="E6">
-        <v>0.04150328089319766</v>
+        <v>0.06363725210419524</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.880786909204744</v>
+        <v>0.4639319729232625</v>
       </c>
       <c r="H6">
-        <v>1.186507501235894</v>
+        <v>0.008916391649091915</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005598232526556224</v>
       </c>
       <c r="J6">
-        <v>0.03920681489776712</v>
+        <v>0.3887867259645859</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3959496399752567</v>
       </c>
       <c r="L6">
-        <v>0.2340232011892098</v>
+        <v>0.04689558232991509</v>
       </c>
       <c r="M6">
-        <v>0.4864838091581163</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.480847772828433</v>
+        <v>0.2077303334923997</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3066637483090275</v>
+      </c>
+      <c r="P6">
+        <v>0.9783792942439291</v>
+      </c>
+      <c r="Q6">
+        <v>1.744263921921416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.741585259649412</v>
+        <v>1.57983013158838</v>
       </c>
       <c r="C7">
-        <v>0.3508769985817821</v>
+        <v>0.2926199211651408</v>
       </c>
       <c r="D7">
-        <v>0.1843216313919527</v>
+        <v>0.227548331414468</v>
       </c>
       <c r="E7">
-        <v>0.04132067173775766</v>
+        <v>0.06402415939512451</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.916586823491912</v>
+        <v>0.470609888270701</v>
       </c>
       <c r="H7">
-        <v>1.199994413527889</v>
+        <v>0.008196420190838133</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005150369117124853</v>
       </c>
       <c r="J7">
-        <v>0.04046087882578675</v>
+        <v>0.3906411212865066</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.395935079289444</v>
       </c>
       <c r="L7">
-        <v>0.2397233882307859</v>
+        <v>0.04806293461987288</v>
       </c>
       <c r="M7">
-        <v>0.5054603661235788</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.462286433081417</v>
+        <v>0.2145138566748983</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.320691322865045</v>
+      </c>
+      <c r="P7">
+        <v>0.9739365302393921</v>
+      </c>
+      <c r="Q7">
+        <v>1.762395684350935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.25249845849919</v>
+        <v>1.903567006672802</v>
       </c>
       <c r="C8">
-        <v>0.4278230671189931</v>
+        <v>0.3361393666264121</v>
       </c>
       <c r="D8">
-        <v>0.1947550609889817</v>
+        <v>0.2442328904079574</v>
       </c>
       <c r="E8">
-        <v>0.04056343800733631</v>
+        <v>0.06575360925616192</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.083673312418938</v>
+        <v>0.5022444499252856</v>
       </c>
       <c r="H8">
-        <v>1.264455188232006</v>
+        <v>0.0054679843736406</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003354641896085475</v>
       </c>
       <c r="J8">
-        <v>0.04601904948970059</v>
+        <v>0.4001012641659543</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3974279693272926</v>
       </c>
       <c r="L8">
-        <v>0.2656894710357705</v>
+        <v>0.053142987039422</v>
       </c>
       <c r="M8">
-        <v>0.5909152635378945</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.384306896143819</v>
+        <v>0.2442165257222086</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3827037424264006</v>
+      </c>
+      <c r="P8">
+        <v>0.9551053551990307</v>
+      </c>
+      <c r="Q8">
+        <v>1.849654688311745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.295389089251955</v>
+        <v>2.539535879824598</v>
       </c>
       <c r="C9">
-        <v>0.5826568849111027</v>
+        <v>0.4198335510984066</v>
       </c>
       <c r="D9">
-        <v>0.2176274462273398</v>
+        <v>0.278247582563651</v>
       </c>
       <c r="E9">
-        <v>0.03925701855203689</v>
+        <v>0.06913687657336265</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.450290418697449</v>
+        <v>0.5701925924602591</v>
       </c>
       <c r="H9">
-        <v>1.411525682734123</v>
+        <v>0.001899766787439638</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00117444524139998</v>
       </c>
       <c r="J9">
-        <v>0.05709385925958799</v>
+        <v>0.4222474228239719</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4043703582780509</v>
       </c>
       <c r="L9">
-        <v>0.3200693335081866</v>
+        <v>0.06296277319520271</v>
       </c>
       <c r="M9">
-        <v>0.7661688126868924</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.246664212445268</v>
+        <v>0.3023909267569707</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5044580440651387</v>
+      </c>
+      <c r="P9">
+        <v>0.9223536503649044</v>
+      </c>
+      <c r="Q9">
+        <v>2.040762042888787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.095940490824603</v>
+        <v>2.992702353561754</v>
       </c>
       <c r="C10">
-        <v>0.7001489319967789</v>
+        <v>0.484619116886563</v>
       </c>
       <c r="D10">
-        <v>0.2362210691851772</v>
+        <v>0.2997232142425048</v>
       </c>
       <c r="E10">
-        <v>0.03841027793008811</v>
+        <v>0.07037577406635709</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.750071336050013</v>
+        <v>0.6149566945033342</v>
       </c>
       <c r="H10">
-        <v>1.535273787438683</v>
+        <v>0.0007500260295154604</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.000901872881834187</v>
       </c>
       <c r="J10">
-        <v>0.06543285846688107</v>
+        <v>0.4362890394122587</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4063276156583981</v>
       </c>
       <c r="L10">
-        <v>0.3627133769271893</v>
+        <v>0.07177855786039089</v>
       </c>
       <c r="M10">
-        <v>0.9012348644682433</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.156085956343915</v>
+        <v>0.3364509775005189</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5872416663431963</v>
+      </c>
+      <c r="P10">
+        <v>0.9068524744032942</v>
+      </c>
+      <c r="Q10">
+        <v>2.165524302382295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.469965439652015</v>
+        <v>3.103796117758634</v>
       </c>
       <c r="C11">
-        <v>0.7547510080129598</v>
+        <v>0.5341949469402891</v>
       </c>
       <c r="D11">
-        <v>0.2451489378805434</v>
+        <v>0.27428588578816</v>
       </c>
       <c r="E11">
-        <v>0.03805074938447994</v>
+        <v>0.06288524096564529</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.894755850989128</v>
+        <v>0.5740001622754534</v>
       </c>
       <c r="H11">
-        <v>1.595767395993164</v>
+        <v>0.01927275932149186</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001433124346491788</v>
       </c>
       <c r="J11">
-        <v>0.06929490414595563</v>
+        <v>0.4120180671553584</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3714337191479835</v>
       </c>
       <c r="L11">
-        <v>0.3828453752052638</v>
+        <v>0.09340637991202883</v>
       </c>
       <c r="M11">
-        <v>0.9644630705523838</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.117486503493204</v>
+        <v>0.2755602634448877</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5681973148754196</v>
+      </c>
+      <c r="P11">
+        <v>0.9450577112103105</v>
+      </c>
+      <c r="Q11">
+        <v>2.028070346616545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.613240402382814</v>
+        <v>3.105090580790659</v>
       </c>
       <c r="C12">
-        <v>0.775625833139344</v>
+        <v>0.5610720643853142</v>
       </c>
       <c r="D12">
-        <v>0.2486048274510608</v>
+        <v>0.2494407816068076</v>
       </c>
       <c r="E12">
-        <v>0.03791840612034258</v>
+        <v>0.05921951998667407</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.950901307894952</v>
+        <v>0.5326451955584162</v>
       </c>
       <c r="H12">
-        <v>1.619353926606209</v>
+        <v>0.05800225055094188</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001436481591333028</v>
       </c>
       <c r="J12">
-        <v>0.07076956138039137</v>
+        <v>0.3897569969108616</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3442064306459152</v>
       </c>
       <c r="L12">
-        <v>0.3905882385404311</v>
+        <v>0.1149566699546085</v>
       </c>
       <c r="M12">
-        <v>0.9887019250935651</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.103275145438666</v>
+        <v>0.2222993876641937</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5351884053589018</v>
+      </c>
+      <c r="P12">
+        <v>0.9845993972653559</v>
+      </c>
+      <c r="Q12">
+        <v>1.893858985579726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.582306792843838</v>
+        <v>3.01707737787666</v>
       </c>
       <c r="C13">
-        <v>0.7711206939644057</v>
+        <v>0.5738480447330119</v>
       </c>
       <c r="D13">
-        <v>0.2478570693535715</v>
+        <v>0.2234346100858602</v>
       </c>
       <c r="E13">
-        <v>0.03794673752960875</v>
+        <v>0.0581357551896815</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.938746264048405</v>
+        <v>0.4864156525529921</v>
       </c>
       <c r="H13">
-        <v>1.614242656914854</v>
+        <v>0.1139063546420971</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001384483806003978</v>
       </c>
       <c r="J13">
-        <v>0.07045138548075869</v>
+        <v>0.3666166595328804</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3196160279563145</v>
       </c>
       <c r="L13">
-        <v>0.3889151283102592</v>
+        <v>0.1374409734809632</v>
       </c>
       <c r="M13">
-        <v>0.9834678323462569</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.106317252146994</v>
+        <v>0.17270657311267</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4894197204521689</v>
+      </c>
+      <c r="P13">
+        <v>1.027670114186634</v>
+      </c>
+      <c r="Q13">
+        <v>1.747382819586051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.481718515466923</v>
+        <v>2.914401580437129</v>
       </c>
       <c r="C14">
-        <v>0.7564642210536192</v>
+        <v>0.5768462907690832</v>
       </c>
       <c r="D14">
-        <v>0.2454317042639218</v>
+        <v>0.2049575604878697</v>
       </c>
       <c r="E14">
-        <v>0.03803978451574874</v>
+        <v>0.05889366068338298</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.899346789391927</v>
+        <v>0.4518787711504189</v>
       </c>
       <c r="H14">
-        <v>1.597693805163686</v>
+        <v>0.1634122953856547</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001424879426997983</v>
       </c>
       <c r="J14">
-        <v>0.06941596653071613</v>
+        <v>0.3500036695525637</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3036290995834108</v>
       </c>
       <c r="L14">
-        <v>0.3834799083497415</v>
+        <v>0.1541129693195344</v>
       </c>
       <c r="M14">
-        <v>0.9664510497012486</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.116309010983294</v>
+        <v>0.1408372750131619</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4518993140145753</v>
+      </c>
+      <c r="P14">
+        <v>1.060001287959764</v>
+      </c>
+      <c r="Q14">
+        <v>1.639326055411146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.420325939323789</v>
+        <v>2.869498901069051</v>
       </c>
       <c r="C15">
-        <v>0.7475135456114685</v>
+        <v>0.5750309410986745</v>
       </c>
       <c r="D15">
-        <v>0.2439561185319121</v>
+        <v>0.2000820647603803</v>
       </c>
       <c r="E15">
-        <v>0.03809727728427559</v>
+        <v>0.05925231979972967</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.875395261877941</v>
+        <v>0.4419745770180867</v>
       </c>
       <c r="H15">
-        <v>1.587647952548281</v>
+        <v>0.1760028287752959</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001550660484777922</v>
       </c>
       <c r="J15">
-        <v>0.06878340324963617</v>
+        <v>0.3455543778100889</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2998920359202941</v>
       </c>
       <c r="L15">
-        <v>0.380166658625555</v>
+        <v>0.1576808725796752</v>
       </c>
       <c r="M15">
-        <v>0.956067523062643</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.122483029602932</v>
+        <v>0.1332416702765258</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4400254639633516</v>
+      </c>
+      <c r="P15">
+        <v>1.068317570139257</v>
+      </c>
+      <c r="Q15">
+        <v>1.608979743803815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.071713781900371</v>
+        <v>2.692416080947226</v>
       </c>
       <c r="C16">
-        <v>0.6966064491778923</v>
+        <v>0.5447024318410456</v>
       </c>
       <c r="D16">
-        <v>0.2356476883268641</v>
+        <v>0.1965069270876398</v>
       </c>
       <c r="E16">
-        <v>0.03843429956041611</v>
+        <v>0.05886008249095198</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.740796475419046</v>
+        <v>0.431678403968661</v>
       </c>
       <c r="H16">
-        <v>1.531411104610498</v>
+        <v>0.1637385762712995</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001762664839108474</v>
       </c>
       <c r="J16">
-        <v>0.06518203672241896</v>
+        <v>0.3438546540636196</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3034596097339879</v>
       </c>
       <c r="L16">
-        <v>0.361413604830787</v>
+        <v>0.1485564134112565</v>
       </c>
       <c r="M16">
-        <v>0.8971419097226061</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.158663489541588</v>
+        <v>0.1301494008013648</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4148269600412249</v>
+      </c>
+      <c r="P16">
+        <v>1.063436688065153</v>
+      </c>
+      <c r="Q16">
+        <v>1.583397808037944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.860525076835586</v>
+        <v>2.611014274985962</v>
       </c>
       <c r="C17">
-        <v>0.6656939360924241</v>
+        <v>0.5199915281251606</v>
       </c>
       <c r="D17">
-        <v>0.2306761172644798</v>
+        <v>0.2034163322282438</v>
       </c>
       <c r="E17">
-        <v>0.03864769890189512</v>
+        <v>0.05791878343524326</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.66046226099121</v>
+        <v>0.4419895441732962</v>
       </c>
       <c r="H17">
-        <v>1.498037873938586</v>
+        <v>0.1262602970075903</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001943428394572955</v>
       </c>
       <c r="J17">
-        <v>0.06299184439515315</v>
+        <v>0.3513472714445669</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3145699787447285</v>
       </c>
       <c r="L17">
-        <v>0.3501063395749355</v>
+        <v>0.1324045446530064</v>
       </c>
       <c r="M17">
-        <v>0.8614766215382232</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.18154699751846</v>
+        <v>0.1439773307993732</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4151930960354306</v>
+      </c>
+      <c r="P17">
+        <v>1.04279051622089</v>
+      </c>
+      <c r="Q17">
+        <v>1.620824684273117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.739967200467618</v>
+        <v>2.604570800701651</v>
       </c>
       <c r="C18">
-        <v>0.6480203796337776</v>
+        <v>0.4963237921565167</v>
       </c>
       <c r="D18">
-        <v>0.2278602932854739</v>
+        <v>0.2208072510113652</v>
       </c>
       <c r="E18">
-        <v>0.03877284800110425</v>
+        <v>0.05778306840520464</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.615027842836582</v>
+        <v>0.4726015917520101</v>
       </c>
       <c r="H18">
-        <v>1.479232805221187</v>
+        <v>0.07351226681475254</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00176072182216469</v>
       </c>
       <c r="J18">
-        <v>0.06173840488555982</v>
+        <v>0.3682341525457389</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3347073024783782</v>
       </c>
       <c r="L18">
-        <v>0.3436707695168053</v>
+        <v>0.1106492504371985</v>
       </c>
       <c r="M18">
-        <v>0.8411284105706827</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.194952130236899</v>
+        <v>0.1768787169004611</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4380755681872799</v>
+      </c>
+      <c r="P18">
+        <v>1.007402565296488</v>
+      </c>
+      <c r="Q18">
+        <v>1.721013471332441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.699298681168955</v>
+        <v>2.65265607339137</v>
       </c>
       <c r="C19">
-        <v>0.6420537918459672</v>
+        <v>0.4784450091625843</v>
       </c>
       <c r="D19">
-        <v>0.2269141909691257</v>
+        <v>0.2461288815958937</v>
       </c>
       <c r="E19">
-        <v>0.0388156316285615</v>
+        <v>0.06031694467396775</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.599772468869816</v>
+        <v>0.5161062256138251</v>
       </c>
       <c r="H19">
-        <v>1.472930633039311</v>
+        <v>0.02804934406751158</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001832423446548326</v>
       </c>
       <c r="J19">
-        <v>0.06131502801397204</v>
+        <v>0.3907105975679031</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3601830907764665</v>
       </c>
       <c r="L19">
-        <v>0.3415030899052169</v>
+        <v>0.08956812543210191</v>
       </c>
       <c r="M19">
-        <v>0.8342661737172321</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.199531760147195</v>
+        <v>0.2282283536553678</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4777868760589499</v>
+      </c>
+      <c r="P19">
+        <v>0.9683896142116879</v>
+      </c>
+      <c r="Q19">
+        <v>1.860288571570948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.882910523801343</v>
+        <v>2.863654455640585</v>
       </c>
       <c r="C20">
-        <v>0.6689733825472786</v>
+        <v>0.4718863017058368</v>
       </c>
       <c r="D20">
-        <v>0.2312007753917271</v>
+        <v>0.2933588582693574</v>
       </c>
       <c r="E20">
-        <v>0.03862473224890905</v>
+        <v>0.06983416044395607</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.668933001419759</v>
+        <v>0.5984846651409441</v>
       </c>
       <c r="H20">
-        <v>1.501549599305605</v>
+        <v>0.0009633214054720618</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001683441442240863</v>
       </c>
       <c r="J20">
-        <v>0.0632243260751828</v>
+        <v>0.430193466982459</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4023632685443808</v>
       </c>
       <c r="L20">
-        <v>0.351302876799906</v>
+        <v>0.06964778262184623</v>
       </c>
       <c r="M20">
-        <v>0.8652558547670779</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.179085633384396</v>
+        <v>0.3283371722297375</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5645380803342377</v>
+      </c>
+      <c r="P20">
+        <v>0.9136752105045787</v>
+      </c>
+      <c r="Q20">
+        <v>2.117722205063984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.511217310166501</v>
+        <v>3.228439737670499</v>
       </c>
       <c r="C21">
-        <v>0.7607635261854284</v>
+        <v>0.5179862607007237</v>
       </c>
       <c r="D21">
-        <v>0.2461419897213091</v>
+        <v>0.316584204526265</v>
       </c>
       <c r="E21">
-        <v>0.03801235018618776</v>
+        <v>0.07260834689781603</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.910881169390365</v>
+        <v>0.6454174204848755</v>
       </c>
       <c r="H21">
-        <v>1.602535535005757</v>
+        <v>0.0001559635310810492</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001709362104790557</v>
       </c>
       <c r="J21">
-        <v>0.06971974351104038</v>
+        <v>0.4473716103385357</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4114043319539036</v>
       </c>
       <c r="L21">
-        <v>0.3850730068642463</v>
+        <v>0.07398387479229029</v>
       </c>
       <c r="M21">
-        <v>0.9714409324401103</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.113362921394064</v>
+        <v>0.3689310753544106</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6382807423288384</v>
+      </c>
+      <c r="P21">
+        <v>0.8957791372155057</v>
+      </c>
+      <c r="Q21">
+        <v>2.253531641671003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.931534441467818</v>
+        <v>3.465485875289119</v>
       </c>
       <c r="C22">
-        <v>0.8219269952402897</v>
+        <v>0.54753561190455</v>
       </c>
       <c r="D22">
-        <v>0.2563488650386887</v>
+        <v>0.3300285199705257</v>
       </c>
       <c r="E22">
-        <v>0.03763435074902466</v>
+        <v>0.07389354399007431</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.077005167516518</v>
+        <v>0.6748996189473502</v>
       </c>
       <c r="H22">
-        <v>1.672534657738652</v>
+        <v>5.626934528546457E-06</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001678303289683214</v>
       </c>
       <c r="J22">
-        <v>0.07403719602439907</v>
+        <v>0.4580664355676021</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4168672924396049</v>
       </c>
       <c r="L22">
-        <v>0.4078469035985961</v>
+        <v>0.07758247478707503</v>
       </c>
       <c r="M22">
-        <v>1.042584214246858</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.072789628892743</v>
+        <v>0.3902769420309795</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6834945274240596</v>
+      </c>
+      <c r="P22">
+        <v>0.8858588130369967</v>
+      </c>
+      <c r="Q22">
+        <v>2.338643287660773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.706236200650153</v>
+        <v>3.342730283759522</v>
       </c>
       <c r="C23">
-        <v>0.7891638006958601</v>
+        <v>0.5301292310451515</v>
       </c>
       <c r="D23">
-        <v>0.2508580811546466</v>
+        <v>0.3230299761006137</v>
       </c>
       <c r="E23">
-        <v>0.03783402075507514</v>
+        <v>0.07327256920630276</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.987551330074666</v>
+        <v>0.6607202663008422</v>
       </c>
       <c r="H23">
-        <v>1.634781640837531</v>
+        <v>5.917961922641268E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001369965535091389</v>
       </c>
       <c r="J23">
-        <v>0.07172542555592187</v>
+        <v>0.4531392510706667</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4151234084370614</v>
       </c>
       <c r="L23">
-        <v>0.3956226579687865</v>
+        <v>0.0756115572955558</v>
       </c>
       <c r="M23">
-        <v>1.004439899017292</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.094215334418301</v>
+        <v>0.378390264669207</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6596299706057778</v>
+      </c>
+      <c r="P23">
+        <v>0.8899734890081064</v>
+      </c>
+      <c r="Q23">
+        <v>2.298151382290001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.872787409394903</v>
+        <v>2.871413942082313</v>
       </c>
       <c r="C24">
-        <v>0.6674904405084874</v>
+        <v>0.4671184672293691</v>
       </c>
       <c r="D24">
-        <v>0.230963445952213</v>
+        <v>0.2965455215017272</v>
       </c>
       <c r="E24">
-        <v>0.03863510780939583</v>
+        <v>0.07080915984266056</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.665101053056986</v>
+        <v>0.6057025751276086</v>
       </c>
       <c r="H24">
-        <v>1.499960765074519</v>
+        <v>0.0008052033601282371</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001186524997795146</v>
       </c>
       <c r="J24">
-        <v>0.06311920342759336</v>
+        <v>0.4339208970374244</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4073045343605592</v>
       </c>
       <c r="L24">
-        <v>0.3507617204927982</v>
+        <v>0.06826445253192048</v>
       </c>
       <c r="M24">
-        <v>0.8635467796553797</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.180197642503515</v>
+        <v>0.334383189693682</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5688903041480415</v>
+      </c>
+      <c r="P24">
+        <v>0.9088621524991467</v>
+      </c>
+      <c r="Q24">
+        <v>2.140824140546442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.007964792265341</v>
+        <v>2.362290171865595</v>
       </c>
       <c r="C25">
-        <v>0.5402193337840799</v>
+        <v>0.3995216868653415</v>
       </c>
       <c r="D25">
-        <v>0.2111506589698848</v>
+        <v>0.2686338855118464</v>
       </c>
       <c r="E25">
-        <v>0.03959092183466684</v>
+        <v>0.06813100488235957</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.346293161440826</v>
+        <v>0.5489302817963591</v>
       </c>
       <c r="H25">
-        <v>1.369227050543827</v>
+        <v>0.002668974099139465</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002006828006859251</v>
       </c>
       <c r="J25">
-        <v>0.05406984165266593</v>
+        <v>0.414734419203171</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4003857780713069</v>
       </c>
       <c r="L25">
-        <v>0.3049312936571766</v>
+        <v>0.06037954805984569</v>
       </c>
       <c r="M25">
-        <v>0.7177784870962327</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.282145642518124</v>
+        <v>0.2873014494510926</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.4711299465323222</v>
+      </c>
+      <c r="P25">
+        <v>0.9321426612773251</v>
+      </c>
+      <c r="Q25">
+        <v>1.979776481636321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.995327149419097</v>
+        <v>1.934316750795659</v>
       </c>
       <c r="C2">
-        <v>0.3461016287297554</v>
+        <v>0.3582037714585056</v>
       </c>
       <c r="D2">
-        <v>0.2490493916333349</v>
+        <v>0.2450344394168553</v>
       </c>
       <c r="E2">
-        <v>0.06629465518869893</v>
+        <v>0.06448473552318035</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5129651014796934</v>
+        <v>0.4598713308105715</v>
       </c>
       <c r="H2">
-        <v>0.004833612149418465</v>
+        <v>0.004147303382905754</v>
       </c>
       <c r="I2">
-        <v>0.002650563359724245</v>
+        <v>0.001988049620798016</v>
       </c>
       <c r="J2">
-        <v>0.4037990155420061</v>
+        <v>0.4147846932264372</v>
       </c>
       <c r="K2">
-        <v>0.3994336932774232</v>
+        <v>0.3639607566177645</v>
       </c>
       <c r="L2">
-        <v>0.05445863086301372</v>
+        <v>0.175244913674856</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1033907148829574</v>
       </c>
       <c r="N2">
-        <v>0.2517401260623728</v>
+        <v>0.05459152823997471</v>
       </c>
       <c r="O2">
-        <v>0.3997978626441778</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9492270224663244</v>
+        <v>0.265976089263134</v>
       </c>
       <c r="Q2">
-        <v>1.880224972584472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3954148037486931</v>
+      </c>
+      <c r="R2">
+        <v>0.9463297533012636</v>
+      </c>
+      <c r="S2">
+        <v>1.76251101406973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.740686016946569</v>
+        <v>1.691567438150827</v>
       </c>
       <c r="C3">
-        <v>0.3121777559883299</v>
+        <v>0.3183057613642575</v>
       </c>
       <c r="D3">
-        <v>0.235783825289829</v>
+        <v>0.2324381858767168</v>
       </c>
       <c r="E3">
-        <v>0.06493614607782661</v>
+        <v>0.06339439863003893</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4873741138266325</v>
+        <v>0.4393219504856916</v>
       </c>
       <c r="H3">
-        <v>0.006772107663733679</v>
+        <v>0.005827436627379112</v>
       </c>
       <c r="I3">
-        <v>0.003902789937686002</v>
+        <v>0.00289632874444079</v>
       </c>
       <c r="J3">
-        <v>0.395921527376359</v>
+        <v>0.4057393159717009</v>
       </c>
       <c r="K3">
-        <v>0.3977552323352427</v>
+        <v>0.3644041071476671</v>
       </c>
       <c r="L3">
-        <v>0.0504902257087867</v>
+        <v>0.1794007805392503</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1009899837082902</v>
       </c>
       <c r="N3">
-        <v>0.2284333786337029</v>
+        <v>0.05053016975856295</v>
       </c>
       <c r="O3">
-        <v>0.3510481628081124</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9636079005259006</v>
+        <v>0.2414481257012397</v>
       </c>
       <c r="Q3">
-        <v>1.809183339583029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3474528893235345</v>
+      </c>
+      <c r="R3">
+        <v>0.9542884002741872</v>
+      </c>
+      <c r="S3">
+        <v>1.702969662548043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.583756152809656</v>
+        <v>1.541675969513875</v>
       </c>
       <c r="C4">
-        <v>0.2914200217800271</v>
+        <v>0.2939871943344201</v>
       </c>
       <c r="D4">
-        <v>0.2277575553396929</v>
+        <v>0.2248165862455522</v>
       </c>
       <c r="E4">
-        <v>0.06408720587356065</v>
+        <v>0.06271063501608243</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4720655121132253</v>
+        <v>0.4270982806770292</v>
       </c>
       <c r="H4">
-        <v>0.008176666480453926</v>
+        <v>0.007046597778147395</v>
       </c>
       <c r="I4">
-        <v>0.00487911260878704</v>
+        <v>0.003629611009732248</v>
       </c>
       <c r="J4">
-        <v>0.3913668776130663</v>
+        <v>0.4002597884870411</v>
       </c>
       <c r="K4">
-        <v>0.3969844130044962</v>
+        <v>0.3648486398848902</v>
       </c>
       <c r="L4">
-        <v>0.04803946304440565</v>
+        <v>0.1820138748484901</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1000924922808704</v>
       </c>
       <c r="N4">
-        <v>0.2141939844489258</v>
+        <v>0.0480257534299362</v>
       </c>
       <c r="O4">
-        <v>0.3210755907526064</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9731228674644612</v>
+        <v>0.2264923201607445</v>
       </c>
       <c r="Q4">
-        <v>1.767002667821799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3179365309171303</v>
+      </c>
+      <c r="R4">
+        <v>0.9599309975374979</v>
+      </c>
+      <c r="S4">
+        <v>1.667437985291912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.51874810133782</v>
+        <v>1.479479116049134</v>
       </c>
       <c r="C5">
-        <v>0.2833652174026327</v>
+        <v>0.2845336809235022</v>
       </c>
       <c r="D5">
-        <v>0.2244660675846148</v>
+        <v>0.2216888866171303</v>
       </c>
       <c r="E5">
-        <v>0.06371987225717746</v>
+        <v>0.06241140570674553</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4655143911682345</v>
+        <v>0.4218168774242628</v>
       </c>
       <c r="H5">
-        <v>0.00880455852410969</v>
+        <v>0.007592133097761189</v>
       </c>
       <c r="I5">
-        <v>0.005405180951992161</v>
+        <v>0.004061083403614774</v>
       </c>
       <c r="J5">
-        <v>0.3893701641701881</v>
+        <v>0.3978318161864962</v>
       </c>
       <c r="K5">
-        <v>0.3964211144010754</v>
+        <v>0.3647756983161798</v>
       </c>
       <c r="L5">
-        <v>0.04704726125775593</v>
+        <v>0.1829453020540122</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09979650457658096</v>
       </c>
       <c r="N5">
-        <v>0.2085257538255973</v>
+        <v>0.0470136547243758</v>
       </c>
       <c r="O5">
-        <v>0.308785037105018</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.977388999818416</v>
+        <v>0.2205433723057055</v>
       </c>
       <c r="Q5">
-        <v>1.748853801061443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3058252874117002</v>
+      </c>
+      <c r="R5">
+        <v>0.9626664026700595</v>
+      </c>
+      <c r="S5">
+        <v>1.651930212542339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.506831598261073</v>
+        <v>1.468034436327201</v>
       </c>
       <c r="C6">
-        <v>0.2825062025338809</v>
+        <v>0.2834755626323044</v>
       </c>
       <c r="D6">
-        <v>0.2238608222686054</v>
+        <v>0.2211111869705604</v>
       </c>
       <c r="E6">
-        <v>0.06363725210419524</v>
+        <v>0.06234088328630349</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4639319729232625</v>
+        <v>0.4204642908481304</v>
       </c>
       <c r="H6">
-        <v>0.008916391649091915</v>
+        <v>0.0076894716511198</v>
       </c>
       <c r="I6">
-        <v>0.005598232526556224</v>
+        <v>0.004254289410289047</v>
       </c>
       <c r="J6">
-        <v>0.3887867259645859</v>
+        <v>0.3971694610115506</v>
       </c>
       <c r="K6">
-        <v>0.3959496399752567</v>
+        <v>0.3644048229047137</v>
       </c>
       <c r="L6">
-        <v>0.04689558232991509</v>
+        <v>0.1829197439554697</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09966471249019015</v>
       </c>
       <c r="N6">
-        <v>0.2077303334923997</v>
+        <v>0.04686000499803633</v>
       </c>
       <c r="O6">
-        <v>0.3066637483090275</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9783792942439291</v>
+        <v>0.2197052809305049</v>
       </c>
       <c r="Q6">
-        <v>1.744263921921416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.303733329348745</v>
+      </c>
+      <c r="R6">
+        <v>0.9634398225734913</v>
+      </c>
+      <c r="S6">
+        <v>1.647812784553352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.57983013158838</v>
+        <v>1.536708448705298</v>
       </c>
       <c r="C7">
-        <v>0.2926199211651408</v>
+        <v>0.294779265277981</v>
       </c>
       <c r="D7">
-        <v>0.227548331414468</v>
+        <v>0.2246627565239692</v>
       </c>
       <c r="E7">
-        <v>0.06402415939512451</v>
+        <v>0.06265967534776262</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.470609888270701</v>
+        <v>0.4287309604306131</v>
       </c>
       <c r="H7">
-        <v>0.008196420190838133</v>
+        <v>0.007070432954698475</v>
       </c>
       <c r="I7">
-        <v>0.005150369117124853</v>
+        <v>0.003946483025531577</v>
       </c>
       <c r="J7">
-        <v>0.3906411212865066</v>
+        <v>0.3949482079338438</v>
       </c>
       <c r="K7">
-        <v>0.395935079289444</v>
+        <v>0.3634925855308673</v>
       </c>
       <c r="L7">
-        <v>0.04806293461987288</v>
+        <v>0.181362263747566</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09972959844255058</v>
       </c>
       <c r="N7">
-        <v>0.2145138566748983</v>
+        <v>0.04801976868250613</v>
       </c>
       <c r="O7">
-        <v>0.320691322865045</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9739365302393921</v>
+        <v>0.2267158246732066</v>
       </c>
       <c r="Q7">
-        <v>1.762395684350935</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3173447793726396</v>
+      </c>
+      <c r="R7">
+        <v>0.9611812071693677</v>
+      </c>
+      <c r="S7">
+        <v>1.660184233126728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.903567006672802</v>
+        <v>1.843050020717499</v>
       </c>
       <c r="C8">
-        <v>0.3361393666264121</v>
+        <v>0.3446800693322984</v>
       </c>
       <c r="D8">
-        <v>0.2442328904079574</v>
+        <v>0.2406283714307449</v>
       </c>
       <c r="E8">
-        <v>0.06575360925616192</v>
+        <v>0.06407117413196239</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5022444499252856</v>
+        <v>0.4610775828947453</v>
       </c>
       <c r="H8">
-        <v>0.0054679843736406</v>
+        <v>0.004713012283681484</v>
       </c>
       <c r="I8">
-        <v>0.003354641896085475</v>
+        <v>0.002644520383027427</v>
       </c>
       <c r="J8">
-        <v>0.4001012641659543</v>
+        <v>0.3957724779760525</v>
       </c>
       <c r="K8">
-        <v>0.3974279693272926</v>
+        <v>0.3615761584331132</v>
       </c>
       <c r="L8">
-        <v>0.053142987039422</v>
+        <v>0.1755396553186479</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1016798620681758</v>
       </c>
       <c r="N8">
-        <v>0.2442165257222086</v>
+        <v>0.05313941560543611</v>
       </c>
       <c r="O8">
-        <v>0.3827037424264006</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9551053551990307</v>
+        <v>0.2576971400804666</v>
       </c>
       <c r="Q8">
-        <v>1.849654688311745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3778947142494289</v>
+      </c>
+      <c r="R8">
+        <v>0.9513935191726262</v>
+      </c>
+      <c r="S8">
+        <v>1.726905875680018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.539535879824598</v>
+        <v>2.446667571732576</v>
       </c>
       <c r="C9">
-        <v>0.4198335510984066</v>
+        <v>0.4433053458376435</v>
       </c>
       <c r="D9">
-        <v>0.278247582563651</v>
+        <v>0.2729858149377833</v>
       </c>
       <c r="E9">
-        <v>0.06913687657336265</v>
+        <v>0.0667960317812808</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5701925924602591</v>
+        <v>0.5191819868468173</v>
       </c>
       <c r="H9">
-        <v>0.001899766787439638</v>
+        <v>0.001624260972993175</v>
       </c>
       <c r="I9">
-        <v>0.00117444524139998</v>
+        <v>0.001075149354848648</v>
       </c>
       <c r="J9">
-        <v>0.4222474228239719</v>
+        <v>0.4154890586532787</v>
       </c>
       <c r="K9">
-        <v>0.4043703582780509</v>
+        <v>0.3623395585377835</v>
       </c>
       <c r="L9">
-        <v>0.06296277319520271</v>
+        <v>0.1660426004221698</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1110178788227358</v>
       </c>
       <c r="N9">
-        <v>0.3023909267569707</v>
+        <v>0.06317175646771034</v>
       </c>
       <c r="O9">
-        <v>0.5044580440651387</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9223536503649044</v>
+        <v>0.3189943585825006</v>
       </c>
       <c r="Q9">
-        <v>2.040762042888787</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4973067398961035</v>
+      </c>
+      <c r="R9">
+        <v>0.9354329270773505</v>
+      </c>
+      <c r="S9">
+        <v>1.884220780752457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.992702353561754</v>
+        <v>2.869263280460984</v>
       </c>
       <c r="C10">
-        <v>0.484619116886563</v>
+        <v>0.5163719997313194</v>
       </c>
       <c r="D10">
-        <v>0.2997232142425048</v>
+        <v>0.2936358189040078</v>
       </c>
       <c r="E10">
-        <v>0.07037577406635709</v>
+        <v>0.06770298493588278</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6149566945033342</v>
+        <v>0.5756895702063076</v>
       </c>
       <c r="H10">
-        <v>0.0007500260295154604</v>
+        <v>0.0006707346728722641</v>
       </c>
       <c r="I10">
-        <v>0.000901872881834187</v>
+        <v>0.001080803315873347</v>
       </c>
       <c r="J10">
-        <v>0.4362890394122587</v>
+        <v>0.4021112290097335</v>
       </c>
       <c r="K10">
-        <v>0.4063276156583981</v>
+        <v>0.3579940696164918</v>
       </c>
       <c r="L10">
-        <v>0.07177855786039089</v>
+        <v>0.1572783246097558</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1183918512787621</v>
       </c>
       <c r="N10">
-        <v>0.3364509775005189</v>
+        <v>0.07204604882275945</v>
       </c>
       <c r="O10">
-        <v>0.5872416663431963</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9068524744032942</v>
+        <v>0.3545190688736852</v>
       </c>
       <c r="Q10">
-        <v>2.165524302382295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5770654599616094</v>
+      </c>
+      <c r="R10">
+        <v>0.9355699492757097</v>
+      </c>
+      <c r="S10">
+        <v>1.968420584139807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.103796117758634</v>
+        <v>2.96640756855578</v>
       </c>
       <c r="C11">
-        <v>0.5341949469402891</v>
+        <v>0.5613346441789133</v>
       </c>
       <c r="D11">
-        <v>0.27428588578816</v>
+        <v>0.2692520839938766</v>
       </c>
       <c r="E11">
-        <v>0.06288524096564529</v>
+        <v>0.06080895638881545</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5740001622754534</v>
+        <v>0.5767837592286327</v>
       </c>
       <c r="H11">
-        <v>0.01927275932149186</v>
+        <v>0.01922644566088039</v>
       </c>
       <c r="I11">
-        <v>0.001433124346491788</v>
+        <v>0.001753643476081201</v>
       </c>
       <c r="J11">
-        <v>0.4120180671553584</v>
+        <v>0.3347274998992091</v>
       </c>
       <c r="K11">
-        <v>0.3714337191479835</v>
+        <v>0.3235237102954294</v>
       </c>
       <c r="L11">
-        <v>0.09340637991202883</v>
+        <v>0.1422500949293379</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1086950646082094</v>
       </c>
       <c r="N11">
-        <v>0.2755602634448877</v>
+        <v>0.09389644056320634</v>
       </c>
       <c r="O11">
-        <v>0.5681973148754196</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9450577112103105</v>
+        <v>0.2902078496794758</v>
       </c>
       <c r="Q11">
-        <v>2.028070346616545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5556991653162768</v>
+      </c>
+      <c r="R11">
+        <v>0.989179151139524</v>
+      </c>
+      <c r="S11">
+        <v>1.809783832658809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.105090580790659</v>
+        <v>2.966762996704745</v>
       </c>
       <c r="C12">
-        <v>0.5610720643853142</v>
+        <v>0.5837463883502778</v>
       </c>
       <c r="D12">
-        <v>0.2494407816068076</v>
+        <v>0.2452027244053312</v>
       </c>
       <c r="E12">
-        <v>0.05921951998667407</v>
+        <v>0.05754923237324949</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5326451955584162</v>
+        <v>0.5556001474233341</v>
       </c>
       <c r="H12">
-        <v>0.05800225055094188</v>
+        <v>0.05796154839877943</v>
       </c>
       <c r="I12">
-        <v>0.001436481591333028</v>
+        <v>0.001759014039702578</v>
       </c>
       <c r="J12">
-        <v>0.3897569969108616</v>
+        <v>0.300050075257829</v>
       </c>
       <c r="K12">
-        <v>0.3442064306459152</v>
+        <v>0.2992874259252858</v>
       </c>
       <c r="L12">
-        <v>0.1149566699546085</v>
+        <v>0.133107762709491</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1000798416282223</v>
       </c>
       <c r="N12">
-        <v>0.2222993876641937</v>
+        <v>0.1155308668654484</v>
       </c>
       <c r="O12">
-        <v>0.5351884053589018</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9845993972653559</v>
+        <v>0.2343558264453236</v>
       </c>
       <c r="Q12">
-        <v>1.893858985579726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5222450766269375</v>
+      </c>
+      <c r="R12">
+        <v>1.036611028529677</v>
+      </c>
+      <c r="S12">
+        <v>1.677226182264604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.01707737787666</v>
+        <v>2.890857963602286</v>
       </c>
       <c r="C13">
-        <v>0.5738480447330119</v>
+        <v>0.5936417266574097</v>
       </c>
       <c r="D13">
-        <v>0.2234346100858602</v>
+        <v>0.2197381807708609</v>
       </c>
       <c r="E13">
-        <v>0.0581357551896815</v>
+        <v>0.05682126051040282</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4864156525529921</v>
+        <v>0.5066523369442848</v>
       </c>
       <c r="H13">
-        <v>0.1139063546420971</v>
+        <v>0.113845694190374</v>
       </c>
       <c r="I13">
-        <v>0.001384483806003978</v>
+        <v>0.001684314253695085</v>
       </c>
       <c r="J13">
-        <v>0.3666166595328804</v>
+        <v>0.2892146884199676</v>
       </c>
       <c r="K13">
-        <v>0.3196160279563145</v>
+        <v>0.2802814683292141</v>
       </c>
       <c r="L13">
-        <v>0.1374409734809632</v>
+        <v>0.1269916348217262</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09168063580274932</v>
       </c>
       <c r="N13">
-        <v>0.17270657311267</v>
+        <v>0.1382655892835132</v>
       </c>
       <c r="O13">
-        <v>0.4894197204521689</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.027670114186634</v>
+        <v>0.1827725079130644</v>
       </c>
       <c r="Q13">
-        <v>1.747382819586051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4778663130692848</v>
+      </c>
+      <c r="R13">
+        <v>1.079861523145183</v>
+      </c>
+      <c r="S13">
+        <v>1.554887843880692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.914401580437129</v>
+        <v>2.802273512588329</v>
       </c>
       <c r="C14">
-        <v>0.5768462907690832</v>
+        <v>0.5953639500120289</v>
       </c>
       <c r="D14">
-        <v>0.2049575604878697</v>
+        <v>0.2015488163452659</v>
       </c>
       <c r="E14">
-        <v>0.05889366068338298</v>
+        <v>0.05783876732987014</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4518787711504189</v>
+        <v>0.4613861936206689</v>
       </c>
       <c r="H14">
-        <v>0.1634122953856547</v>
+        <v>0.1633217360359112</v>
       </c>
       <c r="I14">
-        <v>0.001424879426997983</v>
+        <v>0.001707339165262667</v>
       </c>
       <c r="J14">
-        <v>0.3500036695525637</v>
+        <v>0.2903995591318775</v>
       </c>
       <c r="K14">
-        <v>0.3036290995834108</v>
+        <v>0.2690614358431915</v>
       </c>
       <c r="L14">
-        <v>0.1541129693195344</v>
+        <v>0.1238145849954133</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08595998052117082</v>
       </c>
       <c r="N14">
-        <v>0.1408372750131619</v>
+        <v>0.15523649631767</v>
       </c>
       <c r="O14">
-        <v>0.4518993140145753</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.060001287959764</v>
+        <v>0.1497344442227018</v>
       </c>
       <c r="Q14">
-        <v>1.639326055411146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4420358509461337</v>
+      </c>
+      <c r="R14">
+        <v>1.108416245816059</v>
+      </c>
+      <c r="S14">
+        <v>1.472296070495389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.869498901069051</v>
+        <v>2.7632530539409</v>
       </c>
       <c r="C15">
-        <v>0.5750309410986745</v>
+        <v>0.5935765271703133</v>
       </c>
       <c r="D15">
-        <v>0.2000820647603803</v>
+        <v>0.196716781635331</v>
       </c>
       <c r="E15">
-        <v>0.05925231979972967</v>
+        <v>0.05827976787726197</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4419745770180867</v>
+        <v>0.4453227819825401</v>
       </c>
       <c r="H15">
-        <v>0.1760028287752959</v>
+        <v>0.1758960288579772</v>
       </c>
       <c r="I15">
-        <v>0.001550660484777922</v>
+        <v>0.00184236896813772</v>
       </c>
       <c r="J15">
-        <v>0.3455543778100889</v>
+        <v>0.2943468460396161</v>
       </c>
       <c r="K15">
-        <v>0.2998920359202941</v>
+        <v>0.2669002852440023</v>
       </c>
       <c r="L15">
-        <v>0.1576808725796752</v>
+        <v>0.1234025357273172</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08449573134789645</v>
       </c>
       <c r="N15">
-        <v>0.1332416702765258</v>
+        <v>0.1589496577866072</v>
       </c>
       <c r="O15">
-        <v>0.4400254639633516</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.068317570139257</v>
+        <v>0.1419159942954735</v>
       </c>
       <c r="Q15">
-        <v>1.608979743803815</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4308816993928701</v>
+      </c>
+      <c r="R15">
+        <v>1.114217937951466</v>
+      </c>
+      <c r="S15">
+        <v>1.451917875792617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.692416080947226</v>
+        <v>2.606997236426253</v>
       </c>
       <c r="C16">
-        <v>0.5447024318410456</v>
+        <v>0.5653644915774123</v>
       </c>
       <c r="D16">
-        <v>0.1965069270876398</v>
+        <v>0.1929637765781109</v>
       </c>
       <c r="E16">
-        <v>0.05886008249095198</v>
+        <v>0.05804252097921392</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.431678403968661</v>
+        <v>0.4061846780680156</v>
       </c>
       <c r="H16">
-        <v>0.1637385762712995</v>
+        <v>0.1635369387326904</v>
       </c>
       <c r="I16">
-        <v>0.001762664839108474</v>
+        <v>0.001985188050991127</v>
       </c>
       <c r="J16">
-        <v>0.3438546540636196</v>
+        <v>0.3287077124019078</v>
       </c>
       <c r="K16">
-        <v>0.3034596097339879</v>
+        <v>0.2739695760535206</v>
       </c>
       <c r="L16">
-        <v>0.1485564134112565</v>
+        <v>0.1275685231530375</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08443323774741351</v>
       </c>
       <c r="N16">
-        <v>0.1301494008013648</v>
+        <v>0.150375715224456</v>
       </c>
       <c r="O16">
-        <v>0.4148269600412249</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.063436688065153</v>
+        <v>0.1392560379620278</v>
       </c>
       <c r="Q16">
-        <v>1.583397808037944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4083232172233551</v>
+      </c>
+      <c r="R16">
+        <v>1.095875870557052</v>
+      </c>
+      <c r="S16">
+        <v>1.458317964907735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.611014274985962</v>
+        <v>2.532299734821493</v>
       </c>
       <c r="C17">
-        <v>0.5199915281251606</v>
+        <v>0.5420001794365419</v>
       </c>
       <c r="D17">
-        <v>0.2034163322282438</v>
+        <v>0.1996351615612753</v>
       </c>
       <c r="E17">
-        <v>0.05791878343524326</v>
+        <v>0.05702604726395366</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4419895441732962</v>
+        <v>0.4034997059553405</v>
       </c>
       <c r="H17">
-        <v>0.1262602970075903</v>
+        <v>0.1259989349208723</v>
       </c>
       <c r="I17">
-        <v>0.001943428394572955</v>
+        <v>0.002120675345273604</v>
       </c>
       <c r="J17">
-        <v>0.3513472714445669</v>
+        <v>0.3518422217534507</v>
       </c>
       <c r="K17">
-        <v>0.3145699787447285</v>
+        <v>0.2851395643424652</v>
       </c>
       <c r="L17">
-        <v>0.1324045446530064</v>
+        <v>0.1326714125938118</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0871431384576411</v>
       </c>
       <c r="N17">
-        <v>0.1439773307993732</v>
+        <v>0.1343092886097637</v>
       </c>
       <c r="O17">
-        <v>0.4151930960354306</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.04279051622089</v>
+        <v>0.1539930283374105</v>
       </c>
       <c r="Q17">
-        <v>1.620824684273117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4095921353410645</v>
+      </c>
+      <c r="R17">
+        <v>1.068649656281821</v>
+      </c>
+      <c r="S17">
+        <v>1.504386884122766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.604570800701651</v>
+        <v>2.523974502934607</v>
       </c>
       <c r="C18">
-        <v>0.4963237921565167</v>
+        <v>0.520210758877738</v>
       </c>
       <c r="D18">
-        <v>0.2208072510113652</v>
+        <v>0.2165834193703944</v>
       </c>
       <c r="E18">
-        <v>0.05778306840520464</v>
+        <v>0.05659363696064901</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4726015917520101</v>
+        <v>0.4259265251028665</v>
       </c>
       <c r="H18">
-        <v>0.07351226681475254</v>
+        <v>0.0732338531016552</v>
       </c>
       <c r="I18">
-        <v>0.00176072182216469</v>
+        <v>0.001875224436789225</v>
       </c>
       <c r="J18">
-        <v>0.3682341525457389</v>
+        <v>0.3743551524756157</v>
       </c>
       <c r="K18">
-        <v>0.3347073024783782</v>
+        <v>0.3028793981283364</v>
       </c>
       <c r="L18">
-        <v>0.1106492504371985</v>
+        <v>0.139889518581624</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09302183879886172</v>
       </c>
       <c r="N18">
-        <v>0.1768787169004611</v>
+        <v>0.112348489949504</v>
       </c>
       <c r="O18">
-        <v>0.4380755681872799</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.007402565296488</v>
+        <v>0.1885381353979128</v>
       </c>
       <c r="Q18">
-        <v>1.721013471332441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.432449088629312</v>
+      </c>
+      <c r="R18">
+        <v>1.029917021527851</v>
+      </c>
+      <c r="S18">
+        <v>1.599452400550689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.65265607339137</v>
+        <v>2.564575671953662</v>
       </c>
       <c r="C19">
-        <v>0.4784450091625843</v>
+        <v>0.505044544261267</v>
       </c>
       <c r="D19">
-        <v>0.2461288815958937</v>
+        <v>0.2412627659508928</v>
       </c>
       <c r="E19">
-        <v>0.06031694467396775</v>
+        <v>0.05864564439763953</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5161062256138251</v>
+        <v>0.4631390064220113</v>
       </c>
       <c r="H19">
-        <v>0.02804934406751158</v>
+        <v>0.02779911463090912</v>
       </c>
       <c r="I19">
-        <v>0.001832423446548326</v>
+        <v>0.001990826847825033</v>
       </c>
       <c r="J19">
-        <v>0.3907105975679031</v>
+        <v>0.3967503670700268</v>
       </c>
       <c r="K19">
-        <v>0.3601830907764665</v>
+        <v>0.3243077387044941</v>
       </c>
       <c r="L19">
-        <v>0.08956812543210191</v>
+        <v>0.1481387371712906</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.100883145646236</v>
       </c>
       <c r="N19">
-        <v>0.2282283536553678</v>
+        <v>0.09084955879425394</v>
       </c>
       <c r="O19">
-        <v>0.4777868760589499</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9683896142116879</v>
+        <v>0.2422115750271416</v>
       </c>
       <c r="Q19">
-        <v>1.860288571570948</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4715410842919852</v>
+      </c>
+      <c r="R19">
+        <v>0.9894636204320051</v>
+      </c>
+      <c r="S19">
+        <v>1.724759889397717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.863654455640585</v>
+        <v>2.752682627279057</v>
       </c>
       <c r="C20">
-        <v>0.4718863017058368</v>
+        <v>0.5035739902218666</v>
       </c>
       <c r="D20">
-        <v>0.2933588582693574</v>
+        <v>0.28730167964072</v>
       </c>
       <c r="E20">
-        <v>0.06983416044395607</v>
+        <v>0.06722372085251394</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5984846651409441</v>
+        <v>0.5450717503501181</v>
       </c>
       <c r="H20">
-        <v>0.0009633214054720618</v>
+        <v>0.0008375058116030232</v>
       </c>
       <c r="I20">
-        <v>0.001683441442240863</v>
+        <v>0.001961109538554773</v>
       </c>
       <c r="J20">
-        <v>0.430193466982459</v>
+        <v>0.4187256960133823</v>
       </c>
       <c r="K20">
-        <v>0.4023632685443808</v>
+        <v>0.3573023863247897</v>
       </c>
       <c r="L20">
-        <v>0.06964778262184623</v>
+        <v>0.1588806329540162</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1156080190589464</v>
       </c>
       <c r="N20">
-        <v>0.3283371722297375</v>
+        <v>0.07004007041792804</v>
       </c>
       <c r="O20">
-        <v>0.5645380803342377</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9136752105045787</v>
+        <v>0.3464052856203068</v>
       </c>
       <c r="Q20">
-        <v>2.117722205063984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5559562085372391</v>
+      </c>
+      <c r="R20">
+        <v>0.9371460672085803</v>
+      </c>
+      <c r="S20">
+        <v>1.942127895516649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.228439737670499</v>
+        <v>3.069511344207569</v>
       </c>
       <c r="C21">
-        <v>0.5179862607007237</v>
+        <v>0.5471111314203654</v>
       </c>
       <c r="D21">
-        <v>0.316584204526265</v>
+        <v>0.3108031599613099</v>
       </c>
       <c r="E21">
-        <v>0.07260834689781603</v>
+        <v>0.06983482109494155</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6454174204848755</v>
+        <v>0.6620708262845199</v>
       </c>
       <c r="H21">
-        <v>0.0001559635310810492</v>
+        <v>0.0001434233566661725</v>
       </c>
       <c r="I21">
-        <v>0.001709362104790557</v>
+        <v>0.002094221917849026</v>
       </c>
       <c r="J21">
-        <v>0.4473716103385357</v>
+        <v>0.3405258340924533</v>
       </c>
       <c r="K21">
-        <v>0.4114043319539036</v>
+        <v>0.3534794083100259</v>
       </c>
       <c r="L21">
-        <v>0.07398387479229029</v>
+        <v>0.1522070189044804</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1216186848277765</v>
       </c>
       <c r="N21">
-        <v>0.3689310753544106</v>
+        <v>0.07366876972169933</v>
       </c>
       <c r="O21">
-        <v>0.6382807423288384</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8957791372155057</v>
+        <v>0.3867490094446566</v>
       </c>
       <c r="Q21">
-        <v>2.253531641671003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6229364658122236</v>
+      </c>
+      <c r="R21">
+        <v>0.9395448398229789</v>
+      </c>
+      <c r="S21">
+        <v>1.989124952585087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.465485875289119</v>
+        <v>3.273233200820584</v>
       </c>
       <c r="C22">
-        <v>0.54753561190455</v>
+        <v>0.5739199131796795</v>
       </c>
       <c r="D22">
-        <v>0.3300285199705257</v>
+        <v>0.3246096702852839</v>
       </c>
       <c r="E22">
-        <v>0.07389354399007431</v>
+        <v>0.07110335963376002</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6748996189473502</v>
+        <v>0.7472684241090946</v>
       </c>
       <c r="H22">
-        <v>5.626934528546457E-06</v>
+        <v>8.771812004759738E-06</v>
       </c>
       <c r="I22">
-        <v>0.001678303289683214</v>
+        <v>0.002000256107861809</v>
       </c>
       <c r="J22">
-        <v>0.4580664355676021</v>
+        <v>0.292957079538894</v>
       </c>
       <c r="K22">
-        <v>0.4168672924396049</v>
+        <v>0.3500775406520518</v>
       </c>
       <c r="L22">
-        <v>0.07758247478707503</v>
+        <v>0.1476606115311334</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.125489780410966</v>
       </c>
       <c r="N22">
-        <v>0.3902769420309795</v>
+        <v>0.07680668168546489</v>
       </c>
       <c r="O22">
-        <v>0.6834945274240596</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8858588130369967</v>
+        <v>0.4075466938851946</v>
       </c>
       <c r="Q22">
-        <v>2.338643287660773</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6633221539084744</v>
+      </c>
+      <c r="R22">
+        <v>0.9440620616000643</v>
+      </c>
+      <c r="S22">
+        <v>2.011863843606392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.342730283759522</v>
+        <v>3.171329560430706</v>
       </c>
       <c r="C23">
-        <v>0.5301292310451515</v>
+        <v>0.5591891798309518</v>
       </c>
       <c r="D23">
-        <v>0.3230299761006137</v>
+        <v>0.3172550114950781</v>
       </c>
       <c r="E23">
-        <v>0.07327256920630276</v>
+        <v>0.070450308939213</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6607202663008422</v>
+        <v>0.6937680129870927</v>
       </c>
       <c r="H23">
-        <v>5.917961922641268E-05</v>
+        <v>5.829687305669573E-05</v>
       </c>
       <c r="I23">
-        <v>0.001369965535091389</v>
+        <v>0.001670559391862447</v>
       </c>
       <c r="J23">
-        <v>0.4531392510706667</v>
+        <v>0.3266157854804632</v>
       </c>
       <c r="K23">
-        <v>0.4151234084370614</v>
+        <v>0.3538697843327014</v>
       </c>
       <c r="L23">
-        <v>0.0756115572955558</v>
+        <v>0.1507341220763081</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1242302707269332</v>
       </c>
       <c r="N23">
-        <v>0.378390264669207</v>
+        <v>0.07515951941822863</v>
       </c>
       <c r="O23">
-        <v>0.6596299706057778</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8899734890081064</v>
+        <v>0.3962232366529577</v>
       </c>
       <c r="Q23">
-        <v>2.298151382290001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6426313476485888</v>
+      </c>
+      <c r="R23">
+        <v>0.9389371339177117</v>
+      </c>
+      <c r="S23">
+        <v>2.011751047957944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.871413942082313</v>
+        <v>2.759856201551202</v>
       </c>
       <c r="C24">
-        <v>0.4671184672293691</v>
+        <v>0.4988336849329471</v>
       </c>
       <c r="D24">
-        <v>0.2965455215017272</v>
+        <v>0.290405995566843</v>
       </c>
       <c r="E24">
-        <v>0.07080915984266056</v>
+        <v>0.06812807495635287</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6057025751276086</v>
+        <v>0.5510995851436462</v>
       </c>
       <c r="H24">
-        <v>0.0008052033601282371</v>
+        <v>0.0006828073303366544</v>
       </c>
       <c r="I24">
-        <v>0.001186524997795146</v>
+        <v>0.001365745321306733</v>
       </c>
       <c r="J24">
-        <v>0.4339208970374244</v>
+        <v>0.422943128561613</v>
       </c>
       <c r="K24">
-        <v>0.4073045343605592</v>
+        <v>0.3616504714824949</v>
       </c>
       <c r="L24">
-        <v>0.06826445253192048</v>
+        <v>0.1605610172973932</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1171893488340139</v>
       </c>
       <c r="N24">
-        <v>0.334383189693682</v>
+        <v>0.06858401079327692</v>
       </c>
       <c r="O24">
-        <v>0.5688903041480415</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9088621524991467</v>
+        <v>0.3527204408246831</v>
       </c>
       <c r="Q24">
-        <v>2.140824140546442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5602725262014445</v>
+      </c>
+      <c r="R24">
+        <v>0.9315948015896396</v>
+      </c>
+      <c r="S24">
+        <v>1.963720782056953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.362290171865595</v>
+        <v>2.280114430120591</v>
       </c>
       <c r="C25">
-        <v>0.3995216868653415</v>
+        <v>0.4197569180888649</v>
       </c>
       <c r="D25">
-        <v>0.2686338855118464</v>
+        <v>0.2637529607906544</v>
       </c>
       <c r="E25">
-        <v>0.06813100488235957</v>
+        <v>0.06595869887665806</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5489302817963591</v>
+        <v>0.4963026022304717</v>
       </c>
       <c r="H25">
-        <v>0.002668974099139465</v>
+        <v>0.002284518448154027</v>
       </c>
       <c r="I25">
-        <v>0.002006828006859251</v>
+        <v>0.00185392388839567</v>
       </c>
       <c r="J25">
-        <v>0.414734419203171</v>
+        <v>0.4151962027608249</v>
       </c>
       <c r="K25">
-        <v>0.4003857780713069</v>
+        <v>0.3607714159849458</v>
       </c>
       <c r="L25">
-        <v>0.06037954805984569</v>
+        <v>0.1680796696949187</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1075667929201423</v>
       </c>
       <c r="N25">
-        <v>0.2873014494510926</v>
+        <v>0.0605839754215225</v>
       </c>
       <c r="O25">
-        <v>0.4711299465323222</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9321426612773251</v>
+        <v>0.3032005067016712</v>
       </c>
       <c r="Q25">
-        <v>1.979776481636321</v>
+        <v>0.4649472652819142</v>
+      </c>
+      <c r="R25">
+        <v>0.9402890400577064</v>
+      </c>
+      <c r="S25">
+        <v>1.837057259481924</v>
       </c>
     </row>
   </sheetData>
